--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d17 trans\BLP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1824223-DE62-4CEB-B60C-62251343CDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282ED2C-DA5A-451E-9D01-2D0898688A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3552" yWindow="2256" windowWidth="19512" windowHeight="9912" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AboutX" sheetId="1" r:id="rId1"/>
@@ -402,9 +402,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -625,7 +625,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,6 +844,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,16 +1126,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1121,10 +1145,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1139,13 +1163,13 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="37" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="37" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="0" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1162,73 +1186,78 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="21" fillId="41" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="65">
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent1 2" xfId="50" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent2" xfId="28" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent2 2" xfId="52" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent3" xfId="31" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - Accent3 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent4" xfId="34" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - Accent4 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent5" xfId="37" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - Accent5 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent6" xfId="40" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - Accent6 2" xfId="60" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - Ênfase1" xfId="25" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase2" xfId="28" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase3" xfId="31" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase4" xfId="34" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase5" xfId="37" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Ênfase6" xfId="40" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="26" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - Accent1 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - Accent2" xfId="29" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - Accent2 2" xfId="53" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - Accent3" xfId="32" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - Accent3 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="40% - Accent4" xfId="35" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - Accent4 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="40% - Accent5" xfId="38" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - Accent5 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="40% - Accent6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - Accent6 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="40% - Ênfase1" xfId="26" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase2" xfId="29" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase3" xfId="32" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase4" xfId="35" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase5" xfId="38" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Ênfase6" xfId="41" builtinId="51" customBuiltin="1"/>
     <cellStyle name="60% - Accent1 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
     <cellStyle name="60% - Accent2 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="60% - Accent3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="60% - Accent4 2" xfId="46" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="60% - Accent5 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
     <cellStyle name="60% - Accent6 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Accent1" xfId="24" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="27" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="30" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="33" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="36" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="39" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="14" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
     <cellStyle name="Body: normal cell 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Bom" xfId="13" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="17" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Célula Vinculada" xfId="18" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Ênfase1" xfId="24" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Ênfase2" xfId="27" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Ênfase3" xfId="30" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Ênfase4" xfId="33" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Ênfase5" xfId="36" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Ênfase6" xfId="39" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="17" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="63" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="22" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Good" xfId="13" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Hiperlink" xfId="64" builtinId="8"/>
+    <cellStyle name="Heading 1" xfId="9" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="10" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="11" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="12" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8"/>
+    <cellStyle name="Input" xfId="15" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="18" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Nota" xfId="21" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="21" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="49" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Output" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Ruim" xfId="14" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Saída" xfId="16" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Texto de Aviso" xfId="20" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto Explicativo" xfId="22" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="8" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 1" xfId="9" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="10" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="11" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Título 4" xfId="12" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="8" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="23" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Vírgula" xfId="63" builtinId="3"/>
+    <cellStyle name="Warning Text" xfId="20" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1580,17 +1609,17 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="56.77734375" customWidth="1"/>
+    <col min="2" max="2" width="56.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1598,37 +1627,37 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1647,17 +1676,17 @@
       <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="170.109375" customWidth="1"/>
+    <col min="2" max="2" width="170.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1665,171 +1694,171 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1"/>
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="5">
         <v>2010</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" s="5">
         <v>2010</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B34" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1"/>
       <c r="B37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="1"/>
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:2" ht="0.9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:2" ht="0.9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="41" spans="1:2" ht="0.95" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="43" spans="1:2" ht="0.95" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B15" r:id="rId1" xr:uid="{DE198AB6-20A9-4C8B-9773-036C809CCA7F}"/>
@@ -1847,99 +1876,99 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AK32"/>
+  <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+    <sheetView topLeftCell="AM7" workbookViewId="0">
+      <selection activeCell="BB23" sqref="BB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="68.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.46484375" customWidth="1"/>
+    <col min="2" max="2" width="27.46484375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="38" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.45">
       <c r="B22" s="7">
         <v>2015</v>
       </c>
@@ -2048,8 +2077,68 @@
       <c r="AK22" s="7">
         <v>2050</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL22" s="7">
+        <v>2051</v>
+      </c>
+      <c r="AM22" s="7">
+        <v>2052</v>
+      </c>
+      <c r="AN22" s="7">
+        <v>2053</v>
+      </c>
+      <c r="AO22" s="7">
+        <v>2054</v>
+      </c>
+      <c r="AP22" s="7">
+        <v>2055</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>2056</v>
+      </c>
+      <c r="AR22" s="7">
+        <v>2057</v>
+      </c>
+      <c r="AS22" s="7">
+        <v>2058</v>
+      </c>
+      <c r="AT22" s="7">
+        <v>2059</v>
+      </c>
+      <c r="AU22" s="7">
+        <v>2060</v>
+      </c>
+      <c r="AV22" s="7">
+        <v>2061</v>
+      </c>
+      <c r="AW22" s="7">
+        <v>2062</v>
+      </c>
+      <c r="AX22" s="7">
+        <v>2063</v>
+      </c>
+      <c r="AY22" s="7">
+        <v>2064</v>
+      </c>
+      <c r="AZ22" s="7">
+        <v>2065</v>
+      </c>
+      <c r="BA22" s="7">
+        <v>2066</v>
+      </c>
+      <c r="BB22" s="7">
+        <v>2067</v>
+      </c>
+      <c r="BC22" s="7">
+        <v>2068</v>
+      </c>
+      <c r="BD22" s="7">
+        <v>2069</v>
+      </c>
+      <c r="BE22" s="7">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
         <v>52</v>
       </c>
@@ -2197,8 +2286,88 @@
         <f>(('psgr-Road'!AL39+('psgr-Road'!AL40*0.27)+('psgr-Road'!AL41*AK25)+('frgt-Road'!AK10*Calsc!AK26))/(SUM('psgr-Road'!AL39:AL42)+'frgt-Road'!AK10))</f>
         <v>0.39193533293914995</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL23" s="9">
+        <f>(('psgr-Road'!AM39+('psgr-Road'!AM40*0.27)+('psgr-Road'!AM41*AL25)+('frgt-Road'!AL10*Calsc!AL26))/(SUM('psgr-Road'!AM39:AM42)+'frgt-Road'!AL10))</f>
+        <v>0.39399591474680512</v>
+      </c>
+      <c r="AM23" s="9">
+        <f>(('psgr-Road'!AN39+('psgr-Road'!AN40*0.27)+('psgr-Road'!AN41*AM25)+('frgt-Road'!AM10*Calsc!AM26))/(SUM('psgr-Road'!AN39:AN42)+'frgt-Road'!AM10))</f>
+        <v>0.39598531411114829</v>
+      </c>
+      <c r="AN23" s="9">
+        <f>(('psgr-Road'!AO39+('psgr-Road'!AO40*0.27)+('psgr-Road'!AO41*AN25)+('frgt-Road'!AN10*Calsc!AN26))/(SUM('psgr-Road'!AO39:AO42)+'frgt-Road'!AN10))</f>
+        <v>0.39828572268264723</v>
+      </c>
+      <c r="AO23" s="9">
+        <f>(('psgr-Road'!AP39+('psgr-Road'!AP40*0.27)+('psgr-Road'!AP41*AO25)+('frgt-Road'!AO10*Calsc!AO26))/(SUM('psgr-Road'!AP39:AP42)+'frgt-Road'!AO10))</f>
+        <v>0.40022222091360904</v>
+      </c>
+      <c r="AP23" s="9">
+        <f>(('psgr-Road'!AQ39+('psgr-Road'!AQ40*0.27)+('psgr-Road'!AQ41*AP25)+('frgt-Road'!AP10*Calsc!AP26))/(SUM('psgr-Road'!AQ39:AQ42)+'frgt-Road'!AP10))</f>
+        <v>0.40213512444572369</v>
+      </c>
+      <c r="AQ23" s="9">
+        <f>(('psgr-Road'!AR39+('psgr-Road'!AR40*0.27)+('psgr-Road'!AR41*AQ25)+('frgt-Road'!AQ10*Calsc!AQ26))/(SUM('psgr-Road'!AR39:AR42)+'frgt-Road'!AQ10))</f>
+        <v>0.40402426559642329</v>
+      </c>
+      <c r="AR23" s="9">
+        <f>(('psgr-Road'!AS39+('psgr-Road'!AS40*0.27)+('psgr-Road'!AS41*AR25)+('frgt-Road'!AR10*Calsc!AR26))/(SUM('psgr-Road'!AS39:AS42)+'frgt-Road'!AR10))</f>
+        <v>0.40589033811548914</v>
+      </c>
+      <c r="AS23" s="9">
+        <f>(('psgr-Road'!AT39+('psgr-Road'!AT40*0.27)+('psgr-Road'!AT41*AS25)+('frgt-Road'!AS10*Calsc!AS26))/(SUM('psgr-Road'!AT39:AT42)+'frgt-Road'!AS10))</f>
+        <v>0.4077340090073403</v>
+      </c>
+      <c r="AT23" s="9">
+        <f>(('psgr-Road'!AU39+('psgr-Road'!AU40*0.27)+('psgr-Road'!AU41*AT25)+('frgt-Road'!AT10*Calsc!AT26))/(SUM('psgr-Road'!AU39:AU42)+'frgt-Road'!AT10))</f>
+        <v>0.4095559198075856</v>
+      </c>
+      <c r="AU23" s="9">
+        <f>(('psgr-Road'!AV39+('psgr-Road'!AV40*0.27)+('psgr-Road'!AV41*AU25)+('frgt-Road'!AU10*Calsc!AU26))/(SUM('psgr-Road'!AV39:AV42)+'frgt-Road'!AU10))</f>
+        <v>0.41135668778715301</v>
+      </c>
+      <c r="AV23" s="9">
+        <f>(('psgr-Road'!AW39+('psgr-Road'!AW40*0.27)+('psgr-Road'!AW41*AV25)+('frgt-Road'!AV10*Calsc!AV26))/(SUM('psgr-Road'!AW39:AW42)+'frgt-Road'!AV10))</f>
+        <v>0.41313690708873946</v>
+      </c>
+      <c r="AW23" s="9">
+        <f>(('psgr-Road'!AX39+('psgr-Road'!AX40*0.27)+('psgr-Road'!AX41*AW25)+('frgt-Road'!AW10*Calsc!AW26))/(SUM('psgr-Road'!AX39:AX42)+'frgt-Road'!AW10))</f>
+        <v>0.41489714979998504</v>
+      </c>
+      <c r="AX23" s="9">
+        <f>(('psgr-Road'!AY39+('psgr-Road'!AY40*0.27)+('psgr-Road'!AY41*AX25)+('frgt-Road'!AX10*Calsc!AX26))/(SUM('psgr-Road'!AY39:AY42)+'frgt-Road'!AX10))</f>
+        <v>0.41663796696744132</v>
+      </c>
+      <c r="AY23" s="9">
+        <f>(('psgr-Road'!AZ39+('psgr-Road'!AZ40*0.27)+('psgr-Road'!AZ41*AY25)+('frgt-Road'!AY10*Calsc!AY26))/(SUM('psgr-Road'!AZ39:AZ42)+'frgt-Road'!AY10))</f>
+        <v>0.41835988955510628</v>
+      </c>
+      <c r="AZ23" s="9">
+        <f>(('psgr-Road'!BA39+('psgr-Road'!BA40*0.27)+('psgr-Road'!BA41*AZ25)+('frgt-Road'!AZ10*Calsc!AZ26))/(SUM('psgr-Road'!BA39:BA42)+'frgt-Road'!AZ10))</f>
+        <v>0.42006342935103519</v>
+      </c>
+      <c r="BA23" s="9">
+        <f>(('psgr-Road'!BB39+('psgr-Road'!BB40*0.27)+('psgr-Road'!BB41*BA25)+('frgt-Road'!BA10*Calsc!BA26))/(SUM('psgr-Road'!BB39:BB42)+'frgt-Road'!BA10))</f>
+        <v>0.42174907982527765</v>
+      </c>
+      <c r="BB23" s="9">
+        <f>(('psgr-Road'!BC39+('psgr-Road'!BC40*0.27)+('psgr-Road'!BC41*BB25)+('frgt-Road'!BB10*Calsc!BB26))/(SUM('psgr-Road'!BC39:BC42)+'frgt-Road'!BB10))</f>
+        <v>0.42341731694215878</v>
+      </c>
+      <c r="BC23" s="9">
+        <f>(('psgr-Road'!BD39+('psgr-Road'!BD40*0.27)+('psgr-Road'!BD41*BC25)+('frgt-Road'!BC10*Calsc!BC26))/(SUM('psgr-Road'!BD39:BD42)+'frgt-Road'!BC10))</f>
+        <v>0.42506859992972018</v>
+      </c>
+      <c r="BD23" s="9">
+        <f>(('psgr-Road'!BE39+('psgr-Road'!BE40*0.27)+('psgr-Road'!BE41*BD25)+('frgt-Road'!BD10*Calsc!BD26))/(SUM('psgr-Road'!BE39:BE42)+'frgt-Road'!BD10))</f>
+        <v>0.42670337200893077</v>
+      </c>
+      <c r="BE23" s="9">
+        <f>(('psgr-Road'!BF39+('psgr-Road'!BF40*0.27)+('psgr-Road'!BF41*BE25)+('frgt-Road'!BE10*Calsc!BE26))/(SUM('psgr-Road'!BF39:BF42)+'frgt-Road'!BE10))</f>
+        <v>0.42832206108509763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A24" s="10" t="s">
         <v>53</v>
       </c>
@@ -2346,8 +2515,88 @@
         <f>('psgr-Road'!AL39+('psgr-Road'!AL40*0.27))/SUM('psgr-Road'!AL42,'psgr-Road'!AL39:AL40)</f>
         <v>0.53051261994333521</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL24" s="11">
+        <f>('psgr-Road'!AM39+('psgr-Road'!AM40*0.27))/SUM('psgr-Road'!AM42,'psgr-Road'!AM39:AM40)</f>
+        <v>0.53116081858212472</v>
+      </c>
+      <c r="AM24" s="11">
+        <f>('psgr-Road'!AN39+('psgr-Road'!AN40*0.27))/SUM('psgr-Road'!AN42,'psgr-Road'!AN39:AN40)</f>
+        <v>0.53179225105314587</v>
+      </c>
+      <c r="AN24" s="11">
+        <f>('psgr-Road'!AO39+('psgr-Road'!AO40*0.27))/SUM('psgr-Road'!AO42,'psgr-Road'!AO39:AO40)</f>
+        <v>0.53240763721712281</v>
+      </c>
+      <c r="AO24" s="11">
+        <f>('psgr-Road'!AP39+('psgr-Road'!AP40*0.27))/SUM('psgr-Road'!AP42,'psgr-Road'!AP39:AP40)</f>
+        <v>0.53300758106585677</v>
+      </c>
+      <c r="AP24" s="11">
+        <f>('psgr-Road'!AQ39+('psgr-Road'!AQ40*0.27))/SUM('psgr-Road'!AQ42,'psgr-Road'!AQ39:AQ40)</f>
+        <v>0.53359265665398947</v>
+      </c>
+      <c r="AQ24" s="11">
+        <f>('psgr-Road'!AR39+('psgr-Road'!AR40*0.27))/SUM('psgr-Road'!AR42,'psgr-Road'!AR39:AR40)</f>
+        <v>0.53416340993111278</v>
+      </c>
+      <c r="AR24" s="11">
+        <f>('psgr-Road'!AS39+('psgr-Road'!AS40*0.27))/SUM('psgr-Road'!AS42,'psgr-Road'!AS39:AS40)</f>
+        <v>0.53472036044096072</v>
+      </c>
+      <c r="AS24" s="11">
+        <f>('psgr-Road'!AT39+('psgr-Road'!AT40*0.27))/SUM('psgr-Road'!AT42,'psgr-Road'!AT39:AT40)</f>
+        <v>0.53526400289879472</v>
+      </c>
+      <c r="AT24" s="11">
+        <f>('psgr-Road'!AU39+('psgr-Road'!AU40*0.27))/SUM('psgr-Road'!AU42,'psgr-Road'!AU39:AU40)</f>
+        <v>0.53579480865705376</v>
+      </c>
+      <c r="AU24" s="11">
+        <f>('psgr-Road'!AV39+('psgr-Road'!AV40*0.27))/SUM('psgr-Road'!AV42,'psgr-Road'!AV39:AV40)</f>
+        <v>0.53631322706839257</v>
+      </c>
+      <c r="AV24" s="11">
+        <f>('psgr-Road'!AW39+('psgr-Road'!AW40*0.27))/SUM('psgr-Road'!AW42,'psgr-Road'!AW39:AW40)</f>
+        <v>0.53681968675439207</v>
+      </c>
+      <c r="AW24" s="11">
+        <f>('psgr-Road'!AX39+('psgr-Road'!AX40*0.27))/SUM('psgr-Road'!AX42,'psgr-Road'!AX39:AX40)</f>
+        <v>0.53731459678747473</v>
+      </c>
+      <c r="AX24" s="11">
+        <f>('psgr-Road'!AY39+('psgr-Road'!AY40*0.27))/SUM('psgr-Road'!AY42,'psgr-Road'!AY39:AY40)</f>
+        <v>0.53779834779286928</v>
+      </c>
+      <c r="AY24" s="11">
+        <f>('psgr-Road'!AZ39+('psgr-Road'!AZ40*0.27))/SUM('psgr-Road'!AZ42,'psgr-Road'!AZ39:AZ40)</f>
+        <v>0.5382713129768687</v>
+      </c>
+      <c r="AZ24" s="11">
+        <f>('psgr-Road'!BA39+('psgr-Road'!BA40*0.27))/SUM('psgr-Road'!BA42,'psgr-Road'!BA39:BA40)</f>
+        <v>0.53873384908706623</v>
+      </c>
+      <c r="BA24" s="11">
+        <f>('psgr-Road'!BB39+('psgr-Road'!BB40*0.27))/SUM('psgr-Road'!BB42,'psgr-Road'!BB39:BB40)</f>
+        <v>0.53918629730976364</v>
+      </c>
+      <c r="BB24" s="11">
+        <f>('psgr-Road'!BC39+('psgr-Road'!BC40*0.27))/SUM('psgr-Road'!BC42,'psgr-Road'!BC39:BC40)</f>
+        <v>0.5396289841092955</v>
+      </c>
+      <c r="BC24" s="11">
+        <f>('psgr-Road'!BD39+('psgr-Road'!BD40*0.27))/SUM('psgr-Road'!BD42,'psgr-Road'!BD39:BD40)</f>
+        <v>0.54006222201361009</v>
+      </c>
+      <c r="BD24" s="11">
+        <f>('psgr-Road'!BE39+('psgr-Road'!BE40*0.27))/SUM('psgr-Road'!BE42,'psgr-Road'!BE39:BE40)</f>
+        <v>0.54048631035007555</v>
+      </c>
+      <c r="BE24" s="11">
+        <f>('psgr-Road'!BF39+('psgr-Road'!BF40*0.27))/SUM('psgr-Road'!BF42,'psgr-Road'!BF39:BF40)</f>
+        <v>0.54090153593515755</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A25" s="10" t="s">
         <v>54</v>
       </c>
@@ -2459,8 +2708,68 @@
       <c r="AK25" s="12">
         <v>0.20000000000000009</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL25" s="12">
+        <v>0.20266666666666699</v>
+      </c>
+      <c r="AM25" s="12">
+        <v>0.20533333333333301</v>
+      </c>
+      <c r="AN25" s="12">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AO25" s="12">
+        <v>0.210666666666667</v>
+      </c>
+      <c r="AP25" s="12">
+        <v>0.21333333333333401</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>0.216</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>0.21866666666666701</v>
+      </c>
+      <c r="AS25" s="12">
+        <v>0.22133333333333399</v>
+      </c>
+      <c r="AT25" s="12">
+        <v>0.224</v>
+      </c>
+      <c r="AU25" s="12">
+        <v>0.22666666666666699</v>
+      </c>
+      <c r="AV25" s="12">
+        <v>0.229333333333334</v>
+      </c>
+      <c r="AW25" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AX25" s="12">
+        <v>0.234666666666667</v>
+      </c>
+      <c r="AY25" s="12">
+        <v>0.23733333333333401</v>
+      </c>
+      <c r="AZ25" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="BA25" s="12">
+        <v>0.242666666666667</v>
+      </c>
+      <c r="BB25" s="12">
+        <v>0.24533333333333401</v>
+      </c>
+      <c r="BC25" s="12">
+        <v>0.248</v>
+      </c>
+      <c r="BD25" s="12">
+        <v>0.25066666666666698</v>
+      </c>
+      <c r="BE25" s="12">
+        <v>0.25333333333333402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A26" s="10" t="s">
         <v>55</v>
       </c>
@@ -2572,8 +2881,68 @@
       <c r="AK26" s="12">
         <v>0.20000000000000009</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL26" s="12">
+        <v>0.20266666666666699</v>
+      </c>
+      <c r="AM26" s="12">
+        <v>0.20533333333333301</v>
+      </c>
+      <c r="AN26" s="12">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="AO26" s="12">
+        <v>0.210666666666667</v>
+      </c>
+      <c r="AP26" s="12">
+        <v>0.21333333333333401</v>
+      </c>
+      <c r="AQ26" s="12">
+        <v>0.216</v>
+      </c>
+      <c r="AR26" s="12">
+        <v>0.21866666666666701</v>
+      </c>
+      <c r="AS26" s="12">
+        <v>0.22133333333333399</v>
+      </c>
+      <c r="AT26" s="12">
+        <v>0.224</v>
+      </c>
+      <c r="AU26" s="12">
+        <v>0.22666666666666699</v>
+      </c>
+      <c r="AV26" s="12">
+        <v>0.229333333333334</v>
+      </c>
+      <c r="AW26" s="12">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="AX26" s="12">
+        <v>0.234666666666667</v>
+      </c>
+      <c r="AY26" s="12">
+        <v>0.23733333333333401</v>
+      </c>
+      <c r="AZ26" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="BA26" s="12">
+        <v>0.242666666666667</v>
+      </c>
+      <c r="BB26" s="12">
+        <v>0.24533333333333401</v>
+      </c>
+      <c r="BC26" s="12">
+        <v>0.248</v>
+      </c>
+      <c r="BD26" s="12">
+        <v>0.25066666666666698</v>
+      </c>
+      <c r="BE26" s="12">
+        <v>0.25333333333333402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.45">
       <c r="A28" s="13" t="s">
         <v>56</v>
       </c>
@@ -2721,8 +3090,88 @@
         <f>AK23*'EPA RFS'!$B$11</f>
         <v>0.19596766646957497</v>
       </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AL28" s="9">
+        <f>AL23*'EPA RFS'!$B$11</f>
+        <v>0.19699795737340256</v>
+      </c>
+      <c r="AM28" s="9">
+        <f>AM23*'EPA RFS'!$B$11</f>
+        <v>0.19799265705557414</v>
+      </c>
+      <c r="AN28" s="9">
+        <f>AN23*'EPA RFS'!$B$11</f>
+        <v>0.19914286134132361</v>
+      </c>
+      <c r="AO28" s="9">
+        <f>AO23*'EPA RFS'!$B$11</f>
+        <v>0.20011111045680452</v>
+      </c>
+      <c r="AP28" s="9">
+        <f>AP23*'EPA RFS'!$B$11</f>
+        <v>0.20106756222286185</v>
+      </c>
+      <c r="AQ28" s="9">
+        <f>AQ23*'EPA RFS'!$B$11</f>
+        <v>0.20201213279821165</v>
+      </c>
+      <c r="AR28" s="9">
+        <f>AR23*'EPA RFS'!$B$11</f>
+        <v>0.20294516905774457</v>
+      </c>
+      <c r="AS28" s="9">
+        <f>AS23*'EPA RFS'!$B$11</f>
+        <v>0.20386700450367015</v>
+      </c>
+      <c r="AT28" s="9">
+        <f>AT23*'EPA RFS'!$B$11</f>
+        <v>0.2047779599037928</v>
+      </c>
+      <c r="AU28" s="9">
+        <f>AU23*'EPA RFS'!$B$11</f>
+        <v>0.2056783438935765</v>
+      </c>
+      <c r="AV28" s="9">
+        <f>AV23*'EPA RFS'!$B$11</f>
+        <v>0.20656845354436973</v>
+      </c>
+      <c r="AW28" s="9">
+        <f>AW23*'EPA RFS'!$B$11</f>
+        <v>0.20744857489999252</v>
+      </c>
+      <c r="AX28" s="9">
+        <f>AX23*'EPA RFS'!$B$11</f>
+        <v>0.20831898348372066</v>
+      </c>
+      <c r="AY28" s="9">
+        <f>AY23*'EPA RFS'!$B$11</f>
+        <v>0.20917994477755314</v>
+      </c>
+      <c r="AZ28" s="9">
+        <f>AZ23*'EPA RFS'!$B$11</f>
+        <v>0.21003171467551759</v>
+      </c>
+      <c r="BA28" s="9">
+        <f>BA23*'EPA RFS'!$B$11</f>
+        <v>0.21087453991263883</v>
+      </c>
+      <c r="BB28" s="9">
+        <f>BB23*'EPA RFS'!$B$11</f>
+        <v>0.21170865847107939</v>
+      </c>
+      <c r="BC28" s="9">
+        <f>BC23*'EPA RFS'!$B$11</f>
+        <v>0.21253429996486009</v>
+      </c>
+      <c r="BD28" s="9">
+        <f>BD23*'EPA RFS'!$B$11</f>
+        <v>0.21335168600446539</v>
+      </c>
+      <c r="BE28" s="9">
+        <f>BE23*'EPA RFS'!$B$11</f>
+        <v>0.21416103054254881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:57" x14ac:dyDescent="0.45">
       <c r="B32" s="11"/>
     </row>
   </sheetData>
@@ -2733,41 +3182,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93AE9-E2E3-4CC1-B360-81105BF9E042}">
-  <dimension ref="A1:AL44"/>
+  <dimension ref="A1:BF44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="AX6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36:XFD37"/>
       <selection pane="topRight" activeCell="A36" sqref="A36:XFD37"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD37"/>
-      <selection pane="bottomRight" activeCell="A36" sqref="A36:XFD37"/>
+      <selection pane="bottomRight" activeCell="AY38" sqref="AY38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.46484375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.3984375" bestFit="1" customWidth="1"/>
+    <col min="40" max="58" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="15" t="s">
         <v>59</v>
       </c>
       <c r="B4" s="16"/>
     </row>
-    <row r="5" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="18" t="s">
         <v>60</v>
       </c>
@@ -2882,8 +3333,68 @@
       <c r="AL5" s="18">
         <v>2050</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM5" s="18">
+        <v>2051</v>
+      </c>
+      <c r="AN5" s="18">
+        <v>2052</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>2053</v>
+      </c>
+      <c r="AP5" s="18">
+        <v>2054</v>
+      </c>
+      <c r="AQ5" s="18">
+        <v>2055</v>
+      </c>
+      <c r="AR5" s="18">
+        <v>2056</v>
+      </c>
+      <c r="AS5" s="18">
+        <v>2057</v>
+      </c>
+      <c r="AT5" s="18">
+        <v>2058</v>
+      </c>
+      <c r="AU5" s="18">
+        <v>2059</v>
+      </c>
+      <c r="AV5" s="18">
+        <v>2060</v>
+      </c>
+      <c r="AW5" s="18">
+        <v>2061</v>
+      </c>
+      <c r="AX5" s="18">
+        <v>2062</v>
+      </c>
+      <c r="AY5" s="18">
+        <v>2063</v>
+      </c>
+      <c r="AZ5" s="18">
+        <v>2064</v>
+      </c>
+      <c r="BA5" s="18">
+        <v>2065</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>2066</v>
+      </c>
+      <c r="BC5" s="18">
+        <v>2067</v>
+      </c>
+      <c r="BD5" s="18">
+        <v>2068</v>
+      </c>
+      <c r="BE5" s="18">
+        <v>2069</v>
+      </c>
+      <c r="BF5" s="18">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="6" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="20" t="s">
         <v>62</v>
       </c>
@@ -2998,8 +3509,88 @@
       <c r="AL6" s="21">
         <v>2545447534.5174518</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM6" s="19">
+        <f>_xlfn.FORECAST.ETS(AM$5,$C6:$AL6,$C$5:$AL$5)</f>
+        <v>2544376686.201798</v>
+      </c>
+      <c r="AN6" s="19">
+        <f>_xlfn.FORECAST.ETS(AN$5,$C6:$AL6,$C$5:$AL$5)</f>
+        <v>2543344923.1438313</v>
+      </c>
+      <c r="AO6" s="19">
+        <f t="shared" ref="AO6:BF21" si="0">_xlfn.FORECAST.ETS(AO$5,$C6:$AL6,$C$5:$AL$5)</f>
+        <v>2542313160.0858641</v>
+      </c>
+      <c r="AP6" s="19">
+        <f t="shared" si="0"/>
+        <v>2541281397.0278974</v>
+      </c>
+      <c r="AQ6" s="19">
+        <f t="shared" si="0"/>
+        <v>2540249633.9699302</v>
+      </c>
+      <c r="AR6" s="19">
+        <f t="shared" si="0"/>
+        <v>2539217870.911963</v>
+      </c>
+      <c r="AS6" s="19">
+        <f t="shared" si="0"/>
+        <v>2538186107.8539963</v>
+      </c>
+      <c r="AT6" s="19">
+        <f t="shared" si="0"/>
+        <v>2537154344.7960291</v>
+      </c>
+      <c r="AU6" s="19">
+        <f t="shared" si="0"/>
+        <v>2536122581.7380624</v>
+      </c>
+      <c r="AV6" s="19">
+        <f t="shared" si="0"/>
+        <v>2535090818.6800952</v>
+      </c>
+      <c r="AW6" s="19">
+        <f t="shared" si="0"/>
+        <v>2534059055.6221285</v>
+      </c>
+      <c r="AX6" s="19">
+        <f t="shared" si="0"/>
+        <v>2533027292.5641613</v>
+      </c>
+      <c r="AY6" s="19">
+        <f t="shared" si="0"/>
+        <v>2531995529.5061941</v>
+      </c>
+      <c r="AZ6" s="19">
+        <f t="shared" si="0"/>
+        <v>2530963766.4482274</v>
+      </c>
+      <c r="BA6" s="19">
+        <f t="shared" si="0"/>
+        <v>2529932003.3902602</v>
+      </c>
+      <c r="BB6" s="19">
+        <f t="shared" si="0"/>
+        <v>2528900240.3322935</v>
+      </c>
+      <c r="BC6" s="19">
+        <f t="shared" si="0"/>
+        <v>2527868477.2743263</v>
+      </c>
+      <c r="BD6" s="19">
+        <f t="shared" si="0"/>
+        <v>2526836714.2163591</v>
+      </c>
+      <c r="BE6" s="19">
+        <f t="shared" si="0"/>
+        <v>2525804951.1583924</v>
+      </c>
+      <c r="BF6" s="19">
+        <f t="shared" si="0"/>
+        <v>2524773188.1004252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="20" t="s">
         <v>62</v>
       </c>
@@ -3111,11 +3702,91 @@
       <c r="AK7" s="21">
         <v>698235.29114987166</v>
       </c>
-      <c r="AL7" s="21">
+      <c r="AL7" s="37">
         <v>520937.47106026468</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM7" s="36">
+        <f t="shared" ref="AM7:BA28" si="1">_xlfn.FORECAST.ETS(AM$5,$C7:$AL7,$C$5:$AL$5)</f>
+        <v>333614.2153367736</v>
+      </c>
+      <c r="AN7" s="36">
+        <f t="shared" ref="AN7:BC27" si="2">_xlfn.FORECAST.ETS(AN$5,$C7:$AL7,$C$5:$AL$5)</f>
+        <v>146485.63403218007</v>
+      </c>
+      <c r="AO7" s="36">
+        <f t="shared" si="1"/>
+        <v>-40642.94727237965</v>
+      </c>
+      <c r="AP7" s="36">
+        <f t="shared" si="2"/>
+        <v>-227771.52857697324</v>
+      </c>
+      <c r="AQ7" s="36">
+        <f t="shared" si="1"/>
+        <v>-414900.10988153308</v>
+      </c>
+      <c r="AR7" s="36">
+        <f t="shared" si="2"/>
+        <v>-602028.69118612632</v>
+      </c>
+      <c r="AS7" s="36">
+        <f t="shared" si="1"/>
+        <v>-789157.27249068627</v>
+      </c>
+      <c r="AT7" s="36">
+        <f t="shared" si="2"/>
+        <v>-976285.85379527975</v>
+      </c>
+      <c r="AU7" s="36">
+        <f t="shared" si="1"/>
+        <v>-1163414.4350998397</v>
+      </c>
+      <c r="AV7" s="36">
+        <f t="shared" si="2"/>
+        <v>-1350543.0164044332</v>
+      </c>
+      <c r="AW7" s="36">
+        <f t="shared" si="1"/>
+        <v>-1537671.5977089929</v>
+      </c>
+      <c r="AX7" s="36">
+        <f t="shared" si="2"/>
+        <v>-1724800.1790135861</v>
+      </c>
+      <c r="AY7" s="36">
+        <f t="shared" si="1"/>
+        <v>-1911928.7603181461</v>
+      </c>
+      <c r="AZ7" s="36">
+        <f t="shared" si="2"/>
+        <v>-2099057.3416227396</v>
+      </c>
+      <c r="BA7" s="36">
+        <f t="shared" si="1"/>
+        <v>-2286185.9229272995</v>
+      </c>
+      <c r="BB7" s="36">
+        <f t="shared" si="2"/>
+        <v>-2473314.504231893</v>
+      </c>
+      <c r="BC7" s="36">
+        <f t="shared" si="0"/>
+        <v>-2660443.0855364529</v>
+      </c>
+      <c r="BD7" s="36">
+        <f t="shared" si="0"/>
+        <v>-2847571.6668410464</v>
+      </c>
+      <c r="BE7" s="36">
+        <f t="shared" si="0"/>
+        <v>-3034700.2481456064</v>
+      </c>
+      <c r="BF7" s="36">
+        <f t="shared" si="0"/>
+        <v>-3221828.8294501998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="20" t="s">
         <v>62</v>
       </c>
@@ -3230,8 +3901,88 @@
       <c r="AL8" s="21">
         <v>20017480491.667511</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM8" s="36">
+        <f t="shared" si="1"/>
+        <v>18157769286.990452</v>
+      </c>
+      <c r="AN8" s="36">
+        <f t="shared" si="2"/>
+        <v>16319427086.452215</v>
+      </c>
+      <c r="AO8" s="36">
+        <f t="shared" si="0"/>
+        <v>14481084885.91398</v>
+      </c>
+      <c r="AP8" s="36">
+        <f t="shared" si="0"/>
+        <v>12642742685.375744</v>
+      </c>
+      <c r="AQ8" s="36">
+        <f t="shared" si="0"/>
+        <v>10804400484.837509</v>
+      </c>
+      <c r="AR8" s="36">
+        <f t="shared" si="0"/>
+        <v>8966058284.2992744</v>
+      </c>
+      <c r="AS8" s="36">
+        <f t="shared" si="0"/>
+        <v>7127716083.7610378</v>
+      </c>
+      <c r="AT8" s="36">
+        <f t="shared" si="0"/>
+        <v>5289373883.2228031</v>
+      </c>
+      <c r="AU8" s="36">
+        <f t="shared" si="0"/>
+        <v>3451031682.6845684</v>
+      </c>
+      <c r="AV8" s="36">
+        <f t="shared" si="0"/>
+        <v>1612689482.1463318</v>
+      </c>
+      <c r="AW8" s="36">
+        <f t="shared" si="0"/>
+        <v>-225652718.39190298</v>
+      </c>
+      <c r="AX8" s="36">
+        <f t="shared" si="0"/>
+        <v>-2063994918.9301376</v>
+      </c>
+      <c r="AY8" s="36">
+        <f t="shared" si="0"/>
+        <v>-3902337119.4683723</v>
+      </c>
+      <c r="AZ8" s="36">
+        <f t="shared" si="0"/>
+        <v>-5740679320.0066109</v>
+      </c>
+      <c r="BA8" s="36">
+        <f t="shared" si="0"/>
+        <v>-7579021520.5448456</v>
+      </c>
+      <c r="BB8" s="36">
+        <f t="shared" si="0"/>
+        <v>-9417363721.0830803</v>
+      </c>
+      <c r="BC8" s="36">
+        <f t="shared" si="0"/>
+        <v>-11255705921.621315</v>
+      </c>
+      <c r="BD8" s="36">
+        <f t="shared" si="0"/>
+        <v>-13094048122.15955</v>
+      </c>
+      <c r="BE8" s="36">
+        <f t="shared" si="0"/>
+        <v>-14932390322.697784</v>
+      </c>
+      <c r="BF8" s="36">
+        <f t="shared" si="0"/>
+        <v>-16770732523.236023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="20" t="s">
         <v>62</v>
       </c>
@@ -3346,8 +4097,88 @@
       <c r="AL9" s="21">
         <v>16509486427.274775</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM9" s="36">
+        <f t="shared" si="1"/>
+        <v>15029300516.144516</v>
+      </c>
+      <c r="AN9" s="36">
+        <f t="shared" si="2"/>
+        <v>13565723982.5291</v>
+      </c>
+      <c r="AO9" s="36">
+        <f t="shared" si="0"/>
+        <v>12102147448.913685</v>
+      </c>
+      <c r="AP9" s="36">
+        <f t="shared" si="0"/>
+        <v>10638570915.298267</v>
+      </c>
+      <c r="AQ9" s="36">
+        <f t="shared" si="0"/>
+        <v>9174994381.6828499</v>
+      </c>
+      <c r="AR9" s="36">
+        <f t="shared" si="0"/>
+        <v>7711417848.0674343</v>
+      </c>
+      <c r="AS9" s="36">
+        <f t="shared" si="0"/>
+        <v>6247841314.4520187</v>
+      </c>
+      <c r="AT9" s="36">
+        <f t="shared" si="0"/>
+        <v>4784264780.8366013</v>
+      </c>
+      <c r="AU9" s="36">
+        <f t="shared" si="0"/>
+        <v>3320688247.2211833</v>
+      </c>
+      <c r="AV9" s="36">
+        <f t="shared" si="0"/>
+        <v>1857111713.6057684</v>
+      </c>
+      <c r="AW9" s="36">
+        <f t="shared" si="0"/>
+        <v>393535179.99035233</v>
+      </c>
+      <c r="AX9" s="36">
+        <f t="shared" si="0"/>
+        <v>-1070041353.6250645</v>
+      </c>
+      <c r="AY9" s="36">
+        <f t="shared" si="0"/>
+        <v>-2533617887.2404828</v>
+      </c>
+      <c r="AZ9" s="36">
+        <f t="shared" si="0"/>
+        <v>-3997194420.8558955</v>
+      </c>
+      <c r="BA9" s="36">
+        <f t="shared" si="0"/>
+        <v>-5460770954.4713135</v>
+      </c>
+      <c r="BB9" s="36">
+        <f t="shared" si="0"/>
+        <v>-6924347488.086731</v>
+      </c>
+      <c r="BC9" s="36">
+        <f t="shared" si="0"/>
+        <v>-8387924021.7021484</v>
+      </c>
+      <c r="BD9" s="36">
+        <f t="shared" si="0"/>
+        <v>-9851500555.3175659</v>
+      </c>
+      <c r="BE9" s="36">
+        <f t="shared" si="0"/>
+        <v>-11315077088.93298</v>
+      </c>
+      <c r="BF9" s="36">
+        <f t="shared" si="0"/>
+        <v>-12778653622.548397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="20" t="s">
         <v>62</v>
       </c>
@@ -3462,8 +4293,88 @@
       <c r="AL10" s="21">
         <v>447886842.89772946</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM10" s="36">
+        <f t="shared" si="1"/>
+        <v>392752464.25772929</v>
+      </c>
+      <c r="AN10" s="36">
+        <f t="shared" si="2"/>
+        <v>337634890.439538</v>
+      </c>
+      <c r="AO10" s="36">
+        <f t="shared" si="0"/>
+        <v>282517316.62134665</v>
+      </c>
+      <c r="AP10" s="36">
+        <f t="shared" si="0"/>
+        <v>227399742.8031553</v>
+      </c>
+      <c r="AQ10" s="36">
+        <f t="shared" si="0"/>
+        <v>172282168.98496395</v>
+      </c>
+      <c r="AR10" s="36">
+        <f t="shared" si="0"/>
+        <v>117164595.16677268</v>
+      </c>
+      <c r="AS10" s="36">
+        <f t="shared" si="0"/>
+        <v>62047021.348581299</v>
+      </c>
+      <c r="AT10" s="36">
+        <f t="shared" si="0"/>
+        <v>6929447.5303899767</v>
+      </c>
+      <c r="AU10" s="36">
+        <f t="shared" si="0"/>
+        <v>-48188126.2878014</v>
+      </c>
+      <c r="AV10" s="36">
+        <f t="shared" si="0"/>
+        <v>-103305700.10599272</v>
+      </c>
+      <c r="AW10" s="36">
+        <f t="shared" si="0"/>
+        <v>-158423273.92418402</v>
+      </c>
+      <c r="AX10" s="36">
+        <f t="shared" si="0"/>
+        <v>-213540847.74237531</v>
+      </c>
+      <c r="AY10" s="36">
+        <f t="shared" si="0"/>
+        <v>-268658421.56056672</v>
+      </c>
+      <c r="AZ10" s="36">
+        <f t="shared" si="0"/>
+        <v>-323775995.37875801</v>
+      </c>
+      <c r="BA10" s="36">
+        <f t="shared" si="0"/>
+        <v>-378893569.19694942</v>
+      </c>
+      <c r="BB10" s="36">
+        <f t="shared" si="0"/>
+        <v>-434011143.01514071</v>
+      </c>
+      <c r="BC10" s="36">
+        <f t="shared" si="0"/>
+        <v>-489128716.833332</v>
+      </c>
+      <c r="BD10" s="36">
+        <f t="shared" si="0"/>
+        <v>-544246290.65152335</v>
+      </c>
+      <c r="BE10" s="36">
+        <f t="shared" si="0"/>
+        <v>-599363864.46971464</v>
+      </c>
+      <c r="BF10" s="36">
+        <f t="shared" si="0"/>
+        <v>-654481438.28790617</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="20" t="s">
         <v>62</v>
       </c>
@@ -3578,8 +4489,88 @@
       <c r="AL11" s="21">
         <v>19365649828.459015</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM11" s="19">
+        <f>_xlfn.FORECAST.ETS(AM$5,$H11:$AL11,$H$5:$AL$5)</f>
+        <v>20688917222.62767</v>
+      </c>
+      <c r="AN11" s="19">
+        <f t="shared" ref="AN11:BF12" si="3">_xlfn.FORECAST.ETS(AN$5,$H11:$AL11,$H$5:$AL$5)</f>
+        <v>22020596770.623009</v>
+      </c>
+      <c r="AO11" s="19">
+        <f t="shared" si="3"/>
+        <v>23352276318.618343</v>
+      </c>
+      <c r="AP11" s="19">
+        <f t="shared" si="3"/>
+        <v>24683955866.613682</v>
+      </c>
+      <c r="AQ11" s="19">
+        <f t="shared" si="3"/>
+        <v>26015635414.609016</v>
+      </c>
+      <c r="AR11" s="19">
+        <f t="shared" si="3"/>
+        <v>27347314962.604355</v>
+      </c>
+      <c r="AS11" s="19">
+        <f t="shared" si="3"/>
+        <v>28678994510.599689</v>
+      </c>
+      <c r="AT11" s="19">
+        <f t="shared" si="3"/>
+        <v>30010674058.595024</v>
+      </c>
+      <c r="AU11" s="19">
+        <f t="shared" si="3"/>
+        <v>31342353606.590363</v>
+      </c>
+      <c r="AV11" s="19">
+        <f t="shared" si="3"/>
+        <v>32674033154.585701</v>
+      </c>
+      <c r="AW11" s="19">
+        <f t="shared" si="3"/>
+        <v>34005712702.581036</v>
+      </c>
+      <c r="AX11" s="19">
+        <f t="shared" si="3"/>
+        <v>35337392250.57637</v>
+      </c>
+      <c r="AY11" s="19">
+        <f t="shared" si="3"/>
+        <v>36669071798.571709</v>
+      </c>
+      <c r="AZ11" s="19">
+        <f t="shared" si="3"/>
+        <v>38000751346.567047</v>
+      </c>
+      <c r="BA11" s="19">
+        <f t="shared" si="3"/>
+        <v>39332430894.562378</v>
+      </c>
+      <c r="BB11" s="19">
+        <f t="shared" si="3"/>
+        <v>40664110442.557716</v>
+      </c>
+      <c r="BC11" s="19">
+        <f t="shared" si="3"/>
+        <v>41995789990.553055</v>
+      </c>
+      <c r="BD11" s="19">
+        <f t="shared" si="3"/>
+        <v>43327469538.548386</v>
+      </c>
+      <c r="BE11" s="19">
+        <f t="shared" si="3"/>
+        <v>44659149086.543724</v>
+      </c>
+      <c r="BF11" s="19">
+        <f t="shared" si="3"/>
+        <v>45990828634.539063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="20" t="s">
         <v>62</v>
       </c>
@@ -3694,8 +4685,88 @@
       <c r="AL12" s="21">
         <v>11912315692.799999</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM12" s="19">
+        <f>_xlfn.FORECAST.ETS(AM$5,$H12:$AL12,$H$5:$AL$5)</f>
+        <v>12726291938.624754</v>
+      </c>
+      <c r="AN12" s="19">
+        <f t="shared" si="3"/>
+        <v>13545442719.40844</v>
+      </c>
+      <c r="AO12" s="19">
+        <f t="shared" si="3"/>
+        <v>14364593500.192127</v>
+      </c>
+      <c r="AP12" s="19">
+        <f t="shared" si="3"/>
+        <v>15183744280.975813</v>
+      </c>
+      <c r="AQ12" s="19">
+        <f t="shared" si="3"/>
+        <v>16002895061.759499</v>
+      </c>
+      <c r="AR12" s="19">
+        <f t="shared" si="3"/>
+        <v>16822045842.543186</v>
+      </c>
+      <c r="AS12" s="19">
+        <f t="shared" si="3"/>
+        <v>17641196623.326874</v>
+      </c>
+      <c r="AT12" s="19">
+        <f t="shared" si="3"/>
+        <v>18460347404.110558</v>
+      </c>
+      <c r="AU12" s="19">
+        <f t="shared" si="3"/>
+        <v>19279498184.894241</v>
+      </c>
+      <c r="AV12" s="19">
+        <f t="shared" si="3"/>
+        <v>20098648965.677929</v>
+      </c>
+      <c r="AW12" s="19">
+        <f t="shared" si="3"/>
+        <v>20917799746.461617</v>
+      </c>
+      <c r="AX12" s="19">
+        <f t="shared" si="3"/>
+        <v>21736950527.2453</v>
+      </c>
+      <c r="AY12" s="19">
+        <f t="shared" si="3"/>
+        <v>22556101308.028988</v>
+      </c>
+      <c r="AZ12" s="19">
+        <f t="shared" si="3"/>
+        <v>23375252088.812675</v>
+      </c>
+      <c r="BA12" s="19">
+        <f t="shared" si="3"/>
+        <v>24194402869.596359</v>
+      </c>
+      <c r="BB12" s="19">
+        <f t="shared" si="3"/>
+        <v>25013553650.380047</v>
+      </c>
+      <c r="BC12" s="19">
+        <f t="shared" si="3"/>
+        <v>25832704431.163734</v>
+      </c>
+      <c r="BD12" s="19">
+        <f t="shared" si="3"/>
+        <v>26651855211.947418</v>
+      </c>
+      <c r="BE12" s="19">
+        <f t="shared" si="3"/>
+        <v>27471005992.731106</v>
+      </c>
+      <c r="BF12" s="19">
+        <f t="shared" si="3"/>
+        <v>28290156773.514793</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="20" t="s">
         <v>62</v>
       </c>
@@ -3810,8 +4881,68 @@
       <c r="AL13" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="21">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A14" s="20" t="s">
         <v>62</v>
       </c>
@@ -3926,8 +5057,68 @@
       <c r="AL14" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="21">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A15" s="20" t="s">
         <v>62</v>
       </c>
@@ -4042,8 +5233,68 @@
       <c r="AL15" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="21">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="20" t="s">
         <v>62</v>
       </c>
@@ -4158,8 +5409,88 @@
       <c r="AL16" s="21">
         <v>3525155958.4000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM16" s="19">
+        <f>_xlfn.FORECAST.ETS(AM$5,$AB16:$AL16,$AB$5:$AL$5)</f>
+        <v>4058471487.5017381</v>
+      </c>
+      <c r="AN16" s="19">
+        <f t="shared" ref="AN16:BF16" si="4">_xlfn.FORECAST.ETS(AN$5,$AB16:$AL16,$AB$5:$AL$5)</f>
+        <v>4594449425.1038046</v>
+      </c>
+      <c r="AO16" s="19">
+        <f t="shared" si="4"/>
+        <v>5130427362.7058716</v>
+      </c>
+      <c r="AP16" s="19">
+        <f t="shared" si="4"/>
+        <v>5666405300.3079376</v>
+      </c>
+      <c r="AQ16" s="19">
+        <f t="shared" si="4"/>
+        <v>6202383237.9100037</v>
+      </c>
+      <c r="AR16" s="19">
+        <f t="shared" si="4"/>
+        <v>6738361175.5120707</v>
+      </c>
+      <c r="AS16" s="19">
+        <f t="shared" si="4"/>
+        <v>7274339113.1141376</v>
+      </c>
+      <c r="AT16" s="19">
+        <f t="shared" si="4"/>
+        <v>7810317050.7162037</v>
+      </c>
+      <c r="AU16" s="19">
+        <f t="shared" si="4"/>
+        <v>8346294988.3182697</v>
+      </c>
+      <c r="AV16" s="19">
+        <f t="shared" si="4"/>
+        <v>8882272925.9203377</v>
+      </c>
+      <c r="AW16" s="19">
+        <f t="shared" si="4"/>
+        <v>9418250863.5224037</v>
+      </c>
+      <c r="AX16" s="19">
+        <f t="shared" si="4"/>
+        <v>9954228801.1244698</v>
+      </c>
+      <c r="AY16" s="19">
+        <f t="shared" si="4"/>
+        <v>10490206738.726536</v>
+      </c>
+      <c r="AZ16" s="19">
+        <f t="shared" si="4"/>
+        <v>11026184676.328602</v>
+      </c>
+      <c r="BA16" s="19">
+        <f t="shared" si="4"/>
+        <v>11562162613.93067</v>
+      </c>
+      <c r="BB16" s="19">
+        <f t="shared" si="4"/>
+        <v>12098140551.532736</v>
+      </c>
+      <c r="BC16" s="19">
+        <f t="shared" si="4"/>
+        <v>12634118489.134802</v>
+      </c>
+      <c r="BD16" s="19">
+        <f t="shared" si="4"/>
+        <v>13170096426.736868</v>
+      </c>
+      <c r="BE16" s="19">
+        <f t="shared" si="4"/>
+        <v>13706074364.338936</v>
+      </c>
+      <c r="BF16" s="19">
+        <f t="shared" si="4"/>
+        <v>14242052301.941002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="20" t="s">
         <v>74</v>
       </c>
@@ -4274,8 +5605,88 @@
       <c r="AL17" s="21">
         <v>5386302376.5572815</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM17" s="19">
+        <f t="shared" si="1"/>
+        <v>5403099657.6990328</v>
+      </c>
+      <c r="AN17" s="19">
+        <f t="shared" si="2"/>
+        <v>5419760934.2887936</v>
+      </c>
+      <c r="AO17" s="19">
+        <f t="shared" si="0"/>
+        <v>5436422210.8785553</v>
+      </c>
+      <c r="AP17" s="19">
+        <f t="shared" si="0"/>
+        <v>5453083487.468317</v>
+      </c>
+      <c r="AQ17" s="19">
+        <f t="shared" si="0"/>
+        <v>5469744764.0580778</v>
+      </c>
+      <c r="AR17" s="19">
+        <f t="shared" si="0"/>
+        <v>5486406040.6478395</v>
+      </c>
+      <c r="AS17" s="19">
+        <f t="shared" si="0"/>
+        <v>5503067317.2376013</v>
+      </c>
+      <c r="AT17" s="19">
+        <f t="shared" si="0"/>
+        <v>5519728593.827363</v>
+      </c>
+      <c r="AU17" s="19">
+        <f t="shared" si="0"/>
+        <v>5536389870.4171238</v>
+      </c>
+      <c r="AV17" s="19">
+        <f t="shared" si="0"/>
+        <v>5553051147.0068855</v>
+      </c>
+      <c r="AW17" s="19">
+        <f t="shared" si="0"/>
+        <v>5569712423.5966473</v>
+      </c>
+      <c r="AX17" s="19">
+        <f t="shared" si="0"/>
+        <v>5586373700.186408</v>
+      </c>
+      <c r="AY17" s="19">
+        <f t="shared" si="0"/>
+        <v>5603034976.7761698</v>
+      </c>
+      <c r="AZ17" s="19">
+        <f t="shared" si="0"/>
+        <v>5619696253.3659315</v>
+      </c>
+      <c r="BA17" s="19">
+        <f t="shared" si="0"/>
+        <v>5636357529.9556923</v>
+      </c>
+      <c r="BB17" s="19">
+        <f t="shared" si="0"/>
+        <v>5653018806.545454</v>
+      </c>
+      <c r="BC17" s="19">
+        <f t="shared" si="0"/>
+        <v>5669680083.1352158</v>
+      </c>
+      <c r="BD17" s="19">
+        <f t="shared" si="0"/>
+        <v>5686341359.7249765</v>
+      </c>
+      <c r="BE17" s="19">
+        <f t="shared" si="0"/>
+        <v>5703002636.3147383</v>
+      </c>
+      <c r="BF17" s="19">
+        <f t="shared" si="0"/>
+        <v>5719663912.9045</v>
+      </c>
+    </row>
+    <row r="18" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
@@ -4390,8 +5801,88 @@
       <c r="AL18" s="21">
         <v>2782978280.1198249</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM18" s="19">
+        <f t="shared" si="1"/>
+        <v>2792306303.070272</v>
+      </c>
+      <c r="AN18" s="19">
+        <f t="shared" si="2"/>
+        <v>2801556921.8543568</v>
+      </c>
+      <c r="AO18" s="19">
+        <f t="shared" si="0"/>
+        <v>2810807540.6384411</v>
+      </c>
+      <c r="AP18" s="19">
+        <f t="shared" si="0"/>
+        <v>2820058159.4225259</v>
+      </c>
+      <c r="AQ18" s="19">
+        <f t="shared" si="0"/>
+        <v>2829308778.2066102</v>
+      </c>
+      <c r="AR18" s="19">
+        <f t="shared" si="0"/>
+        <v>2838559396.990695</v>
+      </c>
+      <c r="AS18" s="19">
+        <f t="shared" si="0"/>
+        <v>2847810015.7747793</v>
+      </c>
+      <c r="AT18" s="19">
+        <f t="shared" si="0"/>
+        <v>2857060634.5588641</v>
+      </c>
+      <c r="AU18" s="19">
+        <f t="shared" si="0"/>
+        <v>2866311253.3429484</v>
+      </c>
+      <c r="AV18" s="19">
+        <f t="shared" si="0"/>
+        <v>2875561872.1270332</v>
+      </c>
+      <c r="AW18" s="19">
+        <f t="shared" si="0"/>
+        <v>2884812490.9111176</v>
+      </c>
+      <c r="AX18" s="19">
+        <f t="shared" si="0"/>
+        <v>2894063109.6952024</v>
+      </c>
+      <c r="AY18" s="19">
+        <f t="shared" si="0"/>
+        <v>2903313728.4792867</v>
+      </c>
+      <c r="AZ18" s="19">
+        <f t="shared" si="0"/>
+        <v>2912564347.2633715</v>
+      </c>
+      <c r="BA18" s="19">
+        <f t="shared" si="0"/>
+        <v>2921814966.0474558</v>
+      </c>
+      <c r="BB18" s="19">
+        <f t="shared" si="0"/>
+        <v>2931065584.8315406</v>
+      </c>
+      <c r="BC18" s="19">
+        <f t="shared" si="0"/>
+        <v>2940316203.6156249</v>
+      </c>
+      <c r="BD18" s="19">
+        <f t="shared" si="0"/>
+        <v>2949566822.3997097</v>
+      </c>
+      <c r="BE18" s="19">
+        <f t="shared" si="0"/>
+        <v>2958817441.183794</v>
+      </c>
+      <c r="BF18" s="19">
+        <f t="shared" si="0"/>
+        <v>2968068059.9678788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="20" t="s">
         <v>74</v>
       </c>
@@ -4506,8 +5997,88 @@
       <c r="AL19" s="21">
         <v>1758552702.7772868</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM19" s="19">
+        <f t="shared" si="1"/>
+        <v>1764444123.9807384</v>
+      </c>
+      <c r="AN19" s="19">
+        <f t="shared" si="2"/>
+        <v>1770286669.2118886</v>
+      </c>
+      <c r="AO19" s="19">
+        <f t="shared" si="0"/>
+        <v>1776129214.4430389</v>
+      </c>
+      <c r="AP19" s="19">
+        <f t="shared" si="0"/>
+        <v>1781971759.6741893</v>
+      </c>
+      <c r="AQ19" s="19">
+        <f t="shared" si="0"/>
+        <v>1787814304.9053395</v>
+      </c>
+      <c r="AR19" s="19">
+        <f t="shared" si="0"/>
+        <v>1793656850.1364899</v>
+      </c>
+      <c r="AS19" s="19">
+        <f t="shared" si="0"/>
+        <v>1799499395.3676403</v>
+      </c>
+      <c r="AT19" s="19">
+        <f t="shared" si="0"/>
+        <v>1805341940.5987904</v>
+      </c>
+      <c r="AU19" s="19">
+        <f t="shared" si="0"/>
+        <v>1811184485.8299408</v>
+      </c>
+      <c r="AV19" s="19">
+        <f t="shared" si="0"/>
+        <v>1817027031.0610912</v>
+      </c>
+      <c r="AW19" s="19">
+        <f t="shared" si="0"/>
+        <v>1822869576.2922413</v>
+      </c>
+      <c r="AX19" s="19">
+        <f t="shared" si="0"/>
+        <v>1828712121.5233917</v>
+      </c>
+      <c r="AY19" s="19">
+        <f t="shared" si="0"/>
+        <v>1834554666.7545419</v>
+      </c>
+      <c r="AZ19" s="19">
+        <f t="shared" si="0"/>
+        <v>1840397211.9856923</v>
+      </c>
+      <c r="BA19" s="19">
+        <f t="shared" si="0"/>
+        <v>1846239757.2168427</v>
+      </c>
+      <c r="BB19" s="19">
+        <f t="shared" si="0"/>
+        <v>1852082302.4479928</v>
+      </c>
+      <c r="BC19" s="19">
+        <f t="shared" si="0"/>
+        <v>1857924847.6791432</v>
+      </c>
+      <c r="BD19" s="19">
+        <f t="shared" si="0"/>
+        <v>1863767392.9102936</v>
+      </c>
+      <c r="BE19" s="19">
+        <f t="shared" si="0"/>
+        <v>1869609938.1414437</v>
+      </c>
+      <c r="BF19" s="19">
+        <f t="shared" si="0"/>
+        <v>1875452483.3725941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A20" s="20" t="s">
         <v>75</v>
       </c>
@@ -4622,8 +6193,88 @@
       <c r="AL20" s="21">
         <v>5054881539.5416737</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM20" s="19">
+        <f t="shared" si="1"/>
+        <v>5155084195.1862154</v>
+      </c>
+      <c r="AN20" s="19">
+        <f t="shared" si="2"/>
+        <v>5255314389.2162943</v>
+      </c>
+      <c r="AO20" s="19">
+        <f t="shared" si="0"/>
+        <v>5355544583.2463722</v>
+      </c>
+      <c r="AP20" s="19">
+        <f t="shared" si="0"/>
+        <v>5455774777.2764511</v>
+      </c>
+      <c r="AQ20" s="19">
+        <f t="shared" si="0"/>
+        <v>5556004971.30653</v>
+      </c>
+      <c r="AR20" s="19">
+        <f t="shared" si="0"/>
+        <v>5656235165.3366089</v>
+      </c>
+      <c r="AS20" s="19">
+        <f t="shared" si="0"/>
+        <v>5756465359.3666878</v>
+      </c>
+      <c r="AT20" s="19">
+        <f t="shared" si="0"/>
+        <v>5856695553.3967667</v>
+      </c>
+      <c r="AU20" s="19">
+        <f t="shared" si="0"/>
+        <v>5956925747.4268446</v>
+      </c>
+      <c r="AV20" s="19">
+        <f t="shared" si="0"/>
+        <v>6057155941.4569235</v>
+      </c>
+      <c r="AW20" s="19">
+        <f t="shared" si="0"/>
+        <v>6157386135.4870024</v>
+      </c>
+      <c r="AX20" s="19">
+        <f t="shared" si="0"/>
+        <v>6257616329.5170813</v>
+      </c>
+      <c r="AY20" s="19">
+        <f t="shared" si="0"/>
+        <v>6357846523.5471592</v>
+      </c>
+      <c r="AZ20" s="19">
+        <f t="shared" si="0"/>
+        <v>6458076717.5772381</v>
+      </c>
+      <c r="BA20" s="19">
+        <f t="shared" si="0"/>
+        <v>6558306911.607317</v>
+      </c>
+      <c r="BB20" s="19">
+        <f t="shared" si="0"/>
+        <v>6658537105.6373959</v>
+      </c>
+      <c r="BC20" s="19">
+        <f t="shared" si="0"/>
+        <v>6758767299.6674747</v>
+      </c>
+      <c r="BD20" s="19">
+        <f t="shared" si="0"/>
+        <v>6858997493.6975536</v>
+      </c>
+      <c r="BE20" s="19">
+        <f t="shared" si="0"/>
+        <v>6959227687.7276325</v>
+      </c>
+      <c r="BF20" s="19">
+        <f t="shared" si="0"/>
+        <v>7059457881.7577105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="20" t="s">
         <v>75</v>
       </c>
@@ -4738,8 +6389,88 @@
       <c r="AL21" s="21">
         <v>30323.971594334187</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM21" s="36">
+        <f t="shared" si="1"/>
+        <v>14026.246441096297</v>
+      </c>
+      <c r="AN21" s="36">
+        <f t="shared" si="2"/>
+        <v>-2260.1151668949856</v>
+      </c>
+      <c r="AO21" s="36">
+        <f t="shared" si="0"/>
+        <v>-18546.476774882995</v>
+      </c>
+      <c r="AP21" s="36">
+        <f t="shared" si="0"/>
+        <v>-34832.838382874274</v>
+      </c>
+      <c r="AQ21" s="36">
+        <f t="shared" si="0"/>
+        <v>-51119.199990862289</v>
+      </c>
+      <c r="AR21" s="36">
+        <f t="shared" si="0"/>
+        <v>-67405.561598853557</v>
+      </c>
+      <c r="AS21" s="36">
+        <f t="shared" si="0"/>
+        <v>-83691.923206841573</v>
+      </c>
+      <c r="AT21" s="36">
+        <f t="shared" si="0"/>
+        <v>-99978.284814832848</v>
+      </c>
+      <c r="AU21" s="36">
+        <f t="shared" si="0"/>
+        <v>-116264.64642282086</v>
+      </c>
+      <c r="AV21" s="36">
+        <f t="shared" si="0"/>
+        <v>-132551.00803081214</v>
+      </c>
+      <c r="AW21" s="36">
+        <f t="shared" si="0"/>
+        <v>-148837.36963880016</v>
+      </c>
+      <c r="AX21" s="36">
+        <f t="shared" si="0"/>
+        <v>-165123.73124679143</v>
+      </c>
+      <c r="AY21" s="36">
+        <f t="shared" si="0"/>
+        <v>-181410.09285477945</v>
+      </c>
+      <c r="AZ21" s="36">
+        <f t="shared" si="0"/>
+        <v>-197696.45446277072</v>
+      </c>
+      <c r="BA21" s="36">
+        <f t="shared" si="0"/>
+        <v>-213982.81607075874</v>
+      </c>
+      <c r="BB21" s="36">
+        <f t="shared" si="0"/>
+        <v>-230269.17767875001</v>
+      </c>
+      <c r="BC21" s="36">
+        <f t="shared" si="0"/>
+        <v>-246555.53928673803</v>
+      </c>
+      <c r="BD21" s="36">
+        <f t="shared" si="0"/>
+        <v>-262841.9008947293</v>
+      </c>
+      <c r="BE21" s="36">
+        <f t="shared" si="0"/>
+        <v>-279128.26250271732</v>
+      </c>
+      <c r="BF21" s="36">
+        <f t="shared" si="0"/>
+        <v>-295414.6241107086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A22" s="20" t="s">
         <v>76</v>
       </c>
@@ -4854,8 +6585,88 @@
       <c r="AL22" s="21">
         <v>12528430342.711115</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM22" s="19">
+        <f t="shared" si="1"/>
+        <v>12777462668.108397</v>
+      </c>
+      <c r="AN22" s="19">
+        <f t="shared" si="2"/>
+        <v>13026496246.110596</v>
+      </c>
+      <c r="AO22" s="19">
+        <f t="shared" si="2"/>
+        <v>13275529824.112797</v>
+      </c>
+      <c r="AP22" s="19">
+        <f t="shared" ref="AO22:BF27" si="5">_xlfn.FORECAST.ETS(AP$5,$C22:$AL22,$C$5:$AL$5)</f>
+        <v>13524563402.114996</v>
+      </c>
+      <c r="AQ22" s="19">
+        <f t="shared" si="2"/>
+        <v>13773596980.117195</v>
+      </c>
+      <c r="AR22" s="19">
+        <f t="shared" si="5"/>
+        <v>14022630558.119394</v>
+      </c>
+      <c r="AS22" s="19">
+        <f t="shared" si="2"/>
+        <v>14271664136.121593</v>
+      </c>
+      <c r="AT22" s="19">
+        <f t="shared" si="5"/>
+        <v>14520697714.123793</v>
+      </c>
+      <c r="AU22" s="19">
+        <f t="shared" si="2"/>
+        <v>14769731292.125992</v>
+      </c>
+      <c r="AV22" s="19">
+        <f t="shared" si="5"/>
+        <v>15018764870.128193</v>
+      </c>
+      <c r="AW22" s="19">
+        <f t="shared" si="2"/>
+        <v>15267798448.130392</v>
+      </c>
+      <c r="AX22" s="19">
+        <f t="shared" si="5"/>
+        <v>15516832026.132591</v>
+      </c>
+      <c r="AY22" s="19">
+        <f t="shared" si="2"/>
+        <v>15765865604.13479</v>
+      </c>
+      <c r="AZ22" s="19">
+        <f t="shared" si="5"/>
+        <v>16014899182.13699</v>
+      </c>
+      <c r="BA22" s="19">
+        <f t="shared" si="2"/>
+        <v>16263932760.139191</v>
+      </c>
+      <c r="BB22" s="19">
+        <f t="shared" si="5"/>
+        <v>16512966338.14139</v>
+      </c>
+      <c r="BC22" s="19">
+        <f t="shared" si="2"/>
+        <v>16761999916.143589</v>
+      </c>
+      <c r="BD22" s="19">
+        <f t="shared" si="5"/>
+        <v>17011033494.145788</v>
+      </c>
+      <c r="BE22" s="19">
+        <f t="shared" si="5"/>
+        <v>17260067072.147987</v>
+      </c>
+      <c r="BF22" s="19">
+        <f t="shared" si="5"/>
+        <v>17509100650.150188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A23" s="20" t="s">
         <v>75</v>
       </c>
@@ -4970,8 +6781,88 @@
       <c r="AL23" s="21">
         <v>7880625282.8919907</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM23" s="19">
+        <f t="shared" si="1"/>
+        <v>8037299257.5673695</v>
+      </c>
+      <c r="AN23" s="19">
+        <f t="shared" si="2"/>
+        <v>8193974012.0563335</v>
+      </c>
+      <c r="AO23" s="19">
+        <f t="shared" si="5"/>
+        <v>8350648766.5452986</v>
+      </c>
+      <c r="AP23" s="19">
+        <f t="shared" si="5"/>
+        <v>8507323521.0342627</v>
+      </c>
+      <c r="AQ23" s="19">
+        <f t="shared" si="5"/>
+        <v>8663998275.5232277</v>
+      </c>
+      <c r="AR23" s="19">
+        <f t="shared" si="5"/>
+        <v>8820673030.0121918</v>
+      </c>
+      <c r="AS23" s="19">
+        <f t="shared" si="5"/>
+        <v>8977347784.5011559</v>
+      </c>
+      <c r="AT23" s="19">
+        <f t="shared" si="5"/>
+        <v>9134022538.9901199</v>
+      </c>
+      <c r="AU23" s="19">
+        <f t="shared" si="5"/>
+        <v>9290697293.479084</v>
+      </c>
+      <c r="AV23" s="19">
+        <f t="shared" si="5"/>
+        <v>9447372047.9680481</v>
+      </c>
+      <c r="AW23" s="19">
+        <f t="shared" si="5"/>
+        <v>9604046802.4570122</v>
+      </c>
+      <c r="AX23" s="19">
+        <f t="shared" si="5"/>
+        <v>9760721556.9459763</v>
+      </c>
+      <c r="AY23" s="19">
+        <f t="shared" si="5"/>
+        <v>9917396311.4349403</v>
+      </c>
+      <c r="AZ23" s="19">
+        <f t="shared" si="5"/>
+        <v>10074071065.923904</v>
+      </c>
+      <c r="BA23" s="19">
+        <f t="shared" si="5"/>
+        <v>10230745820.41287</v>
+      </c>
+      <c r="BB23" s="19">
+        <f t="shared" si="5"/>
+        <v>10387420574.901834</v>
+      </c>
+      <c r="BC23" s="19">
+        <f t="shared" si="5"/>
+        <v>10544095329.390799</v>
+      </c>
+      <c r="BD23" s="19">
+        <f t="shared" si="5"/>
+        <v>10700770083.879763</v>
+      </c>
+      <c r="BE23" s="19">
+        <f t="shared" si="5"/>
+        <v>10857444838.368727</v>
+      </c>
+      <c r="BF23" s="19">
+        <f t="shared" si="5"/>
+        <v>11014119592.857691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A24" s="20" t="s">
         <v>77</v>
       </c>
@@ -5086,8 +6977,88 @@
       <c r="AL24" s="21">
         <v>9780609306.3001728</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM24" s="19">
+        <f t="shared" si="1"/>
+        <v>9979577602.5638981</v>
+      </c>
+      <c r="AN24" s="19">
+        <f t="shared" si="2"/>
+        <v>10178610666.847359</v>
+      </c>
+      <c r="AO24" s="19">
+        <f t="shared" si="5"/>
+        <v>10377643731.130821</v>
+      </c>
+      <c r="AP24" s="19">
+        <f t="shared" si="5"/>
+        <v>10576676795.414282</v>
+      </c>
+      <c r="AQ24" s="19">
+        <f t="shared" si="5"/>
+        <v>10775709859.697744</v>
+      </c>
+      <c r="AR24" s="19">
+        <f t="shared" si="5"/>
+        <v>10974742923.981205</v>
+      </c>
+      <c r="AS24" s="19">
+        <f t="shared" si="5"/>
+        <v>11173775988.264668</v>
+      </c>
+      <c r="AT24" s="19">
+        <f t="shared" si="5"/>
+        <v>11372809052.548128</v>
+      </c>
+      <c r="AU24" s="19">
+        <f t="shared" si="5"/>
+        <v>11571842116.831591</v>
+      </c>
+      <c r="AV24" s="19">
+        <f t="shared" si="5"/>
+        <v>11770875181.115051</v>
+      </c>
+      <c r="AW24" s="19">
+        <f t="shared" si="5"/>
+        <v>11969908245.398514</v>
+      </c>
+      <c r="AX24" s="19">
+        <f t="shared" si="5"/>
+        <v>12168941309.681976</v>
+      </c>
+      <c r="AY24" s="19">
+        <f t="shared" si="5"/>
+        <v>12367974373.965437</v>
+      </c>
+      <c r="AZ24" s="19">
+        <f t="shared" si="5"/>
+        <v>12567007438.248898</v>
+      </c>
+      <c r="BA24" s="19">
+        <f t="shared" si="5"/>
+        <v>12766040502.53236</v>
+      </c>
+      <c r="BB24" s="19">
+        <f t="shared" si="5"/>
+        <v>12965073566.815823</v>
+      </c>
+      <c r="BC24" s="19">
+        <f t="shared" si="5"/>
+        <v>13164106631.099283</v>
+      </c>
+      <c r="BD24" s="19">
+        <f t="shared" si="5"/>
+        <v>13363139695.382744</v>
+      </c>
+      <c r="BE24" s="19">
+        <f t="shared" si="5"/>
+        <v>13562172759.666206</v>
+      </c>
+      <c r="BF24" s="19">
+        <f t="shared" si="5"/>
+        <v>13761205823.949669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A25" s="20" t="s">
         <v>79</v>
       </c>
@@ -5202,8 +7173,88 @@
       <c r="AL25" s="21">
         <v>14623829956.372179</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM25" s="19">
+        <f t="shared" si="1"/>
+        <v>14899203987.023104</v>
+      </c>
+      <c r="AN25" s="19">
+        <f t="shared" si="2"/>
+        <v>15174789735.771669</v>
+      </c>
+      <c r="AO25" s="19">
+        <f t="shared" si="5"/>
+        <v>15450375484.520237</v>
+      </c>
+      <c r="AP25" s="19">
+        <f t="shared" si="5"/>
+        <v>15725961233.268803</v>
+      </c>
+      <c r="AQ25" s="19">
+        <f t="shared" si="5"/>
+        <v>16001546982.01737</v>
+      </c>
+      <c r="AR25" s="19">
+        <f t="shared" si="5"/>
+        <v>16277132730.765938</v>
+      </c>
+      <c r="AS25" s="19">
+        <f t="shared" si="5"/>
+        <v>16552718479.514503</v>
+      </c>
+      <c r="AT25" s="19">
+        <f t="shared" si="5"/>
+        <v>16828304228.263071</v>
+      </c>
+      <c r="AU25" s="19">
+        <f t="shared" si="5"/>
+        <v>17103889977.011639</v>
+      </c>
+      <c r="AV25" s="19">
+        <f t="shared" si="5"/>
+        <v>17379475725.760204</v>
+      </c>
+      <c r="AW25" s="19">
+        <f t="shared" si="5"/>
+        <v>17655061474.508774</v>
+      </c>
+      <c r="AX25" s="19">
+        <f t="shared" si="5"/>
+        <v>17930647223.257339</v>
+      </c>
+      <c r="AY25" s="19">
+        <f t="shared" si="5"/>
+        <v>18206232972.005905</v>
+      </c>
+      <c r="AZ25" s="19">
+        <f t="shared" si="5"/>
+        <v>18481818720.754471</v>
+      </c>
+      <c r="BA25" s="19">
+        <f t="shared" si="5"/>
+        <v>18757404469.50304</v>
+      </c>
+      <c r="BB25" s="19">
+        <f t="shared" si="5"/>
+        <v>19032990218.251606</v>
+      </c>
+      <c r="BC25" s="19">
+        <f t="shared" si="5"/>
+        <v>19308575967.000172</v>
+      </c>
+      <c r="BD25" s="19">
+        <f t="shared" si="5"/>
+        <v>19584161715.748741</v>
+      </c>
+      <c r="BE25" s="19">
+        <f t="shared" si="5"/>
+        <v>19859747464.497307</v>
+      </c>
+      <c r="BF25" s="19">
+        <f t="shared" si="5"/>
+        <v>20135333213.245872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="20" t="s">
         <v>80</v>
       </c>
@@ -5318,8 +7369,88 @@
       <c r="AL26" s="21">
         <v>3104178008.1578941</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM26" s="19">
+        <f t="shared" si="1"/>
+        <v>3164915293.7899146</v>
+      </c>
+      <c r="AN26" s="19">
+        <f t="shared" si="2"/>
+        <v>3225666556.1785321</v>
+      </c>
+      <c r="AO26" s="19">
+        <f t="shared" si="5"/>
+        <v>3286417818.5671492</v>
+      </c>
+      <c r="AP26" s="19">
+        <f t="shared" si="5"/>
+        <v>3347169080.9557667</v>
+      </c>
+      <c r="AQ26" s="19">
+        <f t="shared" si="5"/>
+        <v>3407920343.3443842</v>
+      </c>
+      <c r="AR26" s="19">
+        <f t="shared" si="5"/>
+        <v>3468671605.7330017</v>
+      </c>
+      <c r="AS26" s="19">
+        <f t="shared" si="5"/>
+        <v>3529422868.1216192</v>
+      </c>
+      <c r="AT26" s="19">
+        <f t="shared" si="5"/>
+        <v>3590174130.5102363</v>
+      </c>
+      <c r="AU26" s="19">
+        <f t="shared" si="5"/>
+        <v>3650925392.8988538</v>
+      </c>
+      <c r="AV26" s="19">
+        <f t="shared" si="5"/>
+        <v>3711676655.2874713</v>
+      </c>
+      <c r="AW26" s="19">
+        <f t="shared" si="5"/>
+        <v>3772427917.6760883</v>
+      </c>
+      <c r="AX26" s="19">
+        <f t="shared" si="5"/>
+        <v>3833179180.0647058</v>
+      </c>
+      <c r="AY26" s="19">
+        <f t="shared" si="5"/>
+        <v>3893930442.4533234</v>
+      </c>
+      <c r="AZ26" s="19">
+        <f t="shared" si="5"/>
+        <v>3954681704.8419409</v>
+      </c>
+      <c r="BA26" s="19">
+        <f t="shared" si="5"/>
+        <v>4015432967.2305584</v>
+      </c>
+      <c r="BB26" s="19">
+        <f t="shared" si="5"/>
+        <v>4076184229.6191759</v>
+      </c>
+      <c r="BC26" s="19">
+        <f t="shared" si="5"/>
+        <v>4136935492.0077929</v>
+      </c>
+      <c r="BD26" s="19">
+        <f t="shared" si="5"/>
+        <v>4197686754.3964105</v>
+      </c>
+      <c r="BE26" s="19">
+        <f t="shared" si="5"/>
+        <v>4258438016.785028</v>
+      </c>
+      <c r="BF26" s="19">
+        <f t="shared" si="5"/>
+        <v>4319189279.173645</v>
+      </c>
+    </row>
+    <row r="27" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A27" s="20" t="s">
         <v>81</v>
       </c>
@@ -5434,8 +7565,88 @@
       <c r="AL27" s="21">
         <v>3451259678.6666665</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM27" s="19">
+        <f t="shared" si="1"/>
+        <v>3521973326.3178258</v>
+      </c>
+      <c r="AN27" s="19">
+        <f t="shared" si="2"/>
+        <v>3592717216.4576297</v>
+      </c>
+      <c r="AO27" s="19">
+        <f t="shared" si="5"/>
+        <v>3663461106.5974336</v>
+      </c>
+      <c r="AP27" s="19">
+        <f t="shared" si="5"/>
+        <v>3734204996.737237</v>
+      </c>
+      <c r="AQ27" s="19">
+        <f t="shared" si="5"/>
+        <v>3804948886.8770409</v>
+      </c>
+      <c r="AR27" s="19">
+        <f t="shared" si="5"/>
+        <v>3875692777.0168447</v>
+      </c>
+      <c r="AS27" s="19">
+        <f t="shared" si="5"/>
+        <v>3946436667.1566486</v>
+      </c>
+      <c r="AT27" s="19">
+        <f t="shared" si="5"/>
+        <v>4017180557.2964525</v>
+      </c>
+      <c r="AU27" s="19">
+        <f t="shared" si="5"/>
+        <v>4087924447.4362564</v>
+      </c>
+      <c r="AV27" s="19">
+        <f t="shared" si="5"/>
+        <v>4158668337.5760603</v>
+      </c>
+      <c r="AW27" s="19">
+        <f t="shared" si="5"/>
+        <v>4229412227.7158642</v>
+      </c>
+      <c r="AX27" s="19">
+        <f t="shared" si="5"/>
+        <v>4300156117.8556681</v>
+      </c>
+      <c r="AY27" s="19">
+        <f t="shared" si="5"/>
+        <v>4370900007.995472</v>
+      </c>
+      <c r="AZ27" s="19">
+        <f t="shared" si="5"/>
+        <v>4441643898.1352758</v>
+      </c>
+      <c r="BA27" s="19">
+        <f t="shared" si="5"/>
+        <v>4512387788.2750797</v>
+      </c>
+      <c r="BB27" s="19">
+        <f t="shared" si="5"/>
+        <v>4583131678.4148827</v>
+      </c>
+      <c r="BC27" s="19">
+        <f t="shared" si="5"/>
+        <v>4653875568.5546875</v>
+      </c>
+      <c r="BD27" s="19">
+        <f t="shared" si="5"/>
+        <v>4724619458.6944904</v>
+      </c>
+      <c r="BE27" s="19">
+        <f t="shared" si="5"/>
+        <v>4795363348.8342943</v>
+      </c>
+      <c r="BF27" s="19">
+        <f t="shared" si="5"/>
+        <v>4866107238.9740982</v>
+      </c>
+    </row>
+    <row r="28" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -5457,8 +7668,9 @@
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
       <c r="W28" s="22"/>
-    </row>
-    <row r="29" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM28" s="19"/>
+    </row>
+    <row r="29" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="C29" s="22"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
@@ -5480,9 +7692,12 @@
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
       <c r="W29" s="22"/>
-    </row>
-    <row r="30" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM29" s="19"/>
+    </row>
+    <row r="30" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AM30" s="19"/>
+    </row>
+    <row r="31" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" s="23" t="s">
         <v>82</v>
       </c>
@@ -5594,8 +7809,88 @@
       <c r="AL31" s="24">
         <v>38061531367.186707</v>
       </c>
-    </row>
-    <row r="32" spans="1:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM31" s="39">
+        <f t="shared" ref="AM29:BB36" si="6">_xlfn.FORECAST.ETS(AM$5,$C31:$AL31,$C$5:$AL$5)</f>
+        <v>38637267428.866386</v>
+      </c>
+      <c r="AN31" s="39">
+        <f t="shared" si="6"/>
+        <v>39213003490.546066</v>
+      </c>
+      <c r="AO31" s="39">
+        <f t="shared" si="6"/>
+        <v>39788739552.225746</v>
+      </c>
+      <c r="AP31" s="39">
+        <f t="shared" si="6"/>
+        <v>40364475613.905426</v>
+      </c>
+      <c r="AQ31" s="39">
+        <f t="shared" si="6"/>
+        <v>40940211675.585114</v>
+      </c>
+      <c r="AR31" s="39">
+        <f t="shared" si="6"/>
+        <v>41515947737.264793</v>
+      </c>
+      <c r="AS31" s="39">
+        <f t="shared" si="6"/>
+        <v>42091683798.944473</v>
+      </c>
+      <c r="AT31" s="39">
+        <f t="shared" si="6"/>
+        <v>42667419860.624153</v>
+      </c>
+      <c r="AU31" s="39">
+        <f t="shared" si="6"/>
+        <v>43243155922.303833</v>
+      </c>
+      <c r="AV31" s="39">
+        <f t="shared" si="6"/>
+        <v>43818891983.983513</v>
+      </c>
+      <c r="AW31" s="39">
+        <f t="shared" si="6"/>
+        <v>44394628045.663193</v>
+      </c>
+      <c r="AX31" s="39">
+        <f t="shared" si="6"/>
+        <v>44970364107.342873</v>
+      </c>
+      <c r="AY31" s="39">
+        <f t="shared" si="6"/>
+        <v>45546100169.022552</v>
+      </c>
+      <c r="AZ31" s="39">
+        <f t="shared" si="6"/>
+        <v>46121836230.702232</v>
+      </c>
+      <c r="BA31" s="39">
+        <f t="shared" si="6"/>
+        <v>46697572292.381912</v>
+      </c>
+      <c r="BB31" s="39">
+        <f t="shared" si="6"/>
+        <v>47273308354.0616</v>
+      </c>
+      <c r="BC31" s="39">
+        <f t="shared" ref="AO31:BF36" si="7">_xlfn.FORECAST.ETS(BC$5,$C31:$AL31,$C$5:$AL$5)</f>
+        <v>47849044415.741272</v>
+      </c>
+      <c r="BD31" s="39">
+        <f t="shared" si="7"/>
+        <v>48424780477.420959</v>
+      </c>
+      <c r="BE31" s="39">
+        <f t="shared" si="7"/>
+        <v>49000516539.100639</v>
+      </c>
+      <c r="BF31" s="39">
+        <f t="shared" si="7"/>
+        <v>49576252600.780319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32" s="25" t="s">
         <v>83</v>
       </c>
@@ -5707,8 +8002,88 @@
       <c r="AL32" s="24">
         <v>67681170393.573875</v>
       </c>
-    </row>
-    <row r="33" spans="2:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM32" s="39">
+        <f t="shared" si="6"/>
+        <v>68563309804.174263</v>
+      </c>
+      <c r="AN32" s="39">
+        <f t="shared" si="6"/>
+        <v>69445449214.774658</v>
+      </c>
+      <c r="AO32" s="39">
+        <f t="shared" si="7"/>
+        <v>70327588625.375046</v>
+      </c>
+      <c r="AP32" s="39">
+        <f t="shared" si="7"/>
+        <v>71209728035.975433</v>
+      </c>
+      <c r="AQ32" s="39">
+        <f t="shared" si="7"/>
+        <v>72091867446.575821</v>
+      </c>
+      <c r="AR32" s="39">
+        <f t="shared" si="7"/>
+        <v>72974006857.176208</v>
+      </c>
+      <c r="AS32" s="39">
+        <f t="shared" si="7"/>
+        <v>73856146267.776611</v>
+      </c>
+      <c r="AT32" s="39">
+        <f t="shared" si="7"/>
+        <v>74738285678.376999</v>
+      </c>
+      <c r="AU32" s="39">
+        <f t="shared" si="7"/>
+        <v>75620425088.977386</v>
+      </c>
+      <c r="AV32" s="39">
+        <f t="shared" si="7"/>
+        <v>76502564499.577774</v>
+      </c>
+      <c r="AW32" s="39">
+        <f t="shared" si="7"/>
+        <v>77384703910.178162</v>
+      </c>
+      <c r="AX32" s="39">
+        <f t="shared" si="7"/>
+        <v>78266843320.778549</v>
+      </c>
+      <c r="AY32" s="39">
+        <f t="shared" si="7"/>
+        <v>79148982731.378937</v>
+      </c>
+      <c r="AZ32" s="39">
+        <f t="shared" si="7"/>
+        <v>80031122141.97934</v>
+      </c>
+      <c r="BA32" s="39">
+        <f t="shared" si="7"/>
+        <v>80913261552.579727</v>
+      </c>
+      <c r="BB32" s="39">
+        <f t="shared" si="7"/>
+        <v>81795400963.180115</v>
+      </c>
+      <c r="BC32" s="39">
+        <f t="shared" si="7"/>
+        <v>82677540373.780502</v>
+      </c>
+      <c r="BD32" s="39">
+        <f t="shared" si="7"/>
+        <v>83559679784.38089</v>
+      </c>
+      <c r="BE32" s="39">
+        <f t="shared" si="7"/>
+        <v>84441819194.981277</v>
+      </c>
+      <c r="BF32" s="39">
+        <f t="shared" si="7"/>
+        <v>85323958605.581665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B33" s="25" t="s">
         <v>84</v>
       </c>
@@ -5820,8 +8195,88 @@
       <c r="AL33" s="24">
         <v>30959876949.496914</v>
       </c>
-    </row>
-    <row r="34" spans="2:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM33" s="19">
+        <f t="shared" si="6"/>
+        <v>31565657634.765087</v>
+      </c>
+      <c r="AN33" s="19">
+        <f t="shared" si="6"/>
+        <v>32171652266.017921</v>
+      </c>
+      <c r="AO33" s="19">
+        <f t="shared" si="7"/>
+        <v>32777646897.270752</v>
+      </c>
+      <c r="AP33" s="19">
+        <f t="shared" si="7"/>
+        <v>33383641528.523586</v>
+      </c>
+      <c r="AQ33" s="19">
+        <f t="shared" si="7"/>
+        <v>33989636159.776421</v>
+      </c>
+      <c r="AR33" s="19">
+        <f t="shared" si="7"/>
+        <v>34595630791.029251</v>
+      </c>
+      <c r="AS33" s="19">
+        <f t="shared" si="7"/>
+        <v>35201625422.282089</v>
+      </c>
+      <c r="AT33" s="19">
+        <f t="shared" si="7"/>
+        <v>35807620053.53492</v>
+      </c>
+      <c r="AU33" s="19">
+        <f t="shared" si="7"/>
+        <v>36413614684.78775</v>
+      </c>
+      <c r="AV33" s="19">
+        <f t="shared" si="7"/>
+        <v>37019609316.040588</v>
+      </c>
+      <c r="AW33" s="19">
+        <f t="shared" si="7"/>
+        <v>37625603947.293419</v>
+      </c>
+      <c r="AX33" s="19">
+        <f t="shared" si="7"/>
+        <v>38231598578.546249</v>
+      </c>
+      <c r="AY33" s="19">
+        <f t="shared" si="7"/>
+        <v>38837593209.799088</v>
+      </c>
+      <c r="AZ33" s="19">
+        <f t="shared" si="7"/>
+        <v>39443587841.051918</v>
+      </c>
+      <c r="BA33" s="19">
+        <f t="shared" si="7"/>
+        <v>40049582472.304749</v>
+      </c>
+      <c r="BB33" s="19">
+        <f t="shared" si="7"/>
+        <v>40655577103.557587</v>
+      </c>
+      <c r="BC33" s="19">
+        <f t="shared" si="7"/>
+        <v>41261571734.810425</v>
+      </c>
+      <c r="BD33" s="19">
+        <f t="shared" si="7"/>
+        <v>41867566366.063255</v>
+      </c>
+      <c r="BE33" s="19">
+        <f t="shared" si="7"/>
+        <v>42473560997.316086</v>
+      </c>
+      <c r="BF33" s="19">
+        <f t="shared" si="7"/>
+        <v>43079555628.568924</v>
+      </c>
+    </row>
+    <row r="34" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="25" t="s">
         <v>85</v>
       </c>
@@ -5933,8 +8388,88 @@
       <c r="AL34" s="24">
         <v>447886842.89772946</v>
       </c>
-    </row>
-    <row r="35" spans="2:38" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AM34" s="36">
+        <f t="shared" si="6"/>
+        <v>392752464.25772929</v>
+      </c>
+      <c r="AN34" s="36">
+        <f t="shared" si="6"/>
+        <v>337634890.439538</v>
+      </c>
+      <c r="AO34" s="36">
+        <f t="shared" si="7"/>
+        <v>282517316.62134665</v>
+      </c>
+      <c r="AP34" s="36">
+        <f t="shared" si="7"/>
+        <v>227399742.8031553</v>
+      </c>
+      <c r="AQ34" s="36">
+        <f t="shared" si="7"/>
+        <v>172282168.98496395</v>
+      </c>
+      <c r="AR34" s="36">
+        <f t="shared" si="7"/>
+        <v>117164595.16677268</v>
+      </c>
+      <c r="AS34" s="36">
+        <f t="shared" si="7"/>
+        <v>62047021.348581299</v>
+      </c>
+      <c r="AT34" s="36">
+        <f t="shared" si="7"/>
+        <v>6929447.5303899767</v>
+      </c>
+      <c r="AU34" s="36">
+        <f t="shared" si="7"/>
+        <v>-48188126.2878014</v>
+      </c>
+      <c r="AV34" s="36">
+        <f t="shared" si="7"/>
+        <v>-103305700.10599272</v>
+      </c>
+      <c r="AW34" s="36">
+        <f t="shared" si="7"/>
+        <v>-158423273.92418402</v>
+      </c>
+      <c r="AX34" s="36">
+        <f t="shared" si="7"/>
+        <v>-213540847.74237531</v>
+      </c>
+      <c r="AY34" s="36">
+        <f t="shared" si="7"/>
+        <v>-268658421.56056672</v>
+      </c>
+      <c r="AZ34" s="36">
+        <f t="shared" si="7"/>
+        <v>-323775995.37875801</v>
+      </c>
+      <c r="BA34" s="36">
+        <f t="shared" si="7"/>
+        <v>-378893569.19694942</v>
+      </c>
+      <c r="BB34" s="36">
+        <f t="shared" si="7"/>
+        <v>-434011143.01514071</v>
+      </c>
+      <c r="BC34" s="36">
+        <f t="shared" si="7"/>
+        <v>-489128716.833332</v>
+      </c>
+      <c r="BD34" s="36">
+        <f t="shared" si="7"/>
+        <v>-544246290.65152335</v>
+      </c>
+      <c r="BE34" s="36">
+        <f t="shared" si="7"/>
+        <v>-599363864.46971464</v>
+      </c>
+      <c r="BF34" s="36">
+        <f t="shared" si="7"/>
+        <v>-654481438.28790617</v>
+      </c>
+    </row>
+    <row r="35" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B35" s="25" t="s">
         <v>86</v>
       </c>
@@ -6046,162 +8581,322 @@
       <c r="AL35" s="24">
         <v>3525155958.4000006</v>
       </c>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM35" s="39">
+        <f>_xlfn.FORECAST.ETS(AM$5,$AB35:$AL35,$AB$5:$AL$5)</f>
+        <v>4058471487.5017381</v>
+      </c>
+      <c r="AN35" s="39">
+        <f t="shared" ref="AN35:BF35" si="8">_xlfn.FORECAST.ETS(AN$5,$AB35:$AL35,$AB$5:$AL$5)</f>
+        <v>4594449425.1038046</v>
+      </c>
+      <c r="AO35" s="39">
+        <f t="shared" si="8"/>
+        <v>5130427362.7058716</v>
+      </c>
+      <c r="AP35" s="39">
+        <f t="shared" si="8"/>
+        <v>5666405300.3079376</v>
+      </c>
+      <c r="AQ35" s="39">
+        <f t="shared" si="8"/>
+        <v>6202383237.9100037</v>
+      </c>
+      <c r="AR35" s="39">
+        <f t="shared" si="8"/>
+        <v>6738361175.5120707</v>
+      </c>
+      <c r="AS35" s="39">
+        <f t="shared" si="8"/>
+        <v>7274339113.1141376</v>
+      </c>
+      <c r="AT35" s="39">
+        <f t="shared" si="8"/>
+        <v>7810317050.7162037</v>
+      </c>
+      <c r="AU35" s="39">
+        <f t="shared" si="8"/>
+        <v>8346294988.3182697</v>
+      </c>
+      <c r="AV35" s="39">
+        <f t="shared" si="8"/>
+        <v>8882272925.9203377</v>
+      </c>
+      <c r="AW35" s="39">
+        <f t="shared" si="8"/>
+        <v>9418250863.5224037</v>
+      </c>
+      <c r="AX35" s="39">
+        <f t="shared" si="8"/>
+        <v>9954228801.1244698</v>
+      </c>
+      <c r="AY35" s="39">
+        <f t="shared" si="8"/>
+        <v>10490206738.726536</v>
+      </c>
+      <c r="AZ35" s="39">
+        <f t="shared" si="8"/>
+        <v>11026184676.328602</v>
+      </c>
+      <c r="BA35" s="39">
+        <f t="shared" si="8"/>
+        <v>11562162613.93067</v>
+      </c>
+      <c r="BB35" s="39">
+        <f t="shared" si="8"/>
+        <v>12098140551.532736</v>
+      </c>
+      <c r="BC35" s="39">
+        <f t="shared" si="8"/>
+        <v>12634118489.134802</v>
+      </c>
+      <c r="BD35" s="39">
+        <f t="shared" si="8"/>
+        <v>13170096426.736868</v>
+      </c>
+      <c r="BE35" s="39">
+        <f t="shared" si="8"/>
+        <v>13706074364.338936</v>
+      </c>
+      <c r="BF35" s="39">
+        <f t="shared" si="8"/>
+        <v>14242052301.941002</v>
+      </c>
+    </row>
+    <row r="36" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B36" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C36" s="27">
-        <f t="shared" ref="C36:AL36" si="0">SUM(C31:C35)</f>
+        <f t="shared" ref="C36:AM36" si="9">SUM(C31:C35)</f>
         <v>70558157973.281219</v>
       </c>
       <c r="D36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>74903631006.396164</v>
       </c>
       <c r="E36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>78937375216.814301</v>
       </c>
       <c r="F36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>82996067209.157059</v>
       </c>
       <c r="G36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>87072176370.966095</v>
       </c>
       <c r="H36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>90880559561.345978</v>
       </c>
       <c r="I36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>94646472728.339493</v>
       </c>
       <c r="J36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>98397287986.998093</v>
       </c>
       <c r="K36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>102135499952.87811</v>
       </c>
       <c r="L36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>105864395773.4299</v>
       </c>
       <c r="M36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>109474376683.04561</v>
       </c>
       <c r="N36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>112870483694.37325</v>
       </c>
       <c r="O36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>116070309349.28824</v>
       </c>
       <c r="P36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>119084203707.91962</v>
       </c>
       <c r="Q36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>121919493423.30681</v>
       </c>
       <c r="R36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>124592409303.06229</v>
       </c>
       <c r="S36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>127069304604.91312</v>
       </c>
       <c r="T36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>129312010212.10809</v>
       </c>
       <c r="U36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>131335088236.16837</v>
       </c>
       <c r="V36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>133151573212.95319</v>
       </c>
       <c r="W36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>134735362533.5405</v>
       </c>
       <c r="X36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>136065498586.48903</v>
       </c>
       <c r="Y36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>137166454285.94363</v>
       </c>
       <c r="Z36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>138058888784.47089</v>
       </c>
       <c r="AA36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>138760719420.67947</v>
       </c>
       <c r="AB36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>139305374899.75757</v>
       </c>
       <c r="AC36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>139724705316.49768</v>
       </c>
       <c r="AD36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140033188847.66629</v>
       </c>
       <c r="AE36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140246157474.56558</v>
       </c>
       <c r="AF36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140374182083.8981</v>
       </c>
       <c r="AG36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140429255349.62946</v>
       </c>
       <c r="AH36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140422857359.92255</v>
       </c>
       <c r="AI36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140365243893.42279</v>
       </c>
       <c r="AJ36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140265487454.35025</v>
       </c>
       <c r="AK36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140131099701.80679</v>
       </c>
       <c r="AL36" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="9"/>
         <v>140675621511.55524</v>
       </c>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM36" s="40">
+        <f t="shared" si="9"/>
+        <v>143217458819.56519</v>
+      </c>
+      <c r="AN36" s="39">
+        <f t="shared" si="6"/>
+        <v>144648745154.76733</v>
+      </c>
+      <c r="AO36" s="39">
+        <f t="shared" si="7"/>
+        <v>146635306976.37338</v>
+      </c>
+      <c r="AP36" s="39">
+        <f t="shared" si="7"/>
+        <v>148621868797.97943</v>
+      </c>
+      <c r="AQ36" s="39">
+        <f t="shared" si="7"/>
+        <v>150608430619.58545</v>
+      </c>
+      <c r="AR36" s="39">
+        <f t="shared" si="7"/>
+        <v>152594992441.1915</v>
+      </c>
+      <c r="AS36" s="39">
+        <f t="shared" si="7"/>
+        <v>154581554262.79755</v>
+      </c>
+      <c r="AT36" s="39">
+        <f t="shared" si="7"/>
+        <v>156568116084.40359</v>
+      </c>
+      <c r="AU36" s="39">
+        <f t="shared" si="7"/>
+        <v>158554677906.00964</v>
+      </c>
+      <c r="AV36" s="39">
+        <f t="shared" si="7"/>
+        <v>160541239727.61569</v>
+      </c>
+      <c r="AW36" s="39">
+        <f t="shared" si="7"/>
+        <v>162527801549.22174</v>
+      </c>
+      <c r="AX36" s="39">
+        <f t="shared" si="7"/>
+        <v>164514363370.82779</v>
+      </c>
+      <c r="AY36" s="39">
+        <f t="shared" si="7"/>
+        <v>166500925192.43384</v>
+      </c>
+      <c r="AZ36" s="39">
+        <f t="shared" si="7"/>
+        <v>168487487014.03986</v>
+      </c>
+      <c r="BA36" s="39">
+        <f t="shared" si="7"/>
+        <v>170474048835.6459</v>
+      </c>
+      <c r="BB36" s="39">
+        <f t="shared" si="7"/>
+        <v>172460610657.25195</v>
+      </c>
+      <c r="BC36" s="39">
+        <f t="shared" si="7"/>
+        <v>174447172478.858</v>
+      </c>
+      <c r="BD36" s="39">
+        <f t="shared" si="7"/>
+        <v>176433734300.46405</v>
+      </c>
+      <c r="BE36" s="39">
+        <f t="shared" si="7"/>
+        <v>178420296122.0701</v>
+      </c>
+      <c r="BF36" s="39">
+        <f t="shared" si="7"/>
+        <v>180406857943.67615</v>
+      </c>
+    </row>
+    <row r="38" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B38" s="28" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B39" s="23" t="s">
         <v>82</v>
       </c>
@@ -6349,8 +9044,88 @@
         <f>AL31*units_conv!$A$2</f>
         <v>10054790864.332447</v>
       </c>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM39" s="24">
+        <f>AM31*units_conv!$A$2</f>
+        <v>10206884211.218493</v>
+      </c>
+      <c r="AN39" s="24">
+        <f>AN31*units_conv!$A$2</f>
+        <v>10358977558.104536</v>
+      </c>
+      <c r="AO39" s="24">
+        <f>AO31*units_conv!$A$2</f>
+        <v>10511070904.99058</v>
+      </c>
+      <c r="AP39" s="24">
+        <f>AP31*units_conv!$A$2</f>
+        <v>10663164251.876625</v>
+      </c>
+      <c r="AQ39" s="24">
+        <f>AQ31*units_conv!$A$2</f>
+        <v>10815257598.762671</v>
+      </c>
+      <c r="AR39" s="24">
+        <f>AR31*units_conv!$A$2</f>
+        <v>10967350945.648716</v>
+      </c>
+      <c r="AS39" s="24">
+        <f>AS31*units_conv!$A$2</f>
+        <v>11119444292.53476</v>
+      </c>
+      <c r="AT39" s="24">
+        <f>AT31*units_conv!$A$2</f>
+        <v>11271537639.420805</v>
+      </c>
+      <c r="AU39" s="24">
+        <f>AU31*units_conv!$A$2</f>
+        <v>11423630986.306849</v>
+      </c>
+      <c r="AV39" s="24">
+        <f>AV31*units_conv!$A$2</f>
+        <v>11575724333.192894</v>
+      </c>
+      <c r="AW39" s="24">
+        <f>AW31*units_conv!$A$2</f>
+        <v>11727817680.078938</v>
+      </c>
+      <c r="AX39" s="24">
+        <f>AX31*units_conv!$A$2</f>
+        <v>11879911026.964983</v>
+      </c>
+      <c r="AY39" s="24">
+        <f>AY31*units_conv!$A$2</f>
+        <v>12032004373.851027</v>
+      </c>
+      <c r="AZ39" s="24">
+        <f>AZ31*units_conv!$A$2</f>
+        <v>12184097720.73707</v>
+      </c>
+      <c r="BA39" s="24">
+        <f>BA31*units_conv!$A$2</f>
+        <v>12336191067.623116</v>
+      </c>
+      <c r="BB39" s="24">
+        <f>BB31*units_conv!$A$2</f>
+        <v>12488284414.509161</v>
+      </c>
+      <c r="BC39" s="24">
+        <f>BC31*units_conv!$A$2</f>
+        <v>12640377761.395205</v>
+      </c>
+      <c r="BD39" s="24">
+        <f>BD31*units_conv!$A$2</f>
+        <v>12792471108.28125</v>
+      </c>
+      <c r="BE39" s="24">
+        <f>BE31*units_conv!$A$2</f>
+        <v>12944564455.167295</v>
+      </c>
+      <c r="BF39" s="24">
+        <f>BF31*units_conv!$A$2</f>
+        <v>13096657802.053339</v>
+      </c>
+    </row>
+    <row r="40" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B40" s="25" t="s">
         <v>83</v>
       </c>
@@ -6498,8 +9273,88 @@
         <f>AL32*units_conv!$A$2</f>
         <v>17879470145.211201</v>
       </c>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM40" s="24">
+        <f>AM32*units_conv!$A$2</f>
+        <v>18112506677.588326</v>
+      </c>
+      <c r="AN40" s="24">
+        <f>AN32*units_conv!$A$2</f>
+        <v>18345543209.965454</v>
+      </c>
+      <c r="AO40" s="24">
+        <f>AO32*units_conv!$A$2</f>
+        <v>18578579742.342579</v>
+      </c>
+      <c r="AP40" s="24">
+        <f>AP32*units_conv!$A$2</f>
+        <v>18811616274.719704</v>
+      </c>
+      <c r="AQ40" s="24">
+        <f>AQ32*units_conv!$A$2</f>
+        <v>19044652807.096828</v>
+      </c>
+      <c r="AR40" s="24">
+        <f>AR32*units_conv!$A$2</f>
+        <v>19277689339.473953</v>
+      </c>
+      <c r="AS40" s="24">
+        <f>AS32*units_conv!$A$2</f>
+        <v>19510725871.851086</v>
+      </c>
+      <c r="AT40" s="24">
+        <f>AT32*units_conv!$A$2</f>
+        <v>19743762404.22821</v>
+      </c>
+      <c r="AU40" s="24">
+        <f>AU32*units_conv!$A$2</f>
+        <v>19976798936.605335</v>
+      </c>
+      <c r="AV40" s="24">
+        <f>AV32*units_conv!$A$2</f>
+        <v>20209835468.98246</v>
+      </c>
+      <c r="AW40" s="24">
+        <f>AW32*units_conv!$A$2</f>
+        <v>20442872001.359585</v>
+      </c>
+      <c r="AX40" s="24">
+        <f>AX32*units_conv!$A$2</f>
+        <v>20675908533.736713</v>
+      </c>
+      <c r="AY40" s="24">
+        <f>AY32*units_conv!$A$2</f>
+        <v>20908945066.113838</v>
+      </c>
+      <c r="AZ40" s="24">
+        <f>AZ32*units_conv!$A$2</f>
+        <v>21141981598.490967</v>
+      </c>
+      <c r="BA40" s="24">
+        <f>BA32*units_conv!$A$2</f>
+        <v>21375018130.868092</v>
+      </c>
+      <c r="BB40" s="24">
+        <f>BB32*units_conv!$A$2</f>
+        <v>21608054663.24522</v>
+      </c>
+      <c r="BC40" s="24">
+        <f>BC32*units_conv!$A$2</f>
+        <v>21841091195.622345</v>
+      </c>
+      <c r="BD40" s="24">
+        <f>BD32*units_conv!$A$2</f>
+        <v>22074127727.99947</v>
+      </c>
+      <c r="BE40" s="24">
+        <f>BE32*units_conv!$A$2</f>
+        <v>22307164260.376595</v>
+      </c>
+      <c r="BF40" s="24">
+        <f>BF32*units_conv!$A$2</f>
+        <v>22540200792.753719</v>
+      </c>
+    </row>
+    <row r="41" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B41" s="25" t="s">
         <v>84</v>
       </c>
@@ -6647,8 +9502,88 @@
         <f>AL33*units_conv!$A$2</f>
         <v>8178732613.5024996</v>
       </c>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM41" s="24">
+        <f>AM33*units_conv!$A$2</f>
+        <v>8338762908.6911631</v>
+      </c>
+      <c r="AN41" s="24">
+        <f>AN33*units_conv!$A$2</f>
+        <v>8498849722.4184866</v>
+      </c>
+      <c r="AO41" s="24">
+        <f>AO33*units_conv!$A$2</f>
+        <v>8658936536.1458092</v>
+      </c>
+      <c r="AP41" s="24">
+        <f>AP33*units_conv!$A$2</f>
+        <v>8819023349.8731327</v>
+      </c>
+      <c r="AQ41" s="24">
+        <f>AQ33*units_conv!$A$2</f>
+        <v>8979110163.6004562</v>
+      </c>
+      <c r="AR41" s="24">
+        <f>AR33*units_conv!$A$2</f>
+        <v>9139196977.3277798</v>
+      </c>
+      <c r="AS41" s="24">
+        <f>AS33*units_conv!$A$2</f>
+        <v>9299283791.0551052</v>
+      </c>
+      <c r="AT41" s="24">
+        <f>AT33*units_conv!$A$2</f>
+        <v>9459370604.7824268</v>
+      </c>
+      <c r="AU41" s="24">
+        <f>AU33*units_conv!$A$2</f>
+        <v>9619457418.5097504</v>
+      </c>
+      <c r="AV41" s="24">
+        <f>AV33*units_conv!$A$2</f>
+        <v>9779544232.2370758</v>
+      </c>
+      <c r="AW41" s="24">
+        <f>AW33*units_conv!$A$2</f>
+        <v>9939631045.9643974</v>
+      </c>
+      <c r="AX41" s="24">
+        <f>AX33*units_conv!$A$2</f>
+        <v>10099717859.691721</v>
+      </c>
+      <c r="AY41" s="24">
+        <f>AY33*units_conv!$A$2</f>
+        <v>10259804673.419044</v>
+      </c>
+      <c r="AZ41" s="24">
+        <f>AZ33*units_conv!$A$2</f>
+        <v>10419891487.146368</v>
+      </c>
+      <c r="BA41" s="24">
+        <f>BA33*units_conv!$A$2</f>
+        <v>10579978300.873692</v>
+      </c>
+      <c r="BB41" s="24">
+        <f>BB33*units_conv!$A$2</f>
+        <v>10740065114.601015</v>
+      </c>
+      <c r="BC41" s="24">
+        <f>BC33*units_conv!$A$2</f>
+        <v>10900151928.328341</v>
+      </c>
+      <c r="BD41" s="24">
+        <f>BD33*units_conv!$A$2</f>
+        <v>11060238742.055662</v>
+      </c>
+      <c r="BE41" s="24">
+        <f>BE33*units_conv!$A$2</f>
+        <v>11220325555.782986</v>
+      </c>
+      <c r="BF41" s="24">
+        <f>BF33*units_conv!$A$2</f>
+        <v>11380412369.510311</v>
+      </c>
+    </row>
+    <row r="42" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B42" s="25" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +9731,88 @@
         <f>AL34*units_conv!$A$2</f>
         <v>118319163.061979</v>
       </c>
-    </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM42" s="38">
+        <f>AM34*units_conv!$A$2</f>
+        <v>103754203.98789287</v>
+      </c>
+      <c r="AN42" s="38">
+        <f>AN34*units_conv!$A$2</f>
+        <v>89193684.277193636</v>
+      </c>
+      <c r="AO42" s="38">
+        <f>AO34*units_conv!$A$2</f>
+        <v>74633164.56649439</v>
+      </c>
+      <c r="AP42" s="38">
+        <f>AP34*units_conv!$A$2</f>
+        <v>60072644.855795145</v>
+      </c>
+      <c r="AQ42" s="38">
+        <f>AQ34*units_conv!$A$2</f>
+        <v>45512125.1450959</v>
+      </c>
+      <c r="AR42" s="38">
+        <f>AR34*units_conv!$A$2</f>
+        <v>30951605.434396673</v>
+      </c>
+      <c r="AS42" s="38">
+        <f>AS34*units_conv!$A$2</f>
+        <v>16391085.72369742</v>
+      </c>
+      <c r="AT42" s="38">
+        <f>AT34*units_conv!$A$2</f>
+        <v>1830566.0129981809</v>
+      </c>
+      <c r="AU42" s="38">
+        <f>AU34*units_conv!$A$2</f>
+        <v>-12729953.697701072</v>
+      </c>
+      <c r="AV42" s="38">
+        <f>AV34*units_conv!$A$2</f>
+        <v>-27290473.408400312</v>
+      </c>
+      <c r="AW42" s="38">
+        <f>AW34*units_conv!$A$2</f>
+        <v>-41850993.119099542</v>
+      </c>
+      <c r="AX42" s="38">
+        <f>AX34*units_conv!$A$2</f>
+        <v>-56411512.829798773</v>
+      </c>
+      <c r="AY42" s="38">
+        <f>AY34*units_conv!$A$2</f>
+        <v>-70972032.540498033</v>
+      </c>
+      <c r="AZ42" s="38">
+        <f>AZ34*units_conv!$A$2</f>
+        <v>-85532552.251197264</v>
+      </c>
+      <c r="BA42" s="38">
+        <f>BA34*units_conv!$A$2</f>
+        <v>-100093071.96189652</v>
+      </c>
+      <c r="BB42" s="38">
+        <f>BB34*units_conv!$A$2</f>
+        <v>-114653591.67259575</v>
+      </c>
+      <c r="BC42" s="38">
+        <f>BC34*units_conv!$A$2</f>
+        <v>-129214111.38329498</v>
+      </c>
+      <c r="BD42" s="38">
+        <f>BD34*units_conv!$A$2</f>
+        <v>-143774631.09399423</v>
+      </c>
+      <c r="BE42" s="38">
+        <f>BE34*units_conv!$A$2</f>
+        <v>-158335150.80469346</v>
+      </c>
+      <c r="BF42" s="38">
+        <f>BF34*units_conv!$A$2</f>
+        <v>-172895670.51539275</v>
+      </c>
+    </row>
+    <row r="43" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B43" s="25" t="s">
         <v>86</v>
       </c>
@@ -6945,154 +9960,314 @@
         <f>AL35*units_conv!$A$2</f>
         <v>931247499.84244502</v>
       </c>
-    </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.3">
+      <c r="AM43" s="24">
+        <f>AM35*units_conv!$A$2</f>
+        <v>1072134529.7963092</v>
+      </c>
+      <c r="AN43" s="24">
+        <f>AN35*units_conv!$A$2</f>
+        <v>1213724893.5285223</v>
+      </c>
+      <c r="AO43" s="24">
+        <f>AO35*units_conv!$A$2</f>
+        <v>1355315257.2607355</v>
+      </c>
+      <c r="AP43" s="24">
+        <f>AP35*units_conv!$A$2</f>
+        <v>1496905620.9929485</v>
+      </c>
+      <c r="AQ43" s="24">
+        <f>AQ35*units_conv!$A$2</f>
+        <v>1638495984.7251616</v>
+      </c>
+      <c r="AR43" s="24">
+        <f>AR35*units_conv!$A$2</f>
+        <v>1780086348.4573748</v>
+      </c>
+      <c r="AS43" s="24">
+        <f>AS35*units_conv!$A$2</f>
+        <v>1921676712.1895881</v>
+      </c>
+      <c r="AT43" s="24">
+        <f>AT35*units_conv!$A$2</f>
+        <v>2063267075.9218011</v>
+      </c>
+      <c r="AU43" s="24">
+        <f>AU35*units_conv!$A$2</f>
+        <v>2204857439.6540141</v>
+      </c>
+      <c r="AV43" s="24">
+        <f>AV35*units_conv!$A$2</f>
+        <v>2346447803.3862276</v>
+      </c>
+      <c r="AW43" s="24">
+        <f>AW35*units_conv!$A$2</f>
+        <v>2488038167.1184406</v>
+      </c>
+      <c r="AX43" s="24">
+        <f>AX35*units_conv!$A$2</f>
+        <v>2629628530.8506536</v>
+      </c>
+      <c r="AY43" s="24">
+        <f>AY35*units_conv!$A$2</f>
+        <v>2771218894.5828667</v>
+      </c>
+      <c r="AZ43" s="24">
+        <f>AZ35*units_conv!$A$2</f>
+        <v>2912809258.3150797</v>
+      </c>
+      <c r="BA43" s="24">
+        <f>BA35*units_conv!$A$2</f>
+        <v>3054399622.0472932</v>
+      </c>
+      <c r="BB43" s="24">
+        <f>BB35*units_conv!$A$2</f>
+        <v>3195989985.7795062</v>
+      </c>
+      <c r="BC43" s="24">
+        <f>BC35*units_conv!$A$2</f>
+        <v>3337580349.5117192</v>
+      </c>
+      <c r="BD43" s="24">
+        <f>BD35*units_conv!$A$2</f>
+        <v>3479170713.2439322</v>
+      </c>
+      <c r="BE43" s="24">
+        <f>BE35*units_conv!$A$2</f>
+        <v>3620761076.9761457</v>
+      </c>
+      <c r="BF43" s="24">
+        <f>BF35*units_conv!$A$2</f>
+        <v>3762351440.7083588</v>
+      </c>
+    </row>
+    <row r="44" spans="2:58" x14ac:dyDescent="0.45">
       <c r="B44" s="26" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="27">
-        <f t="shared" ref="C44:AL44" si="1">SUM(C39:C43)</f>
+        <f t="shared" ref="C44:AL44" si="10">SUM(C39:C43)</f>
         <v>18639489708.117649</v>
       </c>
       <c r="D44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>19787442010.221695</v>
       </c>
       <c r="E44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>20853044285.776272</v>
       </c>
       <c r="F44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>21925237066.777439</v>
       </c>
       <c r="G44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>23002030976.270855</v>
       </c>
       <c r="H44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>24008099180.439888</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>25002947993.5909</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>25993808362.101265</v>
       </c>
       <c r="K44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>26981339293.55172</v>
       </c>
       <c r="L44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>27966409160.258522</v>
       </c>
       <c r="M44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>28920065037.113522</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>29817221418.509975</v>
       </c>
       <c r="O44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>30662525761.420174</v>
       </c>
       <c r="P44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>31458712261.928543</v>
       </c>
       <c r="Q44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>32207716416.621807</v>
       </c>
       <c r="R44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>32913825950.408569</v>
       </c>
       <c r="S44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>33568152336.089108</v>
       </c>
       <c r="T44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>34160612361.753021</v>
       </c>
       <c r="U44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>34695052929.525078</v>
       </c>
       <c r="V44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>35174917398.812271</v>
       </c>
       <c r="W44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>35593310191.210464</v>
       </c>
       <c r="X44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>35944694892.589981</v>
       </c>
       <c r="Y44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36235536561.626312</v>
       </c>
       <c r="Z44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36471292767.971252</v>
       </c>
       <c r="AA44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36656696770.799744</v>
       </c>
       <c r="AB44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36800579498.018761</v>
       </c>
       <c r="AC44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36911354852.869827</v>
       </c>
       <c r="AD44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>36992847564.265701</v>
       </c>
       <c r="AE44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37049107912.370926</v>
       </c>
       <c r="AF44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37082928429.467537</v>
       </c>
       <c r="AG44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37097477244.222313</v>
       </c>
       <c r="AH44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37095787074.485458</v>
       </c>
       <c r="AI44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37080567209.813293</v>
       </c>
       <c r="AJ44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37054214351.790619</v>
       </c>
       <c r="AK44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37018712870.425705</v>
       </c>
       <c r="AL44" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>37162560285.950577</v>
+      </c>
+      <c r="AM44" s="27">
+        <f t="shared" ref="AM44:BF44" si="11">SUM(AM39:AM43)</f>
+        <v>37834042531.282181</v>
+      </c>
+      <c r="AN44" s="27">
+        <f t="shared" si="11"/>
+        <v>38506289068.294189</v>
+      </c>
+      <c r="AO44" s="27">
+        <f t="shared" si="11"/>
+        <v>39178535605.306206</v>
+      </c>
+      <c r="AP44" s="27">
+        <f t="shared" si="11"/>
+        <v>39850782142.318207</v>
+      </c>
+      <c r="AQ44" s="27">
+        <f t="shared" si="11"/>
+        <v>40523028679.330208</v>
+      </c>
+      <c r="AR44" s="27">
+        <f t="shared" si="11"/>
+        <v>41195275216.342216</v>
+      </c>
+      <c r="AS44" s="27">
+        <f t="shared" si="11"/>
+        <v>41867521753.354233</v>
+      </c>
+      <c r="AT44" s="27">
+        <f t="shared" si="11"/>
+        <v>42539768290.366241</v>
+      </c>
+      <c r="AU44" s="27">
+        <f t="shared" si="11"/>
+        <v>43212014827.37825</v>
+      </c>
+      <c r="AV44" s="27">
+        <f t="shared" si="11"/>
+        <v>43884261364.390259</v>
+      </c>
+      <c r="AW44" s="27">
+        <f t="shared" si="11"/>
+        <v>44556507901.40226</v>
+      </c>
+      <c r="AX44" s="27">
+        <f t="shared" si="11"/>
+        <v>45228754438.414276</v>
+      </c>
+      <c r="AY44" s="27">
+        <f t="shared" si="11"/>
+        <v>45901000975.426285</v>
+      </c>
+      <c r="AZ44" s="27">
+        <f t="shared" si="11"/>
+        <v>46573247512.438286</v>
+      </c>
+      <c r="BA44" s="27">
+        <f t="shared" si="11"/>
+        <v>47245494049.450294</v>
+      </c>
+      <c r="BB44" s="27">
+        <f t="shared" si="11"/>
+        <v>47917740586.462303</v>
+      </c>
+      <c r="BC44" s="27">
+        <f t="shared" si="11"/>
+        <v>48589987123.474312</v>
+      </c>
+      <c r="BD44" s="27">
+        <f t="shared" si="11"/>
+        <v>49262233660.48632</v>
+      </c>
+      <c r="BE44" s="27">
+        <f t="shared" si="11"/>
+        <v>49934480197.498322</v>
+      </c>
+      <c r="BF44" s="27">
+        <f t="shared" si="11"/>
+        <v>50606726734.51033</v>
       </c>
     </row>
   </sheetData>
@@ -7102,38 +10277,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3475F9D-B796-4455-9F8D-6BAC88AC929D}">
-  <dimension ref="A1:AN44"/>
+  <dimension ref="A1:BH44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD37"/>
+      <selection activeCell="BF13" sqref="BF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="26.6640625" style="30" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="40" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="60" width="14.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A2" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:60" s="28" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="29" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A6"/>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2012</v>
       </c>
@@ -7251,8 +10427,68 @@
       <c r="AN7">
         <v>2050</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO7">
+        <v>2051</v>
+      </c>
+      <c r="AP7">
+        <v>2052</v>
+      </c>
+      <c r="AQ7">
+        <v>2053</v>
+      </c>
+      <c r="AR7">
+        <v>2054</v>
+      </c>
+      <c r="AS7">
+        <v>2055</v>
+      </c>
+      <c r="AT7">
+        <v>2056</v>
+      </c>
+      <c r="AU7">
+        <v>2057</v>
+      </c>
+      <c r="AV7">
+        <v>2058</v>
+      </c>
+      <c r="AW7">
+        <v>2059</v>
+      </c>
+      <c r="AX7">
+        <v>2060</v>
+      </c>
+      <c r="AY7">
+        <v>2061</v>
+      </c>
+      <c r="AZ7">
+        <v>2062</v>
+      </c>
+      <c r="BA7">
+        <v>2063</v>
+      </c>
+      <c r="BB7">
+        <v>2064</v>
+      </c>
+      <c r="BC7">
+        <v>2065</v>
+      </c>
+      <c r="BD7">
+        <v>2066</v>
+      </c>
+      <c r="BE7">
+        <v>2067</v>
+      </c>
+      <c r="BF7">
+        <v>2068</v>
+      </c>
+      <c r="BG7">
+        <v>2069</v>
+      </c>
+      <c r="BH7">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A8" s="31" t="s">
         <v>90</v>
       </c>
@@ -7373,8 +10609,88 @@
       <c r="AN8" s="9">
         <v>0.20000000000000009</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO8">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B8:$AN8,$B$7:$AN$7)</f>
+        <v>0.20335748655733371</v>
+      </c>
+      <c r="AP8">
+        <f>_xlfn.FORECAST.ETS(AP$7,$B8:$AN8,$B$7:$AN$7)</f>
+        <v>0.20654203745841687</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" ref="AQ8:BH9" si="0">_xlfn.FORECAST.ETS(AQ$7,$B8:$AN8,$B$7:$AN$7)</f>
+        <v>0.20972658835950006</v>
+      </c>
+      <c r="AR8">
+        <f t="shared" si="0"/>
+        <v>0.21291113926058322</v>
+      </c>
+      <c r="AS8">
+        <f t="shared" si="0"/>
+        <v>0.21609569016166638</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" si="0"/>
+        <v>0.21928024106274954</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" si="0"/>
+        <v>0.2224647919638327</v>
+      </c>
+      <c r="AV8">
+        <f t="shared" si="0"/>
+        <v>0.22564934286491589</v>
+      </c>
+      <c r="AW8">
+        <f t="shared" si="0"/>
+        <v>0.22883389376599905</v>
+      </c>
+      <c r="AX8">
+        <f t="shared" si="0"/>
+        <v>0.23201844466708221</v>
+      </c>
+      <c r="AY8">
+        <f t="shared" si="0"/>
+        <v>0.23520299556816537</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="0"/>
+        <v>0.23838754646924853</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" si="0"/>
+        <v>0.24157209737033172</v>
+      </c>
+      <c r="BB8">
+        <f t="shared" si="0"/>
+        <v>0.24475664827141488</v>
+      </c>
+      <c r="BC8">
+        <f t="shared" si="0"/>
+        <v>0.24794119917249804</v>
+      </c>
+      <c r="BD8">
+        <f t="shared" si="0"/>
+        <v>0.25112575007358123</v>
+      </c>
+      <c r="BE8">
+        <f t="shared" si="0"/>
+        <v>0.25431030097466439</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" si="0"/>
+        <v>0.25749485187574755</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" si="0"/>
+        <v>0.26067940277683072</v>
+      </c>
+      <c r="BH8">
+        <f t="shared" si="0"/>
+        <v>0.26386395367791388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A9" s="32" t="s">
         <v>91</v>
       </c>
@@ -7495,8 +10811,88 @@
       <c r="AN9" s="9">
         <v>45036412.462165937</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO9">
+        <f>_xlfn.FORECAST.ETS(AO$7,$B9:$AN9,$B$7:$AN$7)</f>
+        <v>44934381.022038504</v>
+      </c>
+      <c r="AP9">
+        <f>_xlfn.FORECAST.ETS(AP$7,$B9:$AN9,$B$7:$AN$7)</f>
+        <v>44831469.735814825</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="0"/>
+        <v>44728558.449591137</v>
+      </c>
+      <c r="AR9">
+        <f t="shared" si="0"/>
+        <v>44625647.16336745</v>
+      </c>
+      <c r="AS9">
+        <f t="shared" si="0"/>
+        <v>44522735.87714377</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="0"/>
+        <v>44419824.590920083</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" si="0"/>
+        <v>44316913.304696396</v>
+      </c>
+      <c r="AV9">
+        <f t="shared" si="0"/>
+        <v>44214002.018472716</v>
+      </c>
+      <c r="AW9">
+        <f t="shared" si="0"/>
+        <v>44111090.732249029</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="0"/>
+        <v>44008179.446025342</v>
+      </c>
+      <c r="AY9">
+        <f t="shared" si="0"/>
+        <v>43905268.159801662</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="0"/>
+        <v>43802356.873577975</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" si="0"/>
+        <v>43699445.587354288</v>
+      </c>
+      <c r="BB9">
+        <f t="shared" si="0"/>
+        <v>43596534.301130608</v>
+      </c>
+      <c r="BC9">
+        <f t="shared" si="0"/>
+        <v>43493623.01490692</v>
+      </c>
+      <c r="BD9">
+        <f t="shared" si="0"/>
+        <v>43390711.728683233</v>
+      </c>
+      <c r="BE9">
+        <f t="shared" si="0"/>
+        <v>43287800.442459553</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" si="0"/>
+        <v>43184889.156235866</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" si="0"/>
+        <v>43081977.870012179</v>
+      </c>
+      <c r="BH9">
+        <f t="shared" si="0"/>
+        <v>42979066.583788499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A10" s="32" t="s">
         <v>92</v>
       </c>
@@ -7656,111 +11052,191 @@
         <f>AN9*units_conv!$A$5*units_conv!$A$2</f>
         <v>11897359152.955301</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AO10" s="27">
+        <f>AO9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11870405303.353956</v>
+      </c>
+      <c r="AP10" s="27">
+        <f>AP9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11843219023.049675</v>
+      </c>
+      <c r="AQ10" s="27">
+        <f>AQ9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11816032742.745392</v>
+      </c>
+      <c r="AR10" s="27">
+        <f>AR9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11788846462.441107</v>
+      </c>
+      <c r="AS10" s="27">
+        <f>AS9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11761660182.136824</v>
+      </c>
+      <c r="AT10" s="27">
+        <f>AT9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11734473901.832541</v>
+      </c>
+      <c r="AU10" s="27">
+        <f>AU9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11707287621.528257</v>
+      </c>
+      <c r="AV10" s="27">
+        <f>AV9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11680101341.223976</v>
+      </c>
+      <c r="AW10" s="27">
+        <f>AW9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11652915060.919691</v>
+      </c>
+      <c r="AX10" s="27">
+        <f>AX9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11625728780.615408</v>
+      </c>
+      <c r="AY10" s="27">
+        <f>AY9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11598542500.311125</v>
+      </c>
+      <c r="AZ10" s="27">
+        <f>AZ9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11571356220.006842</v>
+      </c>
+      <c r="BA10" s="27">
+        <f>BA9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11544169939.702557</v>
+      </c>
+      <c r="BB10" s="27">
+        <f>BB9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11516983659.398275</v>
+      </c>
+      <c r="BC10" s="27">
+        <f>BC9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11489797379.093992</v>
+      </c>
+      <c r="BD10" s="27">
+        <f>BD9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11462611098.789709</v>
+      </c>
+      <c r="BE10" s="27">
+        <f>BE9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11435424818.485426</v>
+      </c>
+      <c r="BF10" s="27">
+        <f>BF9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11408238538.181141</v>
+      </c>
+      <c r="BG10" s="27">
+        <f>BG9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11381052257.876858</v>
+      </c>
+      <c r="BH10" s="27">
+        <f>BH9*units_conv!$A$5*units_conv!$A$2</f>
+        <v>11353865977.572577</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A11"/>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A12"/>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A13"/>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A14"/>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A15"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.45">
       <c r="A16"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:3" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:3" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A44"/>
     </row>
   </sheetData>
@@ -7776,7 +11252,7 @@
       <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
@@ -7784,22 +11260,22 @@
     <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27" s="34" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>94</v>
       </c>
@@ -7813,7 +11289,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>98</v>
       </c>
@@ -7827,7 +11303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>102</v>
       </c>
@@ -7851,27 +11327,27 @@
       <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.46484375" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="34" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -7879,7 +11355,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>107</v>
       </c>
@@ -7887,7 +11363,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>108</v>
       </c>
@@ -7895,7 +11371,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -7903,12 +11379,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -7917,22 +11393,22 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>115</v>
       </c>
@@ -7950,24 +11426,24 @@
       <selection activeCell="A36" sqref="A36:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>0.26417200000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1000</v>
       </c>
@@ -7982,18 +11458,18 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2020</v>
       </c>
@@ -8087,8 +11563,68 @@
       <c r="AF1">
         <v>2050</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="AG1">
+        <v>2051</v>
+      </c>
+      <c r="AH1">
+        <v>2052</v>
+      </c>
+      <c r="AI1">
+        <v>2053</v>
+      </c>
+      <c r="AJ1">
+        <v>2054</v>
+      </c>
+      <c r="AK1">
+        <v>2055</v>
+      </c>
+      <c r="AL1">
+        <v>2056</v>
+      </c>
+      <c r="AM1">
+        <v>2057</v>
+      </c>
+      <c r="AN1">
+        <v>2058</v>
+      </c>
+      <c r="AO1">
+        <v>2059</v>
+      </c>
+      <c r="AP1">
+        <v>2060</v>
+      </c>
+      <c r="AQ1">
+        <v>2061</v>
+      </c>
+      <c r="AR1">
+        <v>2062</v>
+      </c>
+      <c r="AS1">
+        <v>2063</v>
+      </c>
+      <c r="AT1">
+        <v>2064</v>
+      </c>
+      <c r="AU1">
+        <v>2065</v>
+      </c>
+      <c r="AV1">
+        <v>2066</v>
+      </c>
+      <c r="AW1">
+        <v>2067</v>
+      </c>
+      <c r="AX1">
+        <v>2068</v>
+      </c>
+      <c r="AY1">
+        <v>2069</v>
+      </c>
+      <c r="AZ1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -8216,10 +11752,86 @@
         <f>Calsc!AK28</f>
         <v>0.19596766646957497</v>
       </c>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
+      <c r="AG2" s="3">
+        <f>Calsc!AL28</f>
+        <v>0.19699795737340256</v>
+      </c>
+      <c r="AH2" s="3">
+        <f>Calsc!AM28</f>
+        <v>0.19799265705557414</v>
+      </c>
+      <c r="AI2" s="3">
+        <f>Calsc!AN28</f>
+        <v>0.19914286134132361</v>
+      </c>
+      <c r="AJ2" s="3">
+        <f>Calsc!AO28</f>
+        <v>0.20011111045680452</v>
+      </c>
+      <c r="AK2" s="3">
+        <f>Calsc!AP28</f>
+        <v>0.20106756222286185</v>
+      </c>
+      <c r="AL2" s="3">
+        <f>Calsc!AQ28</f>
+        <v>0.20201213279821165</v>
+      </c>
+      <c r="AM2" s="3">
+        <f>Calsc!AR28</f>
+        <v>0.20294516905774457</v>
+      </c>
+      <c r="AN2" s="3">
+        <f>Calsc!AS28</f>
+        <v>0.20386700450367015</v>
+      </c>
+      <c r="AO2" s="3">
+        <f>Calsc!AT28</f>
+        <v>0.2047779599037928</v>
+      </c>
+      <c r="AP2" s="3">
+        <f>Calsc!AU28</f>
+        <v>0.2056783438935765</v>
+      </c>
+      <c r="AQ2" s="3">
+        <f>Calsc!AV28</f>
+        <v>0.20656845354436973</v>
+      </c>
+      <c r="AR2" s="3">
+        <f>Calsc!AW28</f>
+        <v>0.20744857489999252</v>
+      </c>
+      <c r="AS2" s="3">
+        <f>Calsc!AX28</f>
+        <v>0.20831898348372066</v>
+      </c>
+      <c r="AT2" s="3">
+        <f>Calsc!AY28</f>
+        <v>0.20917994477755314</v>
+      </c>
+      <c r="AU2" s="3">
+        <f>Calsc!AZ28</f>
+        <v>0.21003171467551759</v>
+      </c>
+      <c r="AV2" s="3">
+        <f>Calsc!BA28</f>
+        <v>0.21087453991263883</v>
+      </c>
+      <c r="AW2" s="3">
+        <f>Calsc!BB28</f>
+        <v>0.21170865847107939</v>
+      </c>
+      <c r="AX2" s="3">
+        <f>Calsc!BC28</f>
+        <v>0.21253429996486009</v>
+      </c>
+      <c r="AY2" s="3">
+        <f>Calsc!BD28</f>
+        <v>0.21335168600446539</v>
+      </c>
+      <c r="AZ2" s="3">
+        <f>Calsc!BE28</f>
+        <v>0.21416103054254881</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/trans/BLP/BAU LCFS Perc.xlsx
+++ b/InputData/trans/BLP/BAU LCFS Perc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\trans\BLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4282ED2C-DA5A-451E-9D01-2D0898688A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B456B34E-BCC6-44A7-94C8-BFE0495BBCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AboutX" sheetId="1" r:id="rId1"/>
@@ -401,10 +401,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -625,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -844,18 +846,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,7 +1119,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1186,11 +1176,12 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="21" fillId="41" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="43" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="21" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="20% - Accent1" xfId="25" builtinId="30" customBuiltin="1"/>
@@ -1878,7 +1869,7 @@
   </sheetPr>
   <dimension ref="A1:BE32"/>
   <sheetViews>
-    <sheetView topLeftCell="AM7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="BB23" sqref="BB23"/>
     </sheetView>
   </sheetViews>
@@ -2288,83 +2279,83 @@
       </c>
       <c r="AL23" s="9">
         <f>(('psgr-Road'!AM39+('psgr-Road'!AM40*0.27)+('psgr-Road'!AM41*AL25)+('frgt-Road'!AL10*Calsc!AL26))/(SUM('psgr-Road'!AM39:AM42)+'frgt-Road'!AL10))</f>
-        <v>0.39399591474680512</v>
+        <v>0.39398157010559132</v>
       </c>
       <c r="AM23" s="9">
         <f>(('psgr-Road'!AN39+('psgr-Road'!AN40*0.27)+('psgr-Road'!AN41*AM25)+('frgt-Road'!AM10*Calsc!AM26))/(SUM('psgr-Road'!AN39:AN42)+'frgt-Road'!AM10))</f>
-        <v>0.39598531411114829</v>
+        <v>0.39594571270215551</v>
       </c>
       <c r="AN23" s="9">
         <f>(('psgr-Road'!AO39+('psgr-Road'!AO40*0.27)+('psgr-Road'!AO41*AN25)+('frgt-Road'!AN10*Calsc!AN26))/(SUM('psgr-Road'!AO39:AO42)+'frgt-Road'!AN10))</f>
-        <v>0.39828572268264723</v>
+        <v>0.39821109039124075</v>
       </c>
       <c r="AO23" s="9">
         <f>(('psgr-Road'!AP39+('psgr-Road'!AP40*0.27)+('psgr-Road'!AP41*AO25)+('frgt-Road'!AO10*Calsc!AO26))/(SUM('psgr-Road'!AP39:AP42)+'frgt-Road'!AO10))</f>
-        <v>0.40022222091360904</v>
+        <v>0.40010427577321067</v>
       </c>
       <c r="AP23" s="9">
         <f>(('psgr-Road'!AQ39+('psgr-Road'!AQ40*0.27)+('psgr-Road'!AQ41*AP25)+('frgt-Road'!AP10*Calsc!AP26))/(SUM('psgr-Road'!AQ39:AQ42)+'frgt-Road'!AP10))</f>
-        <v>0.40213512444572369</v>
+        <v>0.40196655760308009</v>
       </c>
       <c r="AQ23" s="9">
         <f>(('psgr-Road'!AR39+('psgr-Road'!AR40*0.27)+('psgr-Road'!AR41*AQ25)+('frgt-Road'!AQ10*Calsc!AQ26))/(SUM('psgr-Road'!AR39:AR42)+'frgt-Road'!AQ10))</f>
-        <v>0.40402426559642329</v>
+        <v>0.40379872378496523</v>
       </c>
       <c r="AR23" s="9">
         <f>(('psgr-Road'!AS39+('psgr-Road'!AS40*0.27)+('psgr-Road'!AS41*AR25)+('frgt-Road'!AR10*Calsc!AR26))/(SUM('psgr-Road'!AS39:AS42)+'frgt-Road'!AR10))</f>
-        <v>0.40589033811548914</v>
+        <v>0.40560231354683629</v>
       </c>
       <c r="AS23" s="9">
         <f>(('psgr-Road'!AT39+('psgr-Road'!AT40*0.27)+('psgr-Road'!AT41*AS25)+('frgt-Road'!AS10*Calsc!AS26))/(SUM('psgr-Road'!AT39:AT42)+'frgt-Road'!AS10))</f>
-        <v>0.4077340090073403</v>
+        <v>0.40737874201386037</v>
       </c>
       <c r="AT23" s="9">
         <f>(('psgr-Road'!AU39+('psgr-Road'!AU40*0.27)+('psgr-Road'!AU41*AT25)+('frgt-Road'!AT10*Calsc!AT26))/(SUM('psgr-Road'!AU39:AU42)+'frgt-Road'!AT10))</f>
-        <v>0.4095559198075856</v>
+        <v>0.40912931238864336</v>
       </c>
       <c r="AU23" s="9">
         <f>(('psgr-Road'!AV39+('psgr-Road'!AV40*0.27)+('psgr-Road'!AV41*AU25)+('frgt-Road'!AU10*Calsc!AU26))/(SUM('psgr-Road'!AV39:AV42)+'frgt-Road'!AU10))</f>
-        <v>0.41135668778715301</v>
+        <v>0.41085522686512393</v>
       </c>
       <c r="AV23" s="9">
         <f>(('psgr-Road'!AW39+('psgr-Road'!AW40*0.27)+('psgr-Road'!AW41*AV25)+('frgt-Road'!AV10*Calsc!AV26))/(SUM('psgr-Road'!AW39:AW42)+'frgt-Road'!AV10))</f>
-        <v>0.41313690708873946</v>
+        <v>0.41255759640612122</v>
       </c>
       <c r="AW23" s="9">
         <f>(('psgr-Road'!AX39+('psgr-Road'!AX40*0.27)+('psgr-Road'!AX41*AW25)+('frgt-Road'!AW10*Calsc!AW26))/(SUM('psgr-Road'!AX39:AX42)+'frgt-Road'!AW10))</f>
-        <v>0.41489714979998504</v>
+        <v>0.4142374495023024</v>
       </c>
       <c r="AX23" s="9">
         <f>(('psgr-Road'!AY39+('psgr-Road'!AY40*0.27)+('psgr-Road'!AY41*AX25)+('frgt-Road'!AX10*Calsc!AX26))/(SUM('psgr-Road'!AY39:AY42)+'frgt-Road'!AX10))</f>
-        <v>0.41663796696744132</v>
+        <v>0.41589574001893692</v>
       </c>
       <c r="AY23" s="9">
         <f>(('psgr-Road'!AZ39+('psgr-Road'!AZ40*0.27)+('psgr-Road'!AZ41*AY25)+('frgt-Road'!AY10*Calsc!AY26))/(SUM('psgr-Road'!AZ39:AZ42)+'frgt-Road'!AY10))</f>
-        <v>0.41835988955510628</v>
+        <v>0.41753335422630272</v>
       </c>
       <c r="AZ23" s="9">
         <f>(('psgr-Road'!BA39+('psgr-Road'!BA40*0.27)+('psgr-Road'!BA41*AZ25)+('frgt-Road'!AZ10*Calsc!AZ26))/(SUM('psgr-Road'!BA39:BA42)+'frgt-Road'!AZ10))</f>
-        <v>0.42006342935103519</v>
+        <v>0.41915111709997854</v>
       </c>
       <c r="BA23" s="9">
         <f>(('psgr-Road'!BB39+('psgr-Road'!BB40*0.27)+('psgr-Road'!BB41*BA25)+('frgt-Road'!BA10*Calsc!BA26))/(SUM('psgr-Road'!BB39:BB42)+'frgt-Road'!BA10))</f>
-        <v>0.42174907982527765</v>
+        <v>0.42074979796845569</v>
       </c>
       <c r="BB23" s="9">
         <f>(('psgr-Road'!BC39+('psgr-Road'!BC40*0.27)+('psgr-Road'!BC41*BB25)+('frgt-Road'!BB10*Calsc!BB26))/(SUM('psgr-Road'!BC39:BC42)+'frgt-Road'!BB10))</f>
-        <v>0.42341731694215878</v>
+        <v>0.42233011557750116</v>
       </c>
       <c r="BC23" s="9">
         <f>(('psgr-Road'!BD39+('psgr-Road'!BD40*0.27)+('psgr-Road'!BD41*BC25)+('frgt-Road'!BC10*Calsc!BC26))/(SUM('psgr-Road'!BD39:BD42)+'frgt-Road'!BC10))</f>
-        <v>0.42506859992972018</v>
+        <v>0.42389274263347254</v>
       </c>
       <c r="BD23" s="9">
         <f>(('psgr-Road'!BE39+('psgr-Road'!BE40*0.27)+('psgr-Road'!BE41*BD25)+('frgt-Road'!BD10*Calsc!BD26))/(SUM('psgr-Road'!BE39:BE42)+'frgt-Road'!BD10))</f>
-        <v>0.42670337200893077</v>
+        <v>0.42543830988122289</v>
       </c>
       <c r="BE23" s="9">
         <f>(('psgr-Road'!BF39+('psgr-Road'!BF40*0.27)+('psgr-Road'!BF41*BE25)+('frgt-Road'!BE10*Calsc!BE26))/(SUM('psgr-Road'!BF39:BF42)+'frgt-Road'!BE10))</f>
-        <v>0.42832206108509763</v>
+        <v>0.42696740976634373</v>
       </c>
     </row>
     <row r="24" spans="1:57" x14ac:dyDescent="0.45">
@@ -2517,83 +2508,83 @@
       </c>
       <c r="AL24" s="11">
         <f>('psgr-Road'!AM39+('psgr-Road'!AM40*0.27))/SUM('psgr-Road'!AM42,'psgr-Road'!AM39:AM40)</f>
-        <v>0.53116081858212472</v>
+        <v>0.53112761698731548</v>
       </c>
       <c r="AM24" s="11">
         <f>('psgr-Road'!AN39+('psgr-Road'!AN40*0.27))/SUM('psgr-Road'!AN42,'psgr-Road'!AN39:AN40)</f>
-        <v>0.53179225105314587</v>
+        <v>0.53170119059292564</v>
       </c>
       <c r="AN24" s="11">
         <f>('psgr-Road'!AO39+('psgr-Road'!AO40*0.27))/SUM('psgr-Road'!AO42,'psgr-Road'!AO39:AO40)</f>
-        <v>0.53240763721712281</v>
+        <v>0.5322375765715287</v>
       </c>
       <c r="AO24" s="11">
         <f>('psgr-Road'!AP39+('psgr-Road'!AP40*0.27))/SUM('psgr-Road'!AP42,'psgr-Road'!AP39:AP40)</f>
-        <v>0.53300758106585677</v>
+        <v>0.53274052557418883</v>
       </c>
       <c r="AP24" s="11">
         <f>('psgr-Road'!AQ39+('psgr-Road'!AQ40*0.27))/SUM('psgr-Road'!AQ42,'psgr-Road'!AQ39:AQ40)</f>
-        <v>0.53359265665398947</v>
+        <v>0.53321336007660258</v>
       </c>
       <c r="AQ24" s="11">
         <f>('psgr-Road'!AR39+('psgr-Road'!AR40*0.27))/SUM('psgr-Road'!AR42,'psgr-Road'!AR39:AR40)</f>
-        <v>0.53416340993111278</v>
+        <v>0.53365902475760885</v>
       </c>
       <c r="AR24" s="11">
         <f>('psgr-Road'!AS39+('psgr-Road'!AS40*0.27))/SUM('psgr-Road'!AS42,'psgr-Road'!AS39:AS40)</f>
-        <v>0.53472036044096072</v>
+        <v>0.53408013099344032</v>
       </c>
       <c r="AS24" s="11">
         <f>('psgr-Road'!AT39+('psgr-Road'!AT40*0.27))/SUM('psgr-Road'!AT42,'psgr-Road'!AT39:AT40)</f>
-        <v>0.53526400289879472</v>
+        <v>0.53447899612360406</v>
       </c>
       <c r="AT24" s="11">
         <f>('psgr-Road'!AU39+('psgr-Road'!AU40*0.27))/SUM('psgr-Road'!AU42,'psgr-Road'!AU39:AU40)</f>
-        <v>0.53579480865705376</v>
+        <v>0.53485767808052909</v>
       </c>
       <c r="AU24" s="11">
         <f>('psgr-Road'!AV39+('psgr-Road'!AV40*0.27))/SUM('psgr-Road'!AV42,'psgr-Road'!AV39:AV40)</f>
-        <v>0.53631322706839257</v>
+        <v>0.53521800591495972</v>
       </c>
       <c r="AV24" s="11">
         <f>('psgr-Road'!AW39+('psgr-Road'!AW40*0.27))/SUM('psgr-Road'!AW42,'psgr-Road'!AW39:AW40)</f>
-        <v>0.53681968675439207</v>
+        <v>0.53556160669310438</v>
       </c>
       <c r="AW24" s="11">
         <f>('psgr-Road'!AX39+('psgr-Road'!AX40*0.27))/SUM('psgr-Road'!AX42,'psgr-Road'!AX39:AX40)</f>
-        <v>0.53731459678747473</v>
+        <v>0.53588992919005407</v>
       </c>
       <c r="AX24" s="11">
         <f>('psgr-Road'!AY39+('psgr-Road'!AY40*0.27))/SUM('psgr-Road'!AY42,'psgr-Road'!AY39:AY40)</f>
-        <v>0.53779834779286928</v>
+        <v>0.53620426475700955</v>
       </c>
       <c r="AY24" s="11">
         <f>('psgr-Road'!AZ39+('psgr-Road'!AZ40*0.27))/SUM('psgr-Road'!AZ42,'psgr-Road'!AZ39:AZ40)</f>
-        <v>0.5382713129768687</v>
+        <v>0.53650576569731445</v>
       </c>
       <c r="AZ24" s="11">
         <f>('psgr-Road'!BA39+('psgr-Road'!BA40*0.27))/SUM('psgr-Road'!BA42,'psgr-Road'!BA39:BA40)</f>
-        <v>0.53873384908706623</v>
+        <v>0.53679546144796086</v>
       </c>
       <c r="BA24" s="11">
         <f>('psgr-Road'!BB39+('psgr-Road'!BB40*0.27))/SUM('psgr-Road'!BB42,'psgr-Road'!BB39:BB40)</f>
-        <v>0.53918629730976364</v>
+        <v>0.53707427282888454</v>
       </c>
       <c r="BB24" s="11">
         <f>('psgr-Road'!BC39+('psgr-Road'!BC40*0.27))/SUM('psgr-Road'!BC42,'psgr-Road'!BC39:BC40)</f>
-        <v>0.5396289841092955</v>
+        <v>0.53734302459167416</v>
       </c>
       <c r="BC24" s="11">
         <f>('psgr-Road'!BD39+('psgr-Road'!BD40*0.27))/SUM('psgr-Road'!BD42,'psgr-Road'!BD39:BD40)</f>
-        <v>0.54006222201361009</v>
+        <v>0.53760245647199945</v>
       </c>
       <c r="BD24" s="11">
         <f>('psgr-Road'!BE39+('psgr-Road'!BE40*0.27))/SUM('psgr-Road'!BE42,'psgr-Road'!BE39:BE40)</f>
-        <v>0.54048631035007555</v>
+        <v>0.53785323292579645</v>
       </c>
       <c r="BE24" s="11">
         <f>('psgr-Road'!BF39+('psgr-Road'!BF40*0.27))/SUM('psgr-Road'!BF42,'psgr-Road'!BF39:BF40)</f>
-        <v>0.54090153593515755</v>
+        <v>0.53809595170775315</v>
       </c>
     </row>
     <row r="25" spans="1:57" x14ac:dyDescent="0.45">
@@ -3092,83 +3083,83 @@
       </c>
       <c r="AL28" s="9">
         <f>AL23*'EPA RFS'!$B$11</f>
-        <v>0.19699795737340256</v>
+        <v>0.19699078505279566</v>
       </c>
       <c r="AM28" s="9">
         <f>AM23*'EPA RFS'!$B$11</f>
-        <v>0.19799265705557414</v>
+        <v>0.19797285635107775</v>
       </c>
       <c r="AN28" s="9">
         <f>AN23*'EPA RFS'!$B$11</f>
-        <v>0.19914286134132361</v>
+        <v>0.19910554519562038</v>
       </c>
       <c r="AO28" s="9">
         <f>AO23*'EPA RFS'!$B$11</f>
-        <v>0.20011111045680452</v>
+        <v>0.20005213788660534</v>
       </c>
       <c r="AP28" s="9">
         <f>AP23*'EPA RFS'!$B$11</f>
-        <v>0.20106756222286185</v>
+        <v>0.20098327880154004</v>
       </c>
       <c r="AQ28" s="9">
         <f>AQ23*'EPA RFS'!$B$11</f>
-        <v>0.20201213279821165</v>
+        <v>0.20189936189248261</v>
       </c>
       <c r="AR28" s="9">
         <f>AR23*'EPA RFS'!$B$11</f>
-        <v>0.20294516905774457</v>
+        <v>0.20280115677341815</v>
       </c>
       <c r="AS28" s="9">
         <f>AS23*'EPA RFS'!$B$11</f>
-        <v>0.20386700450367015</v>
+        <v>0.20368937100693019</v>
       </c>
       <c r="AT28" s="9">
         <f>AT23*'EPA RFS'!$B$11</f>
-        <v>0.2047779599037928</v>
+        <v>0.20456465619432168</v>
       </c>
       <c r="AU28" s="9">
         <f>AU23*'EPA RFS'!$B$11</f>
-        <v>0.2056783438935765</v>
+        <v>0.20542761343256197</v>
       </c>
       <c r="AV28" s="9">
         <f>AV23*'EPA RFS'!$B$11</f>
-        <v>0.20656845354436973</v>
+        <v>0.20627879820306061</v>
       </c>
       <c r="AW28" s="9">
         <f>AW23*'EPA RFS'!$B$11</f>
-        <v>0.20744857489999252</v>
+        <v>0.2071187247511512</v>
       </c>
       <c r="AX28" s="9">
         <f>AX23*'EPA RFS'!$B$11</f>
-        <v>0.20831898348372066</v>
+        <v>0.20794787000946846</v>
       </c>
       <c r="AY28" s="9">
         <f>AY23*'EPA RFS'!$B$11</f>
-        <v>0.20917994477755314</v>
+        <v>0.20876667711315136</v>
       </c>
       <c r="AZ28" s="9">
         <f>AZ23*'EPA RFS'!$B$11</f>
-        <v>0.21003171467551759</v>
+        <v>0.20957555854998927</v>
       </c>
       <c r="BA28" s="9">
         <f>BA23*'EPA RFS'!$B$11</f>
-        <v>0.21087453991263883</v>
+        <v>0.21037489898422784</v>
       </c>
       <c r="BB28" s="9">
         <f>BB23*'EPA RFS'!$B$11</f>
-        <v>0.21170865847107939</v>
+        <v>0.21116505778875058</v>
       </c>
       <c r="BC28" s="9">
         <f>BC23*'EPA RFS'!$B$11</f>
-        <v>0.21253429996486009</v>
+        <v>0.21194637131673627</v>
       </c>
       <c r="BD28" s="9">
         <f>BD23*'EPA RFS'!$B$11</f>
-        <v>0.21335168600446539</v>
+        <v>0.21271915494061144</v>
       </c>
       <c r="BE28" s="9">
         <f>BE23*'EPA RFS'!$B$11</f>
-        <v>0.21416103054254881</v>
+        <v>0.21348370488317187</v>
       </c>
     </row>
     <row r="32" spans="1:57" x14ac:dyDescent="0.45">
@@ -3184,12 +3175,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C93AE9-E2E3-4CC1-B360-81105BF9E042}">
   <dimension ref="A1:BF44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="AX6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="AZ29" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36:XFD37"/>
       <selection pane="topRight" activeCell="A36" sqref="A36:XFD37"/>
       <selection pane="bottomLeft" activeCell="A36" sqref="A36:XFD37"/>
-      <selection pane="bottomRight" activeCell="AY38" sqref="AY38"/>
+      <selection pane="bottomRight" activeCell="BA45" sqref="BA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3198,8 +3189,9 @@
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="38" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="40" max="58" width="14.3984375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17" bestFit="1" customWidth="1"/>
+    <col min="40" max="46" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="47" max="58" width="14.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.45">
@@ -3702,88 +3694,88 @@
       <c r="AK7" s="21">
         <v>698235.29114987166</v>
       </c>
-      <c r="AL7" s="37">
+      <c r="AL7" s="36">
         <v>520937.47106026468</v>
       </c>
-      <c r="AM7" s="36">
-        <f t="shared" ref="AM7:BA28" si="1">_xlfn.FORECAST.ETS(AM$5,$C7:$AL7,$C$5:$AL$5)</f>
-        <v>333614.2153367736</v>
-      </c>
-      <c r="AN7" s="36">
-        <f t="shared" ref="AN7:BC27" si="2">_xlfn.FORECAST.ETS(AN$5,$C7:$AL7,$C$5:$AL$5)</f>
-        <v>146485.63403218007</v>
-      </c>
-      <c r="AO7" s="36">
+      <c r="AM7" s="39">
+        <f>AL7+AL7*($AL7-$AK7)/$AK7</f>
+        <v>388659.59969991702</v>
+      </c>
+      <c r="AN7" s="39">
+        <f t="shared" ref="AN7:BF10" si="1">AM7+AM7*($AL7-$AK7)/$AK7</f>
+        <v>289970.08821702667</v>
+      </c>
+      <c r="AO7" s="39">
         <f t="shared" si="1"/>
-        <v>-40642.94727237965</v>
-      </c>
-      <c r="AP7" s="36">
-        <f t="shared" si="2"/>
-        <v>-227771.52857697324</v>
-      </c>
-      <c r="AQ7" s="36">
+        <v>216340.08815300127</v>
+      </c>
+      <c r="AP7" s="39">
         <f t="shared" si="1"/>
-        <v>-414900.10988153308</v>
-      </c>
-      <c r="AR7" s="36">
-        <f t="shared" si="2"/>
-        <v>-602028.69118612632</v>
-      </c>
-      <c r="AS7" s="36">
+        <v>161406.41964083846</v>
+      </c>
+      <c r="AQ7" s="39">
         <f t="shared" si="1"/>
-        <v>-789157.27249068627</v>
-      </c>
-      <c r="AT7" s="36">
-        <f t="shared" si="2"/>
-        <v>-976285.85379527975</v>
-      </c>
-      <c r="AU7" s="36">
+        <v>120421.65889684661</v>
+      </c>
+      <c r="AR7" s="39">
         <f t="shared" si="1"/>
-        <v>-1163414.4350998397</v>
-      </c>
-      <c r="AV7" s="36">
-        <f t="shared" si="2"/>
-        <v>-1350543.0164044332</v>
-      </c>
-      <c r="AW7" s="36">
+        <v>89843.861004642415</v>
+      </c>
+      <c r="AS7" s="39">
         <f t="shared" si="1"/>
-        <v>-1537671.5977089929</v>
-      </c>
-      <c r="AX7" s="36">
-        <f t="shared" si="2"/>
-        <v>-1724800.1790135861</v>
-      </c>
-      <c r="AY7" s="36">
+        <v>67030.461415050959</v>
+      </c>
+      <c r="AT7" s="39">
         <f t="shared" si="1"/>
-        <v>-1911928.7603181461</v>
-      </c>
-      <c r="AZ7" s="36">
-        <f t="shared" si="2"/>
-        <v>-2099057.3416227396</v>
-      </c>
-      <c r="BA7" s="36">
+        <v>50009.90281664842</v>
+      </c>
+      <c r="AU7" s="39">
         <f t="shared" si="1"/>
-        <v>-2286185.9229272995</v>
-      </c>
-      <c r="BB7" s="36">
-        <f t="shared" si="2"/>
-        <v>-2473314.504231893</v>
-      </c>
-      <c r="BC7" s="36">
-        <f t="shared" si="0"/>
-        <v>-2660443.0855364529</v>
-      </c>
-      <c r="BD7" s="36">
-        <f t="shared" si="0"/>
-        <v>-2847571.6668410464</v>
-      </c>
-      <c r="BE7" s="36">
-        <f t="shared" si="0"/>
-        <v>-3034700.2481456064</v>
-      </c>
-      <c r="BF7" s="36">
-        <f t="shared" si="0"/>
-        <v>-3221828.8294501998</v>
+        <v>37311.251137666339</v>
+      </c>
+      <c r="AV7" s="39">
+        <f t="shared" si="1"/>
+        <v>27837.075919982879</v>
+      </c>
+      <c r="AW7" s="39">
+        <f t="shared" si="1"/>
+        <v>20768.609257184977</v>
+      </c>
+      <c r="AX7" s="39">
+        <f t="shared" si="1"/>
+        <v>15494.98703518623</v>
+      </c>
+      <c r="AY7" s="39">
+        <f t="shared" si="1"/>
+        <v>11560.457431088109</v>
+      </c>
+      <c r="AZ7" s="39">
+        <f t="shared" si="1"/>
+        <v>8624.9943747948455</v>
+      </c>
+      <c r="BA7" s="39">
+        <f t="shared" si="1"/>
+        <v>6434.9121484754978</v>
+      </c>
+      <c r="BB7" s="39">
+        <f t="shared" si="1"/>
+        <v>4800.9416075222052</v>
+      </c>
+      <c r="BC7" s="39">
+        <f t="shared" si="1"/>
+        <v>3581.8733476102661</v>
+      </c>
+      <c r="BD7" s="39">
+        <f t="shared" si="1"/>
+        <v>2672.3542436381181</v>
+      </c>
+      <c r="BE7" s="39">
+        <f t="shared" si="1"/>
+        <v>1993.7827249685611</v>
+      </c>
+      <c r="BF7" s="39">
+        <f t="shared" si="1"/>
+        <v>1487.5159473510898</v>
       </c>
     </row>
     <row r="8" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -3901,85 +3893,85 @@
       <c r="AL8" s="21">
         <v>20017480491.667511</v>
       </c>
-      <c r="AM8" s="36">
+      <c r="AM8" s="40">
+        <f t="shared" ref="AM8:BB10" si="2">AL8+AL8*($AL8-$AK8)/$AK8</f>
+        <v>18355330229.716118</v>
+      </c>
+      <c r="AN8" s="40">
+        <f t="shared" si="2"/>
+        <v>16831196512.576902</v>
+      </c>
+      <c r="AO8" s="40">
+        <f t="shared" si="2"/>
+        <v>15433619144.936636</v>
+      </c>
+      <c r="AP8" s="40">
+        <f t="shared" si="2"/>
+        <v>14152089528.095356</v>
+      </c>
+      <c r="AQ8" s="40">
+        <f t="shared" si="2"/>
+        <v>12976971644.200083</v>
+      </c>
+      <c r="AR8" s="40">
+        <f t="shared" si="2"/>
+        <v>11899429601.547834</v>
+      </c>
+      <c r="AS8" s="40">
+        <f t="shared" si="2"/>
+        <v>10911361196.159956</v>
+      </c>
+      <c r="AT8" s="40">
+        <f t="shared" si="2"/>
+        <v>10005336990.067038</v>
+      </c>
+      <c r="AU8" s="40">
+        <f t="shared" si="2"/>
+        <v>9174544448.224699</v>
+      </c>
+      <c r="AV8" s="40">
+        <f t="shared" si="2"/>
+        <v>8412736714.0171337</v>
+      </c>
+      <c r="AW8" s="40">
+        <f t="shared" si="2"/>
+        <v>7714185638.1835718</v>
+      </c>
+      <c r="AX8" s="40">
+        <f t="shared" si="2"/>
+        <v>7073638707.9849472</v>
+      </c>
+      <c r="AY8" s="40">
+        <f t="shared" si="2"/>
+        <v>6486279552.7545547</v>
+      </c>
+      <c r="AZ8" s="40">
+        <f t="shared" si="2"/>
+        <v>5947691728.8678913</v>
+      </c>
+      <c r="BA8" s="40">
+        <f t="shared" si="2"/>
+        <v>5453825511.8252907</v>
+      </c>
+      <c r="BB8" s="40">
+        <f t="shared" si="2"/>
+        <v>5000967445.7519388</v>
+      </c>
+      <c r="BC8" s="40">
         <f t="shared" si="1"/>
-        <v>18157769286.990452</v>
-      </c>
-      <c r="AN8" s="36">
-        <f t="shared" si="2"/>
-        <v>16319427086.452215</v>
-      </c>
-      <c r="AO8" s="36">
-        <f t="shared" si="0"/>
-        <v>14481084885.91398</v>
-      </c>
-      <c r="AP8" s="36">
-        <f t="shared" si="0"/>
-        <v>12642742685.375744</v>
-      </c>
-      <c r="AQ8" s="36">
-        <f t="shared" si="0"/>
-        <v>10804400484.837509</v>
-      </c>
-      <c r="AR8" s="36">
-        <f t="shared" si="0"/>
-        <v>8966058284.2992744</v>
-      </c>
-      <c r="AS8" s="36">
-        <f t="shared" si="0"/>
-        <v>7127716083.7610378</v>
-      </c>
-      <c r="AT8" s="36">
-        <f t="shared" si="0"/>
-        <v>5289373883.2228031</v>
-      </c>
-      <c r="AU8" s="36">
-        <f t="shared" si="0"/>
-        <v>3451031682.6845684</v>
-      </c>
-      <c r="AV8" s="36">
-        <f t="shared" si="0"/>
-        <v>1612689482.1463318</v>
-      </c>
-      <c r="AW8" s="36">
-        <f t="shared" si="0"/>
-        <v>-225652718.39190298</v>
-      </c>
-      <c r="AX8" s="36">
-        <f t="shared" si="0"/>
-        <v>-2063994918.9301376</v>
-      </c>
-      <c r="AY8" s="36">
-        <f t="shared" si="0"/>
-        <v>-3902337119.4683723</v>
-      </c>
-      <c r="AZ8" s="36">
-        <f t="shared" si="0"/>
-        <v>-5740679320.0066109</v>
-      </c>
-      <c r="BA8" s="36">
-        <f t="shared" si="0"/>
-        <v>-7579021520.5448456</v>
-      </c>
-      <c r="BB8" s="36">
-        <f t="shared" si="0"/>
-        <v>-9417363721.0830803</v>
-      </c>
-      <c r="BC8" s="36">
-        <f t="shared" si="0"/>
-        <v>-11255705921.621315</v>
-      </c>
-      <c r="BD8" s="36">
-        <f t="shared" si="0"/>
-        <v>-13094048122.15955</v>
-      </c>
-      <c r="BE8" s="36">
-        <f t="shared" si="0"/>
-        <v>-14932390322.697784</v>
-      </c>
-      <c r="BF8" s="36">
-        <f t="shared" si="0"/>
-        <v>-16770732523.236023</v>
+        <v>4585712421.3532848</v>
+      </c>
+      <c r="BD8" s="40">
+        <f t="shared" si="1"/>
+        <v>4204938072.3757043</v>
+      </c>
+      <c r="BE8" s="40">
+        <f t="shared" si="1"/>
+        <v>3855781298.0554795</v>
+      </c>
+      <c r="BF8" s="40">
+        <f t="shared" si="1"/>
+        <v>3535616735.0247846</v>
       </c>
     </row>
     <row r="9" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -4097,85 +4089,85 @@
       <c r="AL9" s="21">
         <v>16509486427.274775</v>
       </c>
-      <c r="AM9" s="36">
+      <c r="AM9" s="40">
+        <f t="shared" si="2"/>
+        <v>15182928471.588938</v>
+      </c>
+      <c r="AN9" s="40">
         <f t="shared" si="1"/>
-        <v>15029300516.144516</v>
-      </c>
-      <c r="AN9" s="36">
-        <f t="shared" si="2"/>
-        <v>13565723982.5291</v>
-      </c>
-      <c r="AO9" s="36">
-        <f t="shared" si="0"/>
-        <v>12102147448.913685</v>
-      </c>
-      <c r="AP9" s="36">
-        <f t="shared" si="0"/>
-        <v>10638570915.298267</v>
-      </c>
-      <c r="AQ9" s="36">
-        <f t="shared" si="0"/>
-        <v>9174994381.6828499</v>
-      </c>
-      <c r="AR9" s="36">
-        <f t="shared" si="0"/>
-        <v>7711417848.0674343</v>
-      </c>
-      <c r="AS9" s="36">
-        <f t="shared" si="0"/>
-        <v>6247841314.4520187</v>
-      </c>
-      <c r="AT9" s="36">
-        <f t="shared" si="0"/>
-        <v>4784264780.8366013</v>
-      </c>
-      <c r="AU9" s="36">
-        <f t="shared" si="0"/>
-        <v>3320688247.2211833</v>
-      </c>
-      <c r="AV9" s="36">
-        <f t="shared" si="0"/>
-        <v>1857111713.6057684</v>
-      </c>
-      <c r="AW9" s="36">
-        <f t="shared" si="0"/>
-        <v>393535179.99035233</v>
-      </c>
-      <c r="AX9" s="36">
-        <f t="shared" si="0"/>
-        <v>-1070041353.6250645</v>
-      </c>
-      <c r="AY9" s="36">
-        <f t="shared" si="0"/>
-        <v>-2533617887.2404828</v>
-      </c>
-      <c r="AZ9" s="36">
-        <f t="shared" si="0"/>
-        <v>-3997194420.8558955</v>
-      </c>
-      <c r="BA9" s="36">
-        <f t="shared" si="0"/>
-        <v>-5460770954.4713135</v>
-      </c>
-      <c r="BB9" s="36">
-        <f t="shared" si="0"/>
-        <v>-6924347488.086731</v>
-      </c>
-      <c r="BC9" s="36">
-        <f t="shared" si="0"/>
-        <v>-8387924021.7021484</v>
-      </c>
-      <c r="BD9" s="36">
-        <f t="shared" si="0"/>
-        <v>-9851500555.3175659</v>
-      </c>
-      <c r="BE9" s="36">
-        <f t="shared" si="0"/>
-        <v>-11315077088.93298</v>
-      </c>
-      <c r="BF9" s="36">
-        <f t="shared" si="0"/>
-        <v>-12778653622.548397</v>
+        <v>13962961112.621248</v>
+      </c>
+      <c r="AO9" s="40">
+        <f t="shared" si="1"/>
+        <v>12841019662.142269</v>
+      </c>
+      <c r="AP9" s="40">
+        <f t="shared" si="1"/>
+        <v>11809227615.371439</v>
+      </c>
+      <c r="AQ9" s="40">
+        <f t="shared" si="1"/>
+        <v>10860341354.57321</v>
+      </c>
+      <c r="AR9" s="40">
+        <f t="shared" si="1"/>
+        <v>9987699295.7886391</v>
+      </c>
+      <c r="AS9" s="40">
+        <f t="shared" si="1"/>
+        <v>9185175121.6909161</v>
+      </c>
+      <c r="AT9" s="40">
+        <f t="shared" si="1"/>
+        <v>8447134772.2396555</v>
+      </c>
+      <c r="AU9" s="40">
+        <f t="shared" si="1"/>
+        <v>7768396891.190093</v>
+      </c>
+      <c r="AV9" s="40">
+        <f t="shared" si="1"/>
+        <v>7144196450.7749138</v>
+      </c>
+      <c r="AW9" s="40">
+        <f t="shared" si="1"/>
+        <v>6570151299.188549</v>
+      </c>
+      <c r="AX9" s="40">
+        <f t="shared" si="1"/>
+        <v>6042231396.0230989</v>
+      </c>
+      <c r="AY9" s="40">
+        <f t="shared" si="1"/>
+        <v>5556730519.6755915</v>
+      </c>
+      <c r="AZ9" s="40">
+        <f t="shared" si="1"/>
+        <v>5110240248.1005754</v>
+      </c>
+      <c r="BA9" s="40">
+        <f t="shared" si="1"/>
+        <v>4699626030.2419043</v>
+      </c>
+      <c r="BB9" s="40">
+        <f t="shared" si="1"/>
+        <v>4322005180.1550035</v>
+      </c>
+      <c r="BC9" s="40">
+        <f t="shared" si="1"/>
+        <v>3974726639.3290405</v>
+      </c>
+      <c r="BD9" s="40">
+        <f t="shared" si="1"/>
+        <v>3655352365.1319032</v>
+      </c>
+      <c r="BE9" s="40">
+        <f t="shared" si="1"/>
+        <v>3361640214.7169857</v>
+      </c>
+      <c r="BF9" s="40">
+        <f t="shared" si="1"/>
+        <v>3091528204.2295475</v>
       </c>
     </row>
     <row r="10" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -4293,85 +4285,85 @@
       <c r="AL10" s="21">
         <v>447886842.89772946</v>
       </c>
-      <c r="AM10" s="36">
+      <c r="AM10" s="39">
+        <f>AL10+AL10*($AL10-$AK10)/$AK10</f>
+        <v>399478286.87085307</v>
+      </c>
+      <c r="AN10" s="39">
         <f t="shared" si="1"/>
-        <v>392752464.25772929</v>
-      </c>
-      <c r="AN10" s="36">
-        <f t="shared" si="2"/>
-        <v>337634890.439538</v>
-      </c>
-      <c r="AO10" s="36">
-        <f t="shared" si="0"/>
-        <v>282517316.62134665</v>
-      </c>
-      <c r="AP10" s="36">
-        <f t="shared" si="0"/>
-        <v>227399742.8031553</v>
-      </c>
-      <c r="AQ10" s="36">
-        <f t="shared" si="0"/>
-        <v>172282168.98496395</v>
-      </c>
-      <c r="AR10" s="36">
-        <f t="shared" si="0"/>
-        <v>117164595.16677268</v>
-      </c>
-      <c r="AS10" s="36">
-        <f t="shared" si="0"/>
-        <v>62047021.348581299</v>
-      </c>
-      <c r="AT10" s="36">
-        <f t="shared" si="0"/>
-        <v>6929447.5303899767</v>
-      </c>
-      <c r="AU10" s="36">
-        <f t="shared" si="0"/>
-        <v>-48188126.2878014</v>
-      </c>
-      <c r="AV10" s="36">
-        <f t="shared" si="0"/>
-        <v>-103305700.10599272</v>
-      </c>
-      <c r="AW10" s="36">
-        <f t="shared" si="0"/>
-        <v>-158423273.92418402</v>
-      </c>
-      <c r="AX10" s="36">
-        <f t="shared" si="0"/>
-        <v>-213540847.74237531</v>
-      </c>
-      <c r="AY10" s="36">
-        <f t="shared" si="0"/>
-        <v>-268658421.56056672</v>
-      </c>
-      <c r="AZ10" s="36">
-        <f t="shared" si="0"/>
-        <v>-323775995.37875801</v>
-      </c>
-      <c r="BA10" s="36">
-        <f t="shared" si="0"/>
-        <v>-378893569.19694942</v>
-      </c>
-      <c r="BB10" s="36">
-        <f t="shared" si="0"/>
-        <v>-434011143.01514071</v>
-      </c>
-      <c r="BC10" s="36">
-        <f t="shared" si="0"/>
-        <v>-489128716.833332</v>
-      </c>
-      <c r="BD10" s="36">
-        <f t="shared" si="0"/>
-        <v>-544246290.65152335</v>
-      </c>
-      <c r="BE10" s="36">
-        <f t="shared" si="0"/>
-        <v>-599363864.46971464</v>
-      </c>
-      <c r="BF10" s="36">
-        <f t="shared" si="0"/>
-        <v>-654481438.28790617</v>
+        <v>356301829.83006436</v>
+      </c>
+      <c r="AO10" s="39">
+        <f t="shared" si="1"/>
+        <v>317791975.46547508</v>
+      </c>
+      <c r="AP10" s="39">
+        <f t="shared" si="1"/>
+        <v>283444347.50283605</v>
+      </c>
+      <c r="AQ10" s="39">
+        <f t="shared" si="1"/>
+        <v>252809083.72098491</v>
+      </c>
+      <c r="AR10" s="39">
+        <f t="shared" si="1"/>
+        <v>225484943.95784158</v>
+      </c>
+      <c r="AS10" s="39">
+        <f t="shared" si="1"/>
+        <v>201114054.93556082</v>
+      </c>
+      <c r="AT10" s="39">
+        <f t="shared" si="1"/>
+        <v>179377223.0760828</v>
+      </c>
+      <c r="AU10" s="39">
+        <f t="shared" si="1"/>
+        <v>159989753.91747922</v>
+      </c>
+      <c r="AV10" s="39">
+        <f t="shared" si="1"/>
+        <v>142697723.37661126</v>
+      </c>
+      <c r="AW10" s="39">
+        <f t="shared" si="1"/>
+        <v>127274652.02159555</v>
+      </c>
+      <c r="AX10" s="39">
+        <f t="shared" si="1"/>
+        <v>113518538.79592651</v>
+      </c>
+      <c r="AY10" s="39">
+        <f t="shared" si="1"/>
+        <v>101249215.34396134</v>
+      </c>
+      <c r="AZ10" s="39">
+        <f t="shared" si="1"/>
+        <v>90305986.286494702</v>
+      </c>
+      <c r="BA10" s="39">
+        <f t="shared" si="1"/>
+        <v>80545524.540333703</v>
+      </c>
+      <c r="BB10" s="39">
+        <f t="shared" si="1"/>
+        <v>71839994.116178751</v>
+      </c>
+      <c r="BC10" s="39">
+        <f t="shared" si="1"/>
+        <v>64075375.80847463</v>
+      </c>
+      <c r="BD10" s="39">
+        <f t="shared" si="1"/>
+        <v>57149973.848238952</v>
+      </c>
+      <c r="BE10" s="39">
+        <f t="shared" si="1"/>
+        <v>50973083.960007273</v>
+      </c>
+      <c r="BF10" s="39">
+        <f t="shared" si="1"/>
+        <v>45463805.377996944</v>
       </c>
     </row>
     <row r="11" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -5606,11 +5598,11 @@
         <v>5386302376.5572815</v>
       </c>
       <c r="AM17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AM7:BA27" si="5">_xlfn.FORECAST.ETS(AM$5,$C17:$AL17,$C$5:$AL$5)</f>
         <v>5403099657.6990328</v>
       </c>
       <c r="AN17" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AN7:BC27" si="6">_xlfn.FORECAST.ETS(AN$5,$C17:$AL17,$C$5:$AL$5)</f>
         <v>5419760934.2887936</v>
       </c>
       <c r="AO17" s="19">
@@ -5802,11 +5794,11 @@
         <v>2782978280.1198249</v>
       </c>
       <c r="AM18" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2792306303.070272</v>
       </c>
       <c r="AN18" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>2801556921.8543568</v>
       </c>
       <c r="AO18" s="19">
@@ -5998,11 +5990,11 @@
         <v>1758552702.7772868</v>
       </c>
       <c r="AM19" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1764444123.9807384</v>
       </c>
       <c r="AN19" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1770286669.2118886</v>
       </c>
       <c r="AO19" s="19">
@@ -6194,11 +6186,11 @@
         <v>5054881539.5416737</v>
       </c>
       <c r="AM20" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5155084195.1862154</v>
       </c>
       <c r="AN20" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5255314389.2162943</v>
       </c>
       <c r="AO20" s="19">
@@ -6323,151 +6315,151 @@
       <c r="P21" s="21">
         <v>3407780.8476551832</v>
       </c>
-      <c r="Q21" s="21">
+      <c r="Q21" s="36">
         <v>2831506.8120976822</v>
       </c>
-      <c r="R21" s="21">
+      <c r="R21" s="36">
         <v>2348492.5622395566</v>
       </c>
-      <c r="S21" s="21">
+      <c r="S21" s="36">
         <v>1941995.7364666564</v>
       </c>
-      <c r="T21" s="21">
+      <c r="T21" s="36">
         <v>1617223.2332116661</v>
       </c>
-      <c r="U21" s="21">
+      <c r="U21" s="36">
         <v>1378343.5848553425</v>
       </c>
-      <c r="V21" s="21">
+      <c r="V21" s="36">
         <v>1184593.548397878</v>
       </c>
-      <c r="W21" s="21">
+      <c r="W21" s="36">
         <v>1022802.0647667109</v>
       </c>
-      <c r="X21" s="21">
+      <c r="X21" s="36">
         <v>882401.27525432536</v>
       </c>
-      <c r="Y21" s="21">
+      <c r="Y21" s="36">
         <v>763532.77302583365</v>
       </c>
-      <c r="Z21" s="21">
+      <c r="Z21" s="36">
         <v>654283.32645360508</v>
       </c>
-      <c r="AA21" s="21">
+      <c r="AA21" s="36">
         <v>553208.08100992755</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21" s="36">
         <v>458532.92799133214</v>
       </c>
-      <c r="AC21" s="21">
+      <c r="AC21" s="36">
         <v>373867.95789961098</v>
       </c>
-      <c r="AD21" s="21">
+      <c r="AD21" s="36">
         <v>297093.3120982658</v>
       </c>
-      <c r="AE21" s="21">
+      <c r="AE21" s="36">
         <v>233325.87695527429</v>
       </c>
-      <c r="AF21" s="21">
+      <c r="AF21" s="36">
         <v>176081.50852790487</v>
       </c>
-      <c r="AG21" s="21">
+      <c r="AG21" s="36">
         <v>134208.78245710875</v>
       </c>
-      <c r="AH21" s="21">
+      <c r="AH21" s="36">
         <v>113249.64932706674</v>
       </c>
-      <c r="AI21" s="21">
+      <c r="AI21" s="36">
         <v>91082.904736580313</v>
       </c>
-      <c r="AJ21" s="21">
+      <c r="AJ21" s="36">
         <v>67168.835269952964</v>
       </c>
-      <c r="AK21" s="21">
+      <c r="AK21" s="36">
         <v>46041.697449979889</v>
       </c>
-      <c r="AL21" s="21">
+      <c r="AL21" s="36">
         <v>30323.971594334187</v>
       </c>
-      <c r="AM21" s="36">
-        <f t="shared" si="1"/>
-        <v>14026.246441096297</v>
-      </c>
-      <c r="AN21" s="36">
-        <f t="shared" si="2"/>
-        <v>-2260.1151668949856</v>
-      </c>
-      <c r="AO21" s="36">
-        <f t="shared" si="0"/>
-        <v>-18546.476774882995</v>
-      </c>
-      <c r="AP21" s="36">
-        <f t="shared" si="0"/>
-        <v>-34832.838382874274</v>
-      </c>
-      <c r="AQ21" s="36">
-        <f t="shared" si="0"/>
-        <v>-51119.199990862289</v>
-      </c>
-      <c r="AR21" s="36">
-        <f t="shared" si="0"/>
-        <v>-67405.561598853557</v>
-      </c>
-      <c r="AS21" s="36">
-        <f t="shared" si="0"/>
-        <v>-83691.923206841573</v>
-      </c>
-      <c r="AT21" s="36">
-        <f t="shared" si="0"/>
-        <v>-99978.284814832848</v>
-      </c>
-      <c r="AU21" s="36">
-        <f t="shared" si="0"/>
-        <v>-116264.64642282086</v>
-      </c>
-      <c r="AV21" s="36">
-        <f t="shared" si="0"/>
-        <v>-132551.00803081214</v>
-      </c>
-      <c r="AW21" s="36">
-        <f t="shared" si="0"/>
-        <v>-148837.36963880016</v>
-      </c>
-      <c r="AX21" s="36">
-        <f t="shared" si="0"/>
-        <v>-165123.73124679143</v>
-      </c>
-      <c r="AY21" s="36">
-        <f t="shared" si="0"/>
-        <v>-181410.09285477945</v>
-      </c>
-      <c r="AZ21" s="36">
-        <f t="shared" si="0"/>
-        <v>-197696.45446277072</v>
-      </c>
-      <c r="BA21" s="36">
-        <f t="shared" si="0"/>
-        <v>-213982.81607075874</v>
-      </c>
-      <c r="BB21" s="36">
-        <f t="shared" si="0"/>
-        <v>-230269.17767875001</v>
-      </c>
-      <c r="BC21" s="36">
-        <f t="shared" si="0"/>
-        <v>-246555.53928673803</v>
-      </c>
-      <c r="BD21" s="36">
-        <f t="shared" si="0"/>
-        <v>-262841.9008947293</v>
-      </c>
-      <c r="BE21" s="36">
-        <f t="shared" si="0"/>
-        <v>-279128.26250271732</v>
-      </c>
-      <c r="BF21" s="36">
-        <f t="shared" si="0"/>
-        <v>-295414.6241107086</v>
+      <c r="AM21" s="39">
+        <f>AL21+AL21*($AL21-$AK21)/$AK21</f>
+        <v>19971.966807978497</v>
+      </c>
+      <c r="AN21" s="39">
+        <f t="shared" ref="AN21:BF21" si="7">AM21+AM21*($AL21-$AK21)/$AK21</f>
+        <v>13153.931929336148</v>
+      </c>
+      <c r="AO21" s="39">
+        <f t="shared" si="7"/>
+        <v>8663.4394531683174</v>
+      </c>
+      <c r="AP21" s="39">
+        <f t="shared" si="7"/>
+        <v>5705.9123889278962</v>
+      </c>
+      <c r="AQ21" s="39">
+        <f t="shared" si="7"/>
+        <v>3758.0266320455703</v>
+      </c>
+      <c r="AR21" s="39">
+        <f t="shared" si="7"/>
+        <v>2475.1105878471694</v>
+      </c>
+      <c r="AS21" s="39">
+        <f t="shared" si="7"/>
+        <v>1630.1567343439929</v>
+      </c>
+      <c r="AT21" s="39">
+        <f t="shared" si="7"/>
+        <v>1073.653432527419</v>
+      </c>
+      <c r="AU21" s="39">
+        <f t="shared" si="7"/>
+        <v>707.12936301906632</v>
+      </c>
+      <c r="AV21" s="39">
+        <f t="shared" si="7"/>
+        <v>465.72936936144959</v>
+      </c>
+      <c r="AW21" s="39">
+        <f t="shared" si="7"/>
+        <v>306.73856415712885</v>
+      </c>
+      <c r="AX21" s="39">
+        <f t="shared" si="7"/>
+        <v>202.02407864073422</v>
+      </c>
+      <c r="AY21" s="39">
+        <f t="shared" si="7"/>
+        <v>133.05704961744055</v>
+      </c>
+      <c r="AZ21" s="39">
+        <f t="shared" si="7"/>
+        <v>87.634001709182087</v>
+      </c>
+      <c r="BA21" s="39">
+        <f t="shared" si="7"/>
+        <v>57.717484925791588</v>
+      </c>
+      <c r="BB21" s="39">
+        <f t="shared" si="7"/>
+        <v>38.013875906455752</v>
+      </c>
+      <c r="BC21" s="39">
+        <f t="shared" si="7"/>
+        <v>25.036689718710893</v>
+      </c>
+      <c r="BD21" s="39">
+        <f>BC21+BC21*($AL21-$AK21)/$AK21</f>
+        <v>16.489658502950775</v>
+      </c>
+      <c r="BE21" s="39">
+        <f t="shared" si="7"/>
+        <v>10.860414879077593</v>
+      </c>
+      <c r="BF21" s="39">
+        <f t="shared" si="7"/>
+        <v>7.1528838104551067</v>
       </c>
     </row>
     <row r="22" spans="1:58" s="19" customFormat="1" x14ac:dyDescent="0.45">
@@ -6586,83 +6578,83 @@
         <v>12528430342.711115</v>
       </c>
       <c r="AM22" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12777462668.108397</v>
       </c>
       <c r="AN22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13026496246.110596</v>
       </c>
       <c r="AO22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13275529824.112797</v>
       </c>
       <c r="AP22" s="19">
-        <f t="shared" ref="AO22:BF27" si="5">_xlfn.FORECAST.ETS(AP$5,$C22:$AL22,$C$5:$AL$5)</f>
+        <f t="shared" ref="AO22:BF27" si="8">_xlfn.FORECAST.ETS(AP$5,$C22:$AL22,$C$5:$AL$5)</f>
         <v>13524563402.114996</v>
       </c>
       <c r="AQ22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13773596980.117195</v>
       </c>
       <c r="AR22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14022630558.119394</v>
       </c>
       <c r="AS22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14271664136.121593</v>
       </c>
       <c r="AT22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>14520697714.123793</v>
       </c>
       <c r="AU22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14769731292.125992</v>
       </c>
       <c r="AV22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15018764870.128193</v>
       </c>
       <c r="AW22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15267798448.130392</v>
       </c>
       <c r="AX22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15516832026.132591</v>
       </c>
       <c r="AY22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15765865604.13479</v>
       </c>
       <c r="AZ22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16014899182.13699</v>
       </c>
       <c r="BA22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16263932760.139191</v>
       </c>
       <c r="BB22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16512966338.14139</v>
       </c>
       <c r="BC22" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16761999916.143589</v>
       </c>
       <c r="BD22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17011033494.145788</v>
       </c>
       <c r="BE22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17260067072.147987</v>
       </c>
       <c r="BF22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17509100650.150188</v>
       </c>
     </row>
@@ -6782,83 +6774,83 @@
         <v>7880625282.8919907</v>
       </c>
       <c r="AM23" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8037299257.5673695</v>
       </c>
       <c r="AN23" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8193974012.0563335</v>
       </c>
       <c r="AO23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8350648766.5452986</v>
       </c>
       <c r="AP23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8507323521.0342627</v>
       </c>
       <c r="AQ23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8663998275.5232277</v>
       </c>
       <c r="AR23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8820673030.0121918</v>
       </c>
       <c r="AS23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>8977347784.5011559</v>
       </c>
       <c r="AT23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9134022538.9901199</v>
       </c>
       <c r="AU23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9290697293.479084</v>
       </c>
       <c r="AV23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9447372047.9680481</v>
       </c>
       <c r="AW23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9604046802.4570122</v>
       </c>
       <c r="AX23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9760721556.9459763</v>
       </c>
       <c r="AY23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>9917396311.4349403</v>
       </c>
       <c r="AZ23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10074071065.923904</v>
       </c>
       <c r="BA23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10230745820.41287</v>
       </c>
       <c r="BB23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10387420574.901834</v>
       </c>
       <c r="BC23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10544095329.390799</v>
       </c>
       <c r="BD23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10700770083.879763</v>
       </c>
       <c r="BE23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10857444838.368727</v>
       </c>
       <c r="BF23" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11014119592.857691</v>
       </c>
     </row>
@@ -6978,83 +6970,83 @@
         <v>9780609306.3001728</v>
       </c>
       <c r="AM24" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9979577602.5638981</v>
       </c>
       <c r="AN24" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10178610666.847359</v>
       </c>
       <c r="AO24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10377643731.130821</v>
       </c>
       <c r="AP24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10576676795.414282</v>
       </c>
       <c r="AQ24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10775709859.697744</v>
       </c>
       <c r="AR24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10974742923.981205</v>
       </c>
       <c r="AS24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11173775988.264668</v>
       </c>
       <c r="AT24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11372809052.548128</v>
       </c>
       <c r="AU24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11571842116.831591</v>
       </c>
       <c r="AV24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11770875181.115051</v>
       </c>
       <c r="AW24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11969908245.398514</v>
       </c>
       <c r="AX24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12168941309.681976</v>
       </c>
       <c r="AY24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12367974373.965437</v>
       </c>
       <c r="AZ24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12567007438.248898</v>
       </c>
       <c r="BA24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12766040502.53236</v>
       </c>
       <c r="BB24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>12965073566.815823</v>
       </c>
       <c r="BC24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13164106631.099283</v>
       </c>
       <c r="BD24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13363139695.382744</v>
       </c>
       <c r="BE24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13562172759.666206</v>
       </c>
       <c r="BF24" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>13761205823.949669</v>
       </c>
     </row>
@@ -7174,83 +7166,83 @@
         <v>14623829956.372179</v>
       </c>
       <c r="AM25" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14899203987.023104</v>
       </c>
       <c r="AN25" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15174789735.771669</v>
       </c>
       <c r="AO25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15450375484.520237</v>
       </c>
       <c r="AP25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>15725961233.268803</v>
       </c>
       <c r="AQ25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16001546982.01737</v>
       </c>
       <c r="AR25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16277132730.765938</v>
       </c>
       <c r="AS25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16552718479.514503</v>
       </c>
       <c r="AT25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>16828304228.263071</v>
       </c>
       <c r="AU25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17103889977.011639</v>
       </c>
       <c r="AV25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17379475725.760204</v>
       </c>
       <c r="AW25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17655061474.508774</v>
       </c>
       <c r="AX25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>17930647223.257339</v>
       </c>
       <c r="AY25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18206232972.005905</v>
       </c>
       <c r="AZ25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18481818720.754471</v>
       </c>
       <c r="BA25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>18757404469.50304</v>
       </c>
       <c r="BB25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19032990218.251606</v>
       </c>
       <c r="BC25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19308575967.000172</v>
       </c>
       <c r="BD25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19584161715.748741</v>
       </c>
       <c r="BE25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>19859747464.497307</v>
       </c>
       <c r="BF25" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>20135333213.245872</v>
       </c>
     </row>
@@ -7370,83 +7362,83 @@
         <v>3104178008.1578941</v>
       </c>
       <c r="AM26" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3164915293.7899146</v>
       </c>
       <c r="AN26" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3225666556.1785321</v>
       </c>
       <c r="AO26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3286417818.5671492</v>
       </c>
       <c r="AP26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3347169080.9557667</v>
       </c>
       <c r="AQ26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3407920343.3443842</v>
       </c>
       <c r="AR26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3468671605.7330017</v>
       </c>
       <c r="AS26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3529422868.1216192</v>
       </c>
       <c r="AT26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3590174130.5102363</v>
       </c>
       <c r="AU26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3650925392.8988538</v>
       </c>
       <c r="AV26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3711676655.2874713</v>
       </c>
       <c r="AW26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3772427917.6760883</v>
       </c>
       <c r="AX26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3833179180.0647058</v>
       </c>
       <c r="AY26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3893930442.4533234</v>
       </c>
       <c r="AZ26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3954681704.8419409</v>
       </c>
       <c r="BA26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4015432967.2305584</v>
       </c>
       <c r="BB26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4076184229.6191759</v>
       </c>
       <c r="BC26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4136935492.0077929</v>
       </c>
       <c r="BD26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4197686754.3964105</v>
       </c>
       <c r="BE26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4258438016.785028</v>
       </c>
       <c r="BF26" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4319189279.173645</v>
       </c>
     </row>
@@ -7566,83 +7558,83 @@
         <v>3451259678.6666665</v>
       </c>
       <c r="AM27" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3521973326.3178258</v>
       </c>
       <c r="AN27" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>3592717216.4576297</v>
       </c>
       <c r="AO27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3663461106.5974336</v>
       </c>
       <c r="AP27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3734204996.737237</v>
       </c>
       <c r="AQ27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3804948886.8770409</v>
       </c>
       <c r="AR27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3875692777.0168447</v>
       </c>
       <c r="AS27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3946436667.1566486</v>
       </c>
       <c r="AT27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4017180557.2964525</v>
       </c>
       <c r="AU27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4087924447.4362564</v>
       </c>
       <c r="AV27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4158668337.5760603</v>
       </c>
       <c r="AW27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4229412227.7158642</v>
       </c>
       <c r="AX27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4300156117.8556681</v>
       </c>
       <c r="AY27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4370900007.995472</v>
       </c>
       <c r="AZ27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4441643898.1352758</v>
       </c>
       <c r="BA27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4512387788.2750797</v>
       </c>
       <c r="BB27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4583131678.4148827</v>
       </c>
       <c r="BC27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4653875568.5546875</v>
       </c>
       <c r="BD27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4724619458.6944904</v>
       </c>
       <c r="BE27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4795363348.8342943</v>
       </c>
       <c r="BF27" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4866107238.9740982</v>
       </c>
     </row>
@@ -7809,84 +7801,84 @@
       <c r="AL31" s="24">
         <v>38061531367.186707</v>
       </c>
-      <c r="AM31" s="39">
-        <f t="shared" ref="AM29:BB36" si="6">_xlfn.FORECAST.ETS(AM$5,$C31:$AL31,$C$5:$AL$5)</f>
+      <c r="AM31" s="37">
+        <f t="shared" ref="AM31:BB36" si="9">_xlfn.FORECAST.ETS(AM$5,$C31:$AL31,$C$5:$AL$5)</f>
         <v>38637267428.866386</v>
       </c>
-      <c r="AN31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AN31" s="37">
+        <f t="shared" si="9"/>
         <v>39213003490.546066</v>
       </c>
-      <c r="AO31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AO31" s="37">
+        <f t="shared" si="9"/>
         <v>39788739552.225746</v>
       </c>
-      <c r="AP31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AP31" s="37">
+        <f t="shared" si="9"/>
         <v>40364475613.905426</v>
       </c>
-      <c r="AQ31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AQ31" s="37">
+        <f t="shared" si="9"/>
         <v>40940211675.585114</v>
       </c>
-      <c r="AR31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AR31" s="37">
+        <f t="shared" si="9"/>
         <v>41515947737.264793</v>
       </c>
-      <c r="AS31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AS31" s="37">
+        <f t="shared" si="9"/>
         <v>42091683798.944473</v>
       </c>
-      <c r="AT31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AT31" s="37">
+        <f t="shared" si="9"/>
         <v>42667419860.624153</v>
       </c>
-      <c r="AU31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AU31" s="37">
+        <f t="shared" si="9"/>
         <v>43243155922.303833</v>
       </c>
-      <c r="AV31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AV31" s="37">
+        <f t="shared" si="9"/>
         <v>43818891983.983513</v>
       </c>
-      <c r="AW31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AW31" s="37">
+        <f t="shared" si="9"/>
         <v>44394628045.663193</v>
       </c>
-      <c r="AX31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AX31" s="37">
+        <f t="shared" si="9"/>
         <v>44970364107.342873</v>
       </c>
-      <c r="AY31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AY31" s="37">
+        <f t="shared" si="9"/>
         <v>45546100169.022552</v>
       </c>
-      <c r="AZ31" s="39">
-        <f t="shared" si="6"/>
+      <c r="AZ31" s="37">
+        <f t="shared" si="9"/>
         <v>46121836230.702232</v>
       </c>
-      <c r="BA31" s="39">
-        <f t="shared" si="6"/>
+      <c r="BA31" s="37">
+        <f t="shared" si="9"/>
         <v>46697572292.381912</v>
       </c>
-      <c r="BB31" s="39">
-        <f t="shared" si="6"/>
+      <c r="BB31" s="37">
+        <f t="shared" si="9"/>
         <v>47273308354.0616</v>
       </c>
-      <c r="BC31" s="39">
-        <f t="shared" ref="AO31:BF36" si="7">_xlfn.FORECAST.ETS(BC$5,$C31:$AL31,$C$5:$AL$5)</f>
+      <c r="BC31" s="37">
+        <f t="shared" ref="AO31:BF36" si="10">_xlfn.FORECAST.ETS(BC$5,$C31:$AL31,$C$5:$AL$5)</f>
         <v>47849044415.741272</v>
       </c>
-      <c r="BD31" s="39">
-        <f t="shared" si="7"/>
+      <c r="BD31" s="37">
+        <f t="shared" si="10"/>
         <v>48424780477.420959</v>
       </c>
-      <c r="BE31" s="39">
-        <f t="shared" si="7"/>
+      <c r="BE31" s="37">
+        <f t="shared" si="10"/>
         <v>49000516539.100639</v>
       </c>
-      <c r="BF31" s="39">
-        <f t="shared" si="7"/>
+      <c r="BF31" s="37">
+        <f t="shared" si="10"/>
         <v>49576252600.780319</v>
       </c>
     </row>
@@ -8002,84 +7994,84 @@
       <c r="AL32" s="24">
         <v>67681170393.573875</v>
       </c>
-      <c r="AM32" s="39">
-        <f t="shared" si="6"/>
+      <c r="AM32" s="37">
+        <f t="shared" si="9"/>
         <v>68563309804.174263</v>
       </c>
-      <c r="AN32" s="39">
-        <f t="shared" si="6"/>
+      <c r="AN32" s="37">
+        <f t="shared" si="9"/>
         <v>69445449214.774658</v>
       </c>
-      <c r="AO32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AO32" s="37">
+        <f t="shared" si="10"/>
         <v>70327588625.375046</v>
       </c>
-      <c r="AP32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AP32" s="37">
+        <f t="shared" si="10"/>
         <v>71209728035.975433</v>
       </c>
-      <c r="AQ32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AQ32" s="37">
+        <f t="shared" si="10"/>
         <v>72091867446.575821</v>
       </c>
-      <c r="AR32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AR32" s="37">
+        <f t="shared" si="10"/>
         <v>72974006857.176208</v>
       </c>
-      <c r="AS32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AS32" s="37">
+        <f t="shared" si="10"/>
         <v>73856146267.776611</v>
       </c>
-      <c r="AT32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AT32" s="37">
+        <f t="shared" si="10"/>
         <v>74738285678.376999</v>
       </c>
-      <c r="AU32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AU32" s="37">
+        <f t="shared" si="10"/>
         <v>75620425088.977386</v>
       </c>
-      <c r="AV32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AV32" s="37">
+        <f t="shared" si="10"/>
         <v>76502564499.577774</v>
       </c>
-      <c r="AW32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AW32" s="37">
+        <f t="shared" si="10"/>
         <v>77384703910.178162</v>
       </c>
-      <c r="AX32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AX32" s="37">
+        <f t="shared" si="10"/>
         <v>78266843320.778549</v>
       </c>
-      <c r="AY32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AY32" s="37">
+        <f t="shared" si="10"/>
         <v>79148982731.378937</v>
       </c>
-      <c r="AZ32" s="39">
-        <f t="shared" si="7"/>
+      <c r="AZ32" s="37">
+        <f t="shared" si="10"/>
         <v>80031122141.97934</v>
       </c>
-      <c r="BA32" s="39">
-        <f t="shared" si="7"/>
+      <c r="BA32" s="37">
+        <f t="shared" si="10"/>
         <v>80913261552.579727</v>
       </c>
-      <c r="BB32" s="39">
-        <f t="shared" si="7"/>
+      <c r="BB32" s="37">
+        <f t="shared" si="10"/>
         <v>81795400963.180115</v>
       </c>
-      <c r="BC32" s="39">
-        <f t="shared" si="7"/>
+      <c r="BC32" s="37">
+        <f t="shared" si="10"/>
         <v>82677540373.780502</v>
       </c>
-      <c r="BD32" s="39">
-        <f t="shared" si="7"/>
+      <c r="BD32" s="37">
+        <f t="shared" si="10"/>
         <v>83559679784.38089</v>
       </c>
-      <c r="BE32" s="39">
-        <f t="shared" si="7"/>
+      <c r="BE32" s="37">
+        <f t="shared" si="10"/>
         <v>84441819194.981277</v>
       </c>
-      <c r="BF32" s="39">
-        <f t="shared" si="7"/>
+      <c r="BF32" s="37">
+        <f t="shared" si="10"/>
         <v>85323958605.581665</v>
       </c>
     </row>
@@ -8196,83 +8188,83 @@
         <v>30959876949.496914</v>
       </c>
       <c r="AM33" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>31565657634.765087</v>
       </c>
       <c r="AN33" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32171652266.017921</v>
       </c>
       <c r="AO33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>32777646897.270752</v>
       </c>
       <c r="AP33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33383641528.523586</v>
       </c>
       <c r="AQ33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>33989636159.776421</v>
       </c>
       <c r="AR33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>34595630791.029251</v>
       </c>
       <c r="AS33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35201625422.282089</v>
       </c>
       <c r="AT33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>35807620053.53492</v>
       </c>
       <c r="AU33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>36413614684.78775</v>
       </c>
       <c r="AV33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37019609316.040588</v>
       </c>
       <c r="AW33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>37625603947.293419</v>
       </c>
       <c r="AX33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>38231598578.546249</v>
       </c>
       <c r="AY33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>38837593209.799088</v>
       </c>
       <c r="AZ33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>39443587841.051918</v>
       </c>
       <c r="BA33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40049582472.304749</v>
       </c>
       <c r="BB33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>40655577103.557587</v>
       </c>
       <c r="BC33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41261571734.810425</v>
       </c>
       <c r="BD33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>41867566366.063255</v>
       </c>
       <c r="BE33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>42473560997.316086</v>
       </c>
       <c r="BF33" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>43079555628.568924</v>
       </c>
     </row>
@@ -8388,85 +8380,85 @@
       <c r="AL34" s="24">
         <v>447886842.89772946</v>
       </c>
-      <c r="AM34" s="36">
-        <f t="shared" si="6"/>
-        <v>392752464.25772929</v>
-      </c>
-      <c r="AN34" s="36">
-        <f t="shared" si="6"/>
-        <v>337634890.439538</v>
-      </c>
-      <c r="AO34" s="36">
-        <f t="shared" si="7"/>
-        <v>282517316.62134665</v>
-      </c>
-      <c r="AP34" s="36">
-        <f t="shared" si="7"/>
-        <v>227399742.8031553</v>
-      </c>
-      <c r="AQ34" s="36">
-        <f t="shared" si="7"/>
-        <v>172282168.98496395</v>
-      </c>
-      <c r="AR34" s="36">
-        <f t="shared" si="7"/>
-        <v>117164595.16677268</v>
-      </c>
-      <c r="AS34" s="36">
-        <f t="shared" si="7"/>
-        <v>62047021.348581299</v>
-      </c>
-      <c r="AT34" s="36">
-        <f t="shared" si="7"/>
-        <v>6929447.5303899767</v>
-      </c>
-      <c r="AU34" s="36">
-        <f t="shared" si="7"/>
-        <v>-48188126.2878014</v>
-      </c>
-      <c r="AV34" s="36">
-        <f t="shared" si="7"/>
-        <v>-103305700.10599272</v>
-      </c>
-      <c r="AW34" s="36">
-        <f t="shared" si="7"/>
-        <v>-158423273.92418402</v>
-      </c>
-      <c r="AX34" s="36">
-        <f t="shared" si="7"/>
-        <v>-213540847.74237531</v>
-      </c>
-      <c r="AY34" s="36">
-        <f t="shared" si="7"/>
-        <v>-268658421.56056672</v>
-      </c>
-      <c r="AZ34" s="36">
-        <f t="shared" si="7"/>
-        <v>-323775995.37875801</v>
-      </c>
-      <c r="BA34" s="36">
-        <f t="shared" si="7"/>
-        <v>-378893569.19694942</v>
-      </c>
-      <c r="BB34" s="36">
-        <f t="shared" si="7"/>
-        <v>-434011143.01514071</v>
-      </c>
-      <c r="BC34" s="36">
-        <f t="shared" si="7"/>
-        <v>-489128716.833332</v>
-      </c>
-      <c r="BD34" s="36">
-        <f t="shared" si="7"/>
-        <v>-544246290.65152335</v>
-      </c>
-      <c r="BE34" s="36">
-        <f t="shared" si="7"/>
-        <v>-599363864.46971464</v>
-      </c>
-      <c r="BF34" s="36">
-        <f t="shared" si="7"/>
-        <v>-654481438.28790617</v>
+      <c r="AM34" s="39">
+        <f>AL34+AL34*($AL34-$AK34)/$AK34</f>
+        <v>399478286.87085307</v>
+      </c>
+      <c r="AN34" s="39">
+        <f t="shared" ref="AN34:BF34" si="11">AM34+AM34*($AL34-$AK34)/$AK34</f>
+        <v>356301829.83006436</v>
+      </c>
+      <c r="AO34" s="39">
+        <f t="shared" si="11"/>
+        <v>317791975.46547508</v>
+      </c>
+      <c r="AP34" s="39">
+        <f t="shared" si="11"/>
+        <v>283444347.50283605</v>
+      </c>
+      <c r="AQ34" s="39">
+        <f t="shared" si="11"/>
+        <v>252809083.72098491</v>
+      </c>
+      <c r="AR34" s="39">
+        <f t="shared" si="11"/>
+        <v>225484943.95784158</v>
+      </c>
+      <c r="AS34" s="39">
+        <f t="shared" si="11"/>
+        <v>201114054.93556082</v>
+      </c>
+      <c r="AT34" s="39">
+        <f t="shared" si="11"/>
+        <v>179377223.0760828</v>
+      </c>
+      <c r="AU34" s="39">
+        <f t="shared" si="11"/>
+        <v>159989753.91747922</v>
+      </c>
+      <c r="AV34" s="39">
+        <f t="shared" si="11"/>
+        <v>142697723.37661126</v>
+      </c>
+      <c r="AW34" s="39">
+        <f t="shared" si="11"/>
+        <v>127274652.02159555</v>
+      </c>
+      <c r="AX34" s="39">
+        <f t="shared" si="11"/>
+        <v>113518538.79592651</v>
+      </c>
+      <c r="AY34" s="39">
+        <f t="shared" si="11"/>
+        <v>101249215.34396134</v>
+      </c>
+      <c r="AZ34" s="39">
+        <f t="shared" si="11"/>
+        <v>90305986.286494702</v>
+      </c>
+      <c r="BA34" s="39">
+        <f t="shared" si="11"/>
+        <v>80545524.540333703</v>
+      </c>
+      <c r="BB34" s="39">
+        <f t="shared" si="11"/>
+        <v>71839994.116178751</v>
+      </c>
+      <c r="BC34" s="39">
+        <f t="shared" si="11"/>
+        <v>64075375.80847463</v>
+      </c>
+      <c r="BD34" s="39">
+        <f t="shared" si="11"/>
+        <v>57149973.848238952</v>
+      </c>
+      <c r="BE34" s="39">
+        <f t="shared" si="11"/>
+        <v>50973083.960007273</v>
+      </c>
+      <c r="BF34" s="39">
+        <f t="shared" si="11"/>
+        <v>45463805.377996944</v>
       </c>
     </row>
     <row r="35" spans="2:58" s="17" customFormat="1" x14ac:dyDescent="0.45">
@@ -8581,84 +8573,84 @@
       <c r="AL35" s="24">
         <v>3525155958.4000006</v>
       </c>
-      <c r="AM35" s="39">
+      <c r="AM35" s="37">
         <f>_xlfn.FORECAST.ETS(AM$5,$AB35:$AL35,$AB$5:$AL$5)</f>
         <v>4058471487.5017381</v>
       </c>
-      <c r="AN35" s="39">
-        <f t="shared" ref="AN35:BF35" si="8">_xlfn.FORECAST.ETS(AN$5,$AB35:$AL35,$AB$5:$AL$5)</f>
+      <c r="AN35" s="37">
+        <f t="shared" ref="AN35:BF35" si="12">_xlfn.FORECAST.ETS(AN$5,$AB35:$AL35,$AB$5:$AL$5)</f>
         <v>4594449425.1038046</v>
       </c>
-      <c r="AO35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AO35" s="37">
+        <f t="shared" si="12"/>
         <v>5130427362.7058716</v>
       </c>
-      <c r="AP35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AP35" s="37">
+        <f t="shared" si="12"/>
         <v>5666405300.3079376</v>
       </c>
-      <c r="AQ35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AQ35" s="37">
+        <f t="shared" si="12"/>
         <v>6202383237.9100037</v>
       </c>
-      <c r="AR35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AR35" s="37">
+        <f t="shared" si="12"/>
         <v>6738361175.5120707</v>
       </c>
-      <c r="AS35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AS35" s="37">
+        <f t="shared" si="12"/>
         <v>7274339113.1141376</v>
       </c>
-      <c r="AT35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AT35" s="37">
+        <f t="shared" si="12"/>
         <v>7810317050.7162037</v>
       </c>
-      <c r="AU35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AU35" s="37">
+        <f t="shared" si="12"/>
         <v>8346294988.3182697</v>
       </c>
-      <c r="AV35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AV35" s="37">
+        <f t="shared" si="12"/>
         <v>8882272925.9203377</v>
       </c>
-      <c r="AW35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AW35" s="37">
+        <f t="shared" si="12"/>
         <v>9418250863.5224037</v>
       </c>
-      <c r="AX35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AX35" s="37">
+        <f t="shared" si="12"/>
         <v>9954228801.1244698</v>
       </c>
-      <c r="AY35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AY35" s="37">
+        <f t="shared" si="12"/>
         <v>10490206738.726536</v>
       </c>
-      <c r="AZ35" s="39">
-        <f t="shared" si="8"/>
+      <c r="AZ35" s="37">
+        <f t="shared" si="12"/>
         <v>11026184676.328602</v>
       </c>
-      <c r="BA35" s="39">
-        <f t="shared" si="8"/>
+      <c r="BA35" s="37">
+        <f t="shared" si="12"/>
         <v>11562162613.93067</v>
       </c>
-      <c r="BB35" s="39">
-        <f t="shared" si="8"/>
+      <c r="BB35" s="37">
+        <f t="shared" si="12"/>
         <v>12098140551.532736</v>
       </c>
-      <c r="BC35" s="39">
-        <f t="shared" si="8"/>
+      <c r="BC35" s="37">
+        <f t="shared" si="12"/>
         <v>12634118489.134802</v>
       </c>
-      <c r="BD35" s="39">
-        <f t="shared" si="8"/>
+      <c r="BD35" s="37">
+        <f t="shared" si="12"/>
         <v>13170096426.736868</v>
       </c>
-      <c r="BE35" s="39">
-        <f t="shared" si="8"/>
+      <c r="BE35" s="37">
+        <f t="shared" si="12"/>
         <v>13706074364.338936</v>
       </c>
-      <c r="BF35" s="39">
-        <f t="shared" si="8"/>
+      <c r="BF35" s="37">
+        <f t="shared" si="12"/>
         <v>14242052301.941002</v>
       </c>
     </row>
@@ -8667,227 +8659,227 @@
         <v>87</v>
       </c>
       <c r="C36" s="27">
-        <f t="shared" ref="C36:AM36" si="9">SUM(C31:C35)</f>
+        <f t="shared" ref="C36:AM36" si="13">SUM(C31:C35)</f>
         <v>70558157973.281219</v>
       </c>
       <c r="D36" s="27">
+        <f t="shared" si="13"/>
+        <v>74903631006.396164</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="13"/>
+        <v>78937375216.814301</v>
+      </c>
+      <c r="F36" s="27">
+        <f t="shared" si="13"/>
+        <v>82996067209.157059</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" si="13"/>
+        <v>87072176370.966095</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" si="13"/>
+        <v>90880559561.345978</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="13"/>
+        <v>94646472728.339493</v>
+      </c>
+      <c r="J36" s="27">
+        <f t="shared" si="13"/>
+        <v>98397287986.998093</v>
+      </c>
+      <c r="K36" s="27">
+        <f t="shared" si="13"/>
+        <v>102135499952.87811</v>
+      </c>
+      <c r="L36" s="27">
+        <f t="shared" si="13"/>
+        <v>105864395773.4299</v>
+      </c>
+      <c r="M36" s="27">
+        <f t="shared" si="13"/>
+        <v>109474376683.04561</v>
+      </c>
+      <c r="N36" s="27">
+        <f t="shared" si="13"/>
+        <v>112870483694.37325</v>
+      </c>
+      <c r="O36" s="27">
+        <f t="shared" si="13"/>
+        <v>116070309349.28824</v>
+      </c>
+      <c r="P36" s="27">
+        <f t="shared" si="13"/>
+        <v>119084203707.91962</v>
+      </c>
+      <c r="Q36" s="27">
+        <f t="shared" si="13"/>
+        <v>121919493423.30681</v>
+      </c>
+      <c r="R36" s="27">
+        <f t="shared" si="13"/>
+        <v>124592409303.06229</v>
+      </c>
+      <c r="S36" s="27">
+        <f t="shared" si="13"/>
+        <v>127069304604.91312</v>
+      </c>
+      <c r="T36" s="27">
+        <f t="shared" si="13"/>
+        <v>129312010212.10809</v>
+      </c>
+      <c r="U36" s="27">
+        <f t="shared" si="13"/>
+        <v>131335088236.16837</v>
+      </c>
+      <c r="V36" s="27">
+        <f t="shared" si="13"/>
+        <v>133151573212.95319</v>
+      </c>
+      <c r="W36" s="27">
+        <f t="shared" si="13"/>
+        <v>134735362533.5405</v>
+      </c>
+      <c r="X36" s="27">
+        <f t="shared" si="13"/>
+        <v>136065498586.48903</v>
+      </c>
+      <c r="Y36" s="27">
+        <f t="shared" si="13"/>
+        <v>137166454285.94363</v>
+      </c>
+      <c r="Z36" s="27">
+        <f t="shared" si="13"/>
+        <v>138058888784.47089</v>
+      </c>
+      <c r="AA36" s="27">
+        <f t="shared" si="13"/>
+        <v>138760719420.67947</v>
+      </c>
+      <c r="AB36" s="27">
+        <f t="shared" si="13"/>
+        <v>139305374899.75757</v>
+      </c>
+      <c r="AC36" s="27">
+        <f t="shared" si="13"/>
+        <v>139724705316.49768</v>
+      </c>
+      <c r="AD36" s="27">
+        <f t="shared" si="13"/>
+        <v>140033188847.66629</v>
+      </c>
+      <c r="AE36" s="27">
+        <f t="shared" si="13"/>
+        <v>140246157474.56558</v>
+      </c>
+      <c r="AF36" s="27">
+        <f t="shared" si="13"/>
+        <v>140374182083.8981</v>
+      </c>
+      <c r="AG36" s="27">
+        <f t="shared" si="13"/>
+        <v>140429255349.62946</v>
+      </c>
+      <c r="AH36" s="27">
+        <f t="shared" si="13"/>
+        <v>140422857359.92255</v>
+      </c>
+      <c r="AI36" s="27">
+        <f t="shared" si="13"/>
+        <v>140365243893.42279</v>
+      </c>
+      <c r="AJ36" s="27">
+        <f t="shared" si="13"/>
+        <v>140265487454.35025</v>
+      </c>
+      <c r="AK36" s="27">
+        <f t="shared" si="13"/>
+        <v>140131099701.80679</v>
+      </c>
+      <c r="AL36" s="27">
+        <f t="shared" si="13"/>
+        <v>140675621511.55524</v>
+      </c>
+      <c r="AM36" s="38">
+        <f t="shared" si="13"/>
+        <v>143224184642.17831</v>
+      </c>
+      <c r="AN36" s="37">
         <f t="shared" si="9"/>
-        <v>74903631006.396164</v>
-      </c>
-      <c r="E36" s="27">
-        <f t="shared" si="9"/>
-        <v>78937375216.814301</v>
-      </c>
-      <c r="F36" s="27">
-        <f t="shared" si="9"/>
-        <v>82996067209.157059</v>
-      </c>
-      <c r="G36" s="27">
-        <f t="shared" si="9"/>
-        <v>87072176370.966095</v>
-      </c>
-      <c r="H36" s="27">
-        <f t="shared" si="9"/>
-        <v>90880559561.345978</v>
-      </c>
-      <c r="I36" s="27">
-        <f t="shared" si="9"/>
-        <v>94646472728.339493</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="9"/>
-        <v>98397287986.998093</v>
-      </c>
-      <c r="K36" s="27">
-        <f t="shared" si="9"/>
-        <v>102135499952.87811</v>
-      </c>
-      <c r="L36" s="27">
-        <f t="shared" si="9"/>
-        <v>105864395773.4299</v>
-      </c>
-      <c r="M36" s="27">
-        <f t="shared" si="9"/>
-        <v>109474376683.04561</v>
-      </c>
-      <c r="N36" s="27">
-        <f t="shared" si="9"/>
-        <v>112870483694.37325</v>
-      </c>
-      <c r="O36" s="27">
-        <f t="shared" si="9"/>
-        <v>116070309349.28824</v>
-      </c>
-      <c r="P36" s="27">
-        <f t="shared" si="9"/>
-        <v>119084203707.91962</v>
-      </c>
-      <c r="Q36" s="27">
-        <f t="shared" si="9"/>
-        <v>121919493423.30681</v>
-      </c>
-      <c r="R36" s="27">
-        <f t="shared" si="9"/>
-        <v>124592409303.06229</v>
-      </c>
-      <c r="S36" s="27">
-        <f t="shared" si="9"/>
-        <v>127069304604.91312</v>
-      </c>
-      <c r="T36" s="27">
-        <f t="shared" si="9"/>
-        <v>129312010212.10809</v>
-      </c>
-      <c r="U36" s="27">
-        <f t="shared" si="9"/>
-        <v>131335088236.16837</v>
-      </c>
-      <c r="V36" s="27">
-        <f t="shared" si="9"/>
-        <v>133151573212.95319</v>
-      </c>
-      <c r="W36" s="27">
-        <f t="shared" si="9"/>
-        <v>134735362533.5405</v>
-      </c>
-      <c r="X36" s="27">
-        <f t="shared" si="9"/>
-        <v>136065498586.48903</v>
-      </c>
-      <c r="Y36" s="27">
-        <f t="shared" si="9"/>
-        <v>137166454285.94363</v>
-      </c>
-      <c r="Z36" s="27">
-        <f t="shared" si="9"/>
-        <v>138058888784.47089</v>
-      </c>
-      <c r="AA36" s="27">
-        <f t="shared" si="9"/>
-        <v>138760719420.67947</v>
-      </c>
-      <c r="AB36" s="27">
-        <f t="shared" si="9"/>
-        <v>139305374899.75757</v>
-      </c>
-      <c r="AC36" s="27">
-        <f t="shared" si="9"/>
-        <v>139724705316.49768</v>
-      </c>
-      <c r="AD36" s="27">
-        <f t="shared" si="9"/>
-        <v>140033188847.66629</v>
-      </c>
-      <c r="AE36" s="27">
-        <f t="shared" si="9"/>
-        <v>140246157474.56558</v>
-      </c>
-      <c r="AF36" s="27">
-        <f t="shared" si="9"/>
-        <v>140374182083.8981</v>
-      </c>
-      <c r="AG36" s="27">
-        <f t="shared" si="9"/>
-        <v>140429255349.62946</v>
-      </c>
-      <c r="AH36" s="27">
-        <f t="shared" si="9"/>
-        <v>140422857359.92255</v>
-      </c>
-      <c r="AI36" s="27">
-        <f t="shared" si="9"/>
-        <v>140365243893.42279</v>
-      </c>
-      <c r="AJ36" s="27">
-        <f t="shared" si="9"/>
-        <v>140265487454.35025</v>
-      </c>
-      <c r="AK36" s="27">
-        <f t="shared" si="9"/>
-        <v>140131099701.80679</v>
-      </c>
-      <c r="AL36" s="27">
-        <f t="shared" si="9"/>
-        <v>140675621511.55524</v>
-      </c>
-      <c r="AM36" s="40">
-        <f t="shared" si="9"/>
-        <v>143217458819.56519</v>
-      </c>
-      <c r="AN36" s="39">
-        <f t="shared" si="6"/>
         <v>144648745154.76733</v>
       </c>
-      <c r="AO36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AO36" s="37">
+        <f t="shared" si="10"/>
         <v>146635306976.37338</v>
       </c>
-      <c r="AP36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AP36" s="37">
+        <f t="shared" si="10"/>
         <v>148621868797.97943</v>
       </c>
-      <c r="AQ36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AQ36" s="37">
+        <f t="shared" si="10"/>
         <v>150608430619.58545</v>
       </c>
-      <c r="AR36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AR36" s="37">
+        <f t="shared" si="10"/>
         <v>152594992441.1915</v>
       </c>
-      <c r="AS36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AS36" s="37">
+        <f t="shared" si="10"/>
         <v>154581554262.79755</v>
       </c>
-      <c r="AT36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AT36" s="37">
+        <f t="shared" si="10"/>
         <v>156568116084.40359</v>
       </c>
-      <c r="AU36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AU36" s="37">
+        <f t="shared" si="10"/>
         <v>158554677906.00964</v>
       </c>
-      <c r="AV36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AV36" s="37">
+        <f t="shared" si="10"/>
         <v>160541239727.61569</v>
       </c>
-      <c r="AW36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AW36" s="37">
+        <f t="shared" si="10"/>
         <v>162527801549.22174</v>
       </c>
-      <c r="AX36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AX36" s="37">
+        <f t="shared" si="10"/>
         <v>164514363370.82779</v>
       </c>
-      <c r="AY36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AY36" s="37">
+        <f t="shared" si="10"/>
         <v>166500925192.43384</v>
       </c>
-      <c r="AZ36" s="39">
-        <f t="shared" si="7"/>
+      <c r="AZ36" s="37">
+        <f t="shared" si="10"/>
         <v>168487487014.03986</v>
       </c>
-      <c r="BA36" s="39">
-        <f t="shared" si="7"/>
+      <c r="BA36" s="37">
+        <f t="shared" si="10"/>
         <v>170474048835.6459</v>
       </c>
-      <c r="BB36" s="39">
-        <f t="shared" si="7"/>
+      <c r="BB36" s="37">
+        <f t="shared" si="10"/>
         <v>172460610657.25195</v>
       </c>
-      <c r="BC36" s="39">
-        <f t="shared" si="7"/>
+      <c r="BC36" s="37">
+        <f t="shared" si="10"/>
         <v>174447172478.858</v>
       </c>
-      <c r="BD36" s="39">
-        <f t="shared" si="7"/>
+      <c r="BD36" s="37">
+        <f t="shared" si="10"/>
         <v>176433734300.46405</v>
       </c>
-      <c r="BE36" s="39">
-        <f t="shared" si="7"/>
+      <c r="BE36" s="37">
+        <f t="shared" si="10"/>
         <v>178420296122.0701</v>
       </c>
-      <c r="BF36" s="39">
-        <f t="shared" si="7"/>
+      <c r="BF36" s="37">
+        <f t="shared" si="10"/>
         <v>180406857943.67615</v>
       </c>
     </row>
@@ -9731,85 +9723,85 @@
         <f>AL34*units_conv!$A$2</f>
         <v>118319163.061979</v>
       </c>
-      <c r="AM42" s="38">
+      <c r="AM42" s="41">
         <f>AM34*units_conv!$A$2</f>
-        <v>103754203.98789287</v>
-      </c>
-      <c r="AN42" s="38">
+        <v>105530977.999247</v>
+      </c>
+      <c r="AN42" s="41">
         <f>AN34*units_conv!$A$2</f>
-        <v>89193684.277193636</v>
-      </c>
-      <c r="AO42" s="38">
+        <v>94124966.989867762</v>
+      </c>
+      <c r="AO42" s="41">
         <f>AO34*units_conv!$A$2</f>
-        <v>74633164.56649439</v>
-      </c>
-      <c r="AP42" s="38">
+        <v>83951741.742665485</v>
+      </c>
+      <c r="AP42" s="41">
         <f>AP34*units_conv!$A$2</f>
-        <v>60072644.855795145</v>
-      </c>
-      <c r="AQ42" s="38">
+        <v>74878060.168519214</v>
+      </c>
+      <c r="AQ42" s="41">
         <f>AQ34*units_conv!$A$2</f>
-        <v>45512125.1450959</v>
-      </c>
-      <c r="AR42" s="38">
+        <v>66785081.264740027</v>
+      </c>
+      <c r="AR42" s="41">
         <f>AR34*units_conv!$A$2</f>
-        <v>30951605.434396673</v>
-      </c>
-      <c r="AS42" s="38">
+        <v>59566808.615230925</v>
+      </c>
+      <c r="AS42" s="41">
         <f>AS34*units_conv!$A$2</f>
-        <v>16391085.72369742</v>
-      </c>
-      <c r="AT42" s="38">
+        <v>53128702.120436974</v>
+      </c>
+      <c r="AT42" s="41">
         <f>AT34*units_conv!$A$2</f>
-        <v>1830566.0129981809</v>
-      </c>
-      <c r="AU42" s="38">
+        <v>47386439.774454951</v>
+      </c>
+      <c r="AU42" s="41">
         <f>AU34*units_conv!$A$2</f>
-        <v>-12729953.697701072</v>
-      </c>
-      <c r="AV42" s="38">
+        <v>42264813.271888323</v>
+      </c>
+      <c r="AV42" s="41">
         <f>AV34*units_conv!$A$2</f>
-        <v>-27290473.408400312</v>
-      </c>
-      <c r="AW42" s="38">
+        <v>37696742.97984615</v>
+      </c>
+      <c r="AW42" s="41">
         <f>AW34*units_conv!$A$2</f>
-        <v>-41850993.119099542</v>
-      </c>
-      <c r="AX42" s="38">
+        <v>33622399.373848945</v>
+      </c>
+      <c r="AX42" s="41">
         <f>AX34*units_conv!$A$2</f>
-        <v>-56411512.829798773</v>
-      </c>
-      <c r="AY42" s="38">
+        <v>29988419.430797499</v>
+      </c>
+      <c r="AY42" s="41">
         <f>AY34*units_conv!$A$2</f>
-        <v>-70972032.540498033</v>
-      </c>
-      <c r="AZ42" s="38">
+        <v>26747207.715844959</v>
+      </c>
+      <c r="AZ42" s="41">
         <f>AZ34*units_conv!$A$2</f>
-        <v>-85532552.251197264</v>
-      </c>
-      <c r="BA42" s="38">
+        <v>23856313.00927588</v>
+      </c>
+      <c r="BA42" s="41">
         <f>BA34*units_conv!$A$2</f>
-        <v>-100093071.96189652</v>
-      </c>
-      <c r="BB42" s="38">
+        <v>21277872.308869038</v>
+      </c>
+      <c r="BB42" s="41">
         <f>BB34*units_conv!$A$2</f>
-        <v>-114653591.67259575</v>
-      </c>
-      <c r="BC42" s="38">
+        <v>18978114.925659176</v>
+      </c>
+      <c r="BC42" s="41">
         <f>BC34*units_conv!$A$2</f>
-        <v>-129214111.38329498</v>
-      </c>
-      <c r="BD42" s="38">
+        <v>16926920.17807636</v>
+      </c>
+      <c r="BD42" s="41">
         <f>BD34*units_conv!$A$2</f>
-        <v>-143774631.09399423</v>
-      </c>
-      <c r="BE42" s="38">
+        <v>15097422.891436981</v>
+      </c>
+      <c r="BE42" s="41">
         <f>BE34*units_conv!$A$2</f>
-        <v>-158335150.80469346</v>
-      </c>
-      <c r="BF42" s="38">
+        <v>13465661.535883043</v>
+      </c>
+      <c r="BF42" s="41">
         <f>BF34*units_conv!$A$2</f>
-        <v>-172895670.51539275</v>
+        <v>12010264.394316209</v>
       </c>
     </row>
     <row r="43" spans="2:58" x14ac:dyDescent="0.45">
@@ -10046,228 +10038,228 @@
         <v>87</v>
       </c>
       <c r="C44" s="27">
-        <f t="shared" ref="C44:AL44" si="10">SUM(C39:C43)</f>
+        <f t="shared" ref="C44:AL44" si="14">SUM(C39:C43)</f>
         <v>18639489708.117649</v>
       </c>
       <c r="D44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>19787442010.221695</v>
       </c>
       <c r="E44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>20853044285.776272</v>
       </c>
       <c r="F44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>21925237066.777439</v>
       </c>
       <c r="G44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>23002030976.270855</v>
       </c>
       <c r="H44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>24008099180.439888</v>
       </c>
       <c r="I44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25002947993.5909</v>
       </c>
       <c r="J44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>25993808362.101265</v>
       </c>
       <c r="K44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>26981339293.55172</v>
       </c>
       <c r="L44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>27966409160.258522</v>
       </c>
       <c r="M44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>28920065037.113522</v>
       </c>
       <c r="N44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>29817221418.509975</v>
       </c>
       <c r="O44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>30662525761.420174</v>
       </c>
       <c r="P44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>31458712261.928543</v>
       </c>
       <c r="Q44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>32207716416.621807</v>
       </c>
       <c r="R44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>32913825950.408569</v>
       </c>
       <c r="S44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>33568152336.089108</v>
       </c>
       <c r="T44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>34160612361.753021</v>
       </c>
       <c r="U44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>34695052929.525078</v>
       </c>
       <c r="V44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>35174917398.812271</v>
       </c>
       <c r="W44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>35593310191.210464</v>
       </c>
       <c r="X44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>35944694892.589981</v>
       </c>
       <c r="Y44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36235536561.626312</v>
       </c>
       <c r="Z44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36471292767.971252</v>
       </c>
       <c r="AA44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36656696770.799744</v>
       </c>
       <c r="AB44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36800579498.018761</v>
       </c>
       <c r="AC44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36911354852.869827</v>
       </c>
       <c r="AD44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>36992847564.265701</v>
       </c>
       <c r="AE44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37049107912.370926</v>
       </c>
       <c r="AF44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37082928429.467537</v>
       </c>
       <c r="AG44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37097477244.222313</v>
       </c>
       <c r="AH44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37095787074.485458</v>
       </c>
       <c r="AI44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37080567209.813293</v>
       </c>
       <c r="AJ44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37054214351.790619</v>
       </c>
       <c r="AK44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37018712870.425705</v>
       </c>
       <c r="AL44" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>37162560285.950577</v>
       </c>
       <c r="AM44" s="27">
-        <f t="shared" ref="AM44:BF44" si="11">SUM(AM39:AM43)</f>
-        <v>37834042531.282181</v>
+        <f t="shared" ref="AM44:BF44" si="15">SUM(AM39:AM43)</f>
+        <v>37835819305.293533</v>
       </c>
       <c r="AN44" s="27">
-        <f t="shared" si="11"/>
-        <v>38506289068.294189</v>
+        <f t="shared" si="15"/>
+        <v>38511220351.006866</v>
       </c>
       <c r="AO44" s="27">
-        <f t="shared" si="11"/>
-        <v>39178535605.306206</v>
+        <f t="shared" si="15"/>
+        <v>39187854182.482376</v>
       </c>
       <c r="AP44" s="27">
-        <f t="shared" si="11"/>
-        <v>39850782142.318207</v>
+        <f t="shared" si="15"/>
+        <v>39865587557.630928</v>
       </c>
       <c r="AQ44" s="27">
-        <f t="shared" si="11"/>
-        <v>40523028679.330208</v>
+        <f t="shared" si="15"/>
+        <v>40544301635.449852</v>
       </c>
       <c r="AR44" s="27">
-        <f t="shared" si="11"/>
-        <v>41195275216.342216</v>
+        <f t="shared" si="15"/>
+        <v>41223890419.523056</v>
       </c>
       <c r="AS44" s="27">
-        <f t="shared" si="11"/>
-        <v>41867521753.354233</v>
+        <f t="shared" si="15"/>
+        <v>41904259369.750977</v>
       </c>
       <c r="AT44" s="27">
-        <f t="shared" si="11"/>
-        <v>42539768290.366241</v>
+        <f t="shared" si="15"/>
+        <v>42585324164.127693</v>
       </c>
       <c r="AU44" s="27">
-        <f t="shared" si="11"/>
-        <v>43212014827.37825</v>
+        <f t="shared" si="15"/>
+        <v>43267009594.347839</v>
       </c>
       <c r="AV44" s="27">
-        <f t="shared" si="11"/>
-        <v>43884261364.390259</v>
+        <f t="shared" si="15"/>
+        <v>43949248580.778503</v>
       </c>
       <c r="AW44" s="27">
-        <f t="shared" si="11"/>
-        <v>44556507901.40226</v>
+        <f t="shared" si="15"/>
+        <v>44631981293.89521</v>
       </c>
       <c r="AX44" s="27">
-        <f t="shared" si="11"/>
-        <v>45228754438.414276</v>
+        <f t="shared" si="15"/>
+        <v>45315154370.674866</v>
       </c>
       <c r="AY44" s="27">
-        <f t="shared" si="11"/>
-        <v>45901000975.426285</v>
+        <f t="shared" si="15"/>
+        <v>45998720215.682617</v>
       </c>
       <c r="AZ44" s="27">
-        <f t="shared" si="11"/>
-        <v>46573247512.438286</v>
+        <f t="shared" si="15"/>
+        <v>46682636377.698761</v>
       </c>
       <c r="BA44" s="27">
-        <f t="shared" si="11"/>
-        <v>47245494049.450294</v>
+        <f t="shared" si="15"/>
+        <v>47366864993.721062</v>
       </c>
       <c r="BB44" s="27">
-        <f t="shared" si="11"/>
-        <v>47917740586.462303</v>
+        <f t="shared" si="15"/>
+        <v>48051372293.060555</v>
       </c>
       <c r="BC44" s="27">
-        <f t="shared" si="11"/>
-        <v>48589987123.474312</v>
+        <f t="shared" si="15"/>
+        <v>48736128155.035683</v>
       </c>
       <c r="BD44" s="27">
-        <f t="shared" si="11"/>
-        <v>49262233660.48632</v>
+        <f t="shared" si="15"/>
+        <v>49421105714.471748</v>
       </c>
       <c r="BE44" s="27">
-        <f t="shared" si="11"/>
-        <v>49934480197.498322</v>
+        <f t="shared" si="15"/>
+        <v>50106281009.838898</v>
       </c>
       <c r="BF44" s="27">
-        <f t="shared" si="11"/>
-        <v>50606726734.51033</v>
+        <f t="shared" si="15"/>
+        <v>50791632669.420044</v>
       </c>
     </row>
   </sheetData>
@@ -11460,7 +11452,7 @@
   </sheetPr>
   <dimension ref="A1:AZ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
@@ -11754,83 +11746,83 @@
       </c>
       <c r="AG2" s="3">
         <f>Calsc!AL28</f>
-        <v>0.19699795737340256</v>
+        <v>0.19699078505279566</v>
       </c>
       <c r="AH2" s="3">
         <f>Calsc!AM28</f>
-        <v>0.19799265705557414</v>
+        <v>0.19797285635107775</v>
       </c>
       <c r="AI2" s="3">
         <f>Calsc!AN28</f>
-        <v>0.19914286134132361</v>
+        <v>0.19910554519562038</v>
       </c>
       <c r="AJ2" s="3">
         <f>Calsc!AO28</f>
-        <v>0.20011111045680452</v>
+        <v>0.20005213788660534</v>
       </c>
       <c r="AK2" s="3">
         <f>Calsc!AP28</f>
-        <v>0.20106756222286185</v>
+        <v>0.20098327880154004</v>
       </c>
       <c r="AL2" s="3">
         <f>Calsc!AQ28</f>
-        <v>0.20201213279821165</v>
+        <v>0.20189936189248261</v>
       </c>
       <c r="AM2" s="3">
         <f>Calsc!AR28</f>
-        <v>0.20294516905774457</v>
+        <v>0.20280115677341815</v>
       </c>
       <c r="AN2" s="3">
         <f>Calsc!AS28</f>
-        <v>0.20386700450367015</v>
+        <v>0.20368937100693019</v>
       </c>
       <c r="AO2" s="3">
         <f>Calsc!AT28</f>
-        <v>0.2047779599037928</v>
+        <v>0.20456465619432168</v>
       </c>
       <c r="AP2" s="3">
         <f>Calsc!AU28</f>
-        <v>0.2056783438935765</v>
+        <v>0.20542761343256197</v>
       </c>
       <c r="AQ2" s="3">
         <f>Calsc!AV28</f>
-        <v>0.20656845354436973</v>
+        <v>0.20627879820306061</v>
       </c>
       <c r="AR2" s="3">
         <f>Calsc!AW28</f>
-        <v>0.20744857489999252</v>
+        <v>0.2071187247511512</v>
       </c>
       <c r="AS2" s="3">
         <f>Calsc!AX28</f>
-        <v>0.20831898348372066</v>
+        <v>0.20794787000946846</v>
       </c>
       <c r="AT2" s="3">
         <f>Calsc!AY28</f>
-        <v>0.20917994477755314</v>
+        <v>0.20876667711315136</v>
       </c>
       <c r="AU2" s="3">
         <f>Calsc!AZ28</f>
-        <v>0.21003171467551759</v>
+        <v>0.20957555854998927</v>
       </c>
       <c r="AV2" s="3">
         <f>Calsc!BA28</f>
-        <v>0.21087453991263883</v>
+        <v>0.21037489898422784</v>
       </c>
       <c r="AW2" s="3">
         <f>Calsc!BB28</f>
-        <v>0.21170865847107939</v>
+        <v>0.21116505778875058</v>
       </c>
       <c r="AX2" s="3">
         <f>Calsc!BC28</f>
-        <v>0.21253429996486009</v>
+        <v>0.21194637131673627</v>
       </c>
       <c r="AY2" s="3">
         <f>Calsc!BD28</f>
-        <v>0.21335168600446539</v>
+        <v>0.21271915494061144</v>
       </c>
       <c r="AZ2" s="3">
         <f>Calsc!BE28</f>
-        <v>0.21416103054254881</v>
+        <v>0.21348370488317187</v>
       </c>
     </row>
   </sheetData>
